--- a/0_0_Data/2_Processed_Data/1_rt_component_series/qoq_rt_data_CONSTR.xlsx
+++ b/0_0_Data/2_Processed_Data/1_rt_component_series/qoq_rt_data_CONSTR.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_0_Data/2_Processed_Data/1_rt_component_series/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_3095412A542915382EFF31D2F87AE380E884782F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9BA7470-C95D-4A48-8932-D4BB425C8535}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Datenstand</t>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,17 +94,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +150,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,6 +184,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,9 +219,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,14 +395,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AD64" workbookViewId="0">
+      <selection activeCell="AN76" sqref="AN76"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" customWidth="1"/>
+    <col min="53" max="53" width="18.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,168 +570,168 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>38398</v>
       </c>
       <c r="B2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="C2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="D2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="E2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="F2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="G2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="H2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="I2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="J2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="K2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="L2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="M2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="N2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="O2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="P2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="Q2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="R2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="S2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="T2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="U2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="V2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="W2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="X2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="Y2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="Z2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AA2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AB2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AC2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AD2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AE2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AF2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AG2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AH2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AI2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AJ2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AK2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AL2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AM2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AN2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AO2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AP2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AQ2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AR2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AS2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AT2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AU2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AV2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AW2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AX2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AY2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AZ2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="BA2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>38487</v>
       </c>
@@ -869,168 +892,168 @@
         <v>0.5468658301973619</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>38579</v>
       </c>
       <c r="B4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="C4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="D4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="E4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="F4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="G4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="H4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="I4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="J4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="K4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="L4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="M4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="N4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="O4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="P4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="Q4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="R4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="S4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="T4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="U4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="V4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="W4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="X4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="Y4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="Z4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AA4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AB4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AC4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AD4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AE4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AF4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AG4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AH4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AI4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AJ4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AK4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AL4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AM4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AN4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AO4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AP4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AQ4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AR4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AS4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AT4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AU4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AV4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AW4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AX4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AY4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AZ4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="BA4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>38671</v>
       </c>
@@ -1191,12 +1214,12 @@
         <v>2.087368604868217</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>38763</v>
       </c>
       <c r="B6">
-        <v>-4.00894200965179</v>
+        <v>-4.0089420096517898</v>
       </c>
       <c r="C6">
         <v>-4.690270233866471</v>
@@ -1352,337 +1375,337 @@
         <v>-3.591963924315849</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>38852</v>
       </c>
       <c r="B7">
-        <v>7.331255584053608</v>
+        <v>7.3312555840536078</v>
       </c>
       <c r="C7">
         <v>7.414335068573223</v>
       </c>
       <c r="D7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="E7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="F7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="G7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="H7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="I7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="J7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="K7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="L7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="M7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="N7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="O7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="P7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="Q7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="R7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="S7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="T7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="U7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="V7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="W7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="X7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="Y7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="Z7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AA7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AB7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AC7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AD7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AE7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AF7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AG7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AH7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AI7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AJ7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AK7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AL7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AM7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AN7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AO7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AP7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AQ7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AR7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AS7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AT7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AU7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AV7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AW7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AX7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AY7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AZ7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="BA7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>38944</v>
       </c>
       <c r="B8">
-        <v>1.949950506981409</v>
+        <v>1.9499505069814089</v>
       </c>
       <c r="C8">
-        <v>2.138987017452408</v>
+        <v>2.1389870174524082</v>
       </c>
       <c r="D8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="E8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="F8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="G8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="H8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="I8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="J8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="K8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="L8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="M8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="N8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="O8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="P8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="Q8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="R8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="S8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="T8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="U8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="V8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="W8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="X8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="Y8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="Z8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AA8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AB8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AC8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AD8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AE8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AF8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AG8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AH8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AI8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AJ8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AK8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AL8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AM8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AN8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AO8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AP8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AQ8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AR8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AS8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AT8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AU8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AV8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AW8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AX8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AY8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AZ8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="BA8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>39036</v>
       </c>
       <c r="B9">
-        <v>1.505172010700235</v>
+        <v>1.5051720107002351</v>
       </c>
       <c r="C9">
-        <v>2.014901788094761</v>
+        <v>2.0149017880947611</v>
       </c>
       <c r="D9">
         <v>2.005629097173383</v>
@@ -1835,7 +1858,7 @@
         <v>2.005629097173383</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>39128</v>
       </c>
@@ -1843,7 +1866,7 @@
         <v>1.416004207479489</v>
       </c>
       <c r="C10">
-        <v>0.5688489888087531</v>
+        <v>0.56884898880875312</v>
       </c>
       <c r="D10">
         <v>-0.1795504661406255</v>
@@ -1996,329 +2019,329 @@
         <v>-1.266836257901915</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>39217</v>
       </c>
       <c r="B11">
-        <v>-3.518004331294975</v>
+        <v>-3.5180043312949749</v>
       </c>
       <c r="C11">
         <v>-3.81771540391594</v>
       </c>
       <c r="D11">
-        <v>-3.485679124689185</v>
+        <v>-3.4856791246891849</v>
       </c>
       <c r="E11">
-        <v>-3.485679124689185</v>
+        <v>-3.4856791246891849</v>
       </c>
       <c r="F11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="G11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="H11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="I11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="J11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="K11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="L11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="M11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="N11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="O11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="P11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="Q11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="R11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="S11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="T11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="U11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="V11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="W11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="X11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="Y11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="Z11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AA11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AB11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AC11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AD11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AE11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AF11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AG11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AH11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AI11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AJ11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AK11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AL11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AM11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AN11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AO11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AP11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AQ11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AR11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AS11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AT11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AU11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AV11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AW11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AX11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AY11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AZ11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="BA11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>39309</v>
       </c>
       <c r="B12">
-        <v>0.558326298893121</v>
+        <v>0.55832629889312102</v>
       </c>
       <c r="C12">
-        <v>0.7341784496663166</v>
+        <v>0.73417844966631662</v>
       </c>
       <c r="D12">
-        <v>0.6305810873081583</v>
+        <v>0.63058108730815832</v>
       </c>
       <c r="E12">
-        <v>0.6305810873081583</v>
+        <v>0.63058108730815832</v>
       </c>
       <c r="F12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="G12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="H12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="I12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="J12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="K12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="L12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="M12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="N12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="O12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="P12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="Q12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="R12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="S12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="T12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="U12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="V12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="W12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="X12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="Y12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="Z12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AA12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AB12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AC12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AD12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AE12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AF12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AG12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AH12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AI12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AJ12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AK12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AL12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AM12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AN12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AO12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AP12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AQ12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AR12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AS12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AT12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AU12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AV12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AW12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AX12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AY12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AZ12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="BA12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>39401</v>
       </c>
@@ -2326,174 +2349,174 @@
         <v>-0.5352583396556696</v>
       </c>
       <c r="D13">
-        <v>0.3987643412228863</v>
+        <v>0.39876434122288629</v>
       </c>
       <c r="E13">
-        <v>0.3987643412228863</v>
+        <v>0.39876434122288629</v>
       </c>
       <c r="F13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="G13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="H13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="I13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="J13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="K13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="L13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="M13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="N13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="O13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="P13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="Q13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="R13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="S13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="T13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="U13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="V13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="W13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="X13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="Y13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="Z13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AA13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AB13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AC13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AD13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AE13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AF13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AG13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AH13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AI13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AJ13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AK13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AL13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AM13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AN13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AO13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AP13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AQ13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AR13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AS13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AT13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AU13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AV13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AW13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AX13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AY13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AZ13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="BA13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>39493</v>
       </c>
       <c r="C14">
-        <v>4.488226581078521</v>
+        <v>4.4882265810785213</v>
       </c>
       <c r="D14">
-        <v>5.549265701215745</v>
+        <v>5.5492657012157451</v>
       </c>
       <c r="E14">
         <v>5.495509969961347</v>
       </c>
       <c r="F14">
-        <v>5.929759985083223</v>
+        <v>5.9297599850832228</v>
       </c>
       <c r="G14">
-        <v>5.929759985083223</v>
+        <v>5.9297599850832228</v>
       </c>
       <c r="H14">
         <v>5.398981879140436</v>
@@ -2634,7 +2657,7 @@
         <v>5.398981879140436</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>39583</v>
       </c>
@@ -2642,7 +2665,7 @@
         <v>-3.397482474306742</v>
       </c>
       <c r="E15">
-        <v>-3.517653116378796</v>
+        <v>-3.5176531163787961</v>
       </c>
       <c r="F15">
         <v>-4.292127547065931</v>
@@ -2651,300 +2674,300 @@
         <v>-4.292127547065931</v>
       </c>
       <c r="H15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="I15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="J15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="K15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="L15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="M15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="N15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="O15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="P15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="Q15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="R15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="S15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="T15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="U15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="V15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="W15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="X15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="Y15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="Z15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AA15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AB15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AC15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AD15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AE15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AF15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AG15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AH15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AI15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AJ15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AK15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AL15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AM15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AN15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AO15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AP15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AQ15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AR15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AS15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AT15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AU15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AV15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AW15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AX15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AY15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AZ15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="BA15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>39675</v>
       </c>
       <c r="D16">
-        <v>0.2782562851571129</v>
+        <v>0.27825628515711293</v>
       </c>
       <c r="E16">
         <v>-0.1449229662240441</v>
       </c>
       <c r="F16">
-        <v>-0.4004142268336608</v>
+        <v>-0.40041422683366079</v>
       </c>
       <c r="G16">
-        <v>-0.4004142268336608</v>
+        <v>-0.40041422683366079</v>
       </c>
       <c r="H16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="I16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="J16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="K16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="L16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="M16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="N16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="O16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="P16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="Q16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="R16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="S16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="T16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="U16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="V16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="W16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="X16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="Y16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="Z16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AA16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AB16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AC16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AD16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AE16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AF16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AG16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AH16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AI16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AJ16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AK16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AL16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AM16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AN16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AO16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AP16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AQ16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AR16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AS16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AT16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AU16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AV16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AW16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AX16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AY16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AZ16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="BA16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>39767</v>
       </c>
@@ -2958,297 +2981,297 @@
         <v>-1.022271657802762</v>
       </c>
       <c r="H17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="I17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="J17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="K17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="L17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="M17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="N17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="O17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="P17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="Q17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="R17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="S17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="T17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="U17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="V17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="W17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="X17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="Y17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="Z17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AA17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AB17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AC17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AD17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AE17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AF17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AG17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AH17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AI17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AJ17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AK17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AL17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AM17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AN17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AO17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AP17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AQ17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AR17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AS17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AT17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AU17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AV17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AW17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AX17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AY17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AZ17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="BA17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>39859</v>
       </c>
       <c r="E18">
-        <v>-2.589909567620779</v>
+        <v>-2.5899095676207788</v>
       </c>
       <c r="F18">
-        <v>0.2552948587481154</v>
+        <v>0.25529485874811542</v>
       </c>
       <c r="G18">
-        <v>0.1740864873953143</v>
+        <v>0.17408648739531429</v>
       </c>
       <c r="H18">
-        <v>0.934950925467362</v>
+        <v>0.93495092546736203</v>
       </c>
       <c r="I18">
-        <v>-0.1989518887076827</v>
+        <v>-0.19895188870768271</v>
       </c>
       <c r="J18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="K18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="L18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="M18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="N18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="O18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="P18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="Q18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="R18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="S18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="T18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="U18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="V18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="W18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="X18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="Y18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="Z18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AA18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AB18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AC18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AD18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AE18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AF18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AG18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AH18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AI18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AJ18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AK18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AL18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AM18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AN18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AO18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AP18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AQ18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AR18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AS18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AT18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AU18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AV18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AW18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AX18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AY18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AZ18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="BA18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>39948</v>
       </c>
@@ -3256,148 +3279,148 @@
         <v>1.250154354816019</v>
       </c>
       <c r="G19">
-        <v>1.309070257767388</v>
+        <v>1.3090702577673881</v>
       </c>
       <c r="H19">
-        <v>-0.1753481395214322</v>
+        <v>-0.17534813952143219</v>
       </c>
       <c r="I19">
-        <v>-0.4103115971535516</v>
+        <v>-0.41031159715355159</v>
       </c>
       <c r="J19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="K19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="L19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="M19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="N19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="O19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="P19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="Q19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="R19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="S19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="T19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="U19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="V19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="W19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="X19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="Y19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="Z19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AA19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AB19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AC19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AD19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AE19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AF19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AG19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AH19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AI19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AJ19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AK19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AL19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AM19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AN19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AO19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AP19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AQ19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AR19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AS19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AT19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AU19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AV19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AW19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AX19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AY19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AZ19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="BA19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>40040</v>
       </c>
@@ -3405,148 +3428,148 @@
         <v>1.48621908594906</v>
       </c>
       <c r="G20">
-        <v>0.5717505200053097</v>
+        <v>0.57175052000530968</v>
       </c>
       <c r="H20">
         <v>0.5269297144938605</v>
       </c>
       <c r="I20">
-        <v>0.8710823441499684</v>
+        <v>0.87108234414996843</v>
       </c>
       <c r="J20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="K20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="L20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="M20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="N20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="O20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="P20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="Q20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="R20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="S20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="T20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="U20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="V20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="W20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="X20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="Y20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="Z20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AA20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AB20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AC20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AD20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AE20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AF20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AG20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AH20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AI20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AJ20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AK20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AL20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AM20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AN20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AO20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AP20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AQ20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AR20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AS20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AT20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AU20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AV20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AW20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AX20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AY20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AZ20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="BA20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>40132</v>
       </c>
@@ -3554,162 +3577,162 @@
         <v>-0.9550786931962989</v>
       </c>
       <c r="H21">
-        <v>-0.6639367870067758</v>
+        <v>-0.66393678700677583</v>
       </c>
       <c r="I21">
         <v>0.5368587067947459</v>
       </c>
       <c r="J21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="K21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="L21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="M21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="N21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="O21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="P21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="Q21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="R21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="S21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="T21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="U21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="V21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="W21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="X21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="Y21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="Z21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AA21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AB21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AC21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AD21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AE21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AF21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AG21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AH21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AI21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AJ21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AK21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AL21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AM21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AN21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AO21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AP21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AQ21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AR21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AS21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AT21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AU21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AV21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AW21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AX21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AY21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AZ21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="BA21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>40224</v>
       </c>
       <c r="G22">
-        <v>-3.82276900082762</v>
+        <v>-3.8227690008276198</v>
       </c>
       <c r="H22">
-        <v>-0.7621830007202988</v>
+        <v>-0.76218300072029876</v>
       </c>
       <c r="I22">
-        <v>-2.158967710325797</v>
+        <v>-2.1589677103257969</v>
       </c>
       <c r="J22">
-        <v>-2.529707323275119</v>
+        <v>-2.5297073232751188</v>
       </c>
       <c r="K22">
-        <v>-2.529707323275119</v>
+        <v>-2.5297073232751188</v>
       </c>
       <c r="L22">
         <v>-1.871721946158218</v>
@@ -3838,293 +3861,293 @@
         <v>-1.871721946158218</v>
       </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>40313</v>
       </c>
       <c r="H23">
-        <v>6.853351083518234</v>
+        <v>6.8533510835182341</v>
       </c>
       <c r="I23">
-        <v>6.738636080450704</v>
+        <v>6.7386360804507044</v>
       </c>
       <c r="J23">
-        <v>6.608175093341401</v>
+        <v>6.6081750933414014</v>
       </c>
       <c r="K23">
-        <v>6.608175093341401</v>
+        <v>6.6081750933414014</v>
       </c>
       <c r="L23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="M23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="N23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="O23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="P23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="Q23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="R23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="S23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="T23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="U23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="V23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="W23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="X23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="Y23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="Z23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AA23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AB23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AC23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AD23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AE23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AF23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AG23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AH23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AI23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AJ23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AK23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AL23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AM23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AN23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AO23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AP23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AQ23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AR23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AS23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AT23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AU23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AV23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AW23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AX23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AY23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AZ23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="BA23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>40405</v>
       </c>
       <c r="H24">
-        <v>-0.4202008038592311</v>
+        <v>-0.42020080385923109</v>
       </c>
       <c r="I24">
-        <v>-0.4668126072678263</v>
+        <v>-0.46681260726782631</v>
       </c>
       <c r="J24">
-        <v>-0.7854645482960336</v>
+        <v>-0.78546454829603363</v>
       </c>
       <c r="K24">
-        <v>-0.7854645482960336</v>
+        <v>-0.78546454829603363</v>
       </c>
       <c r="L24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="M24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="N24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="O24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="P24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="Q24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="R24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="S24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="T24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="U24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="V24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="W24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="X24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="Y24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="Z24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AA24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AB24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AC24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AD24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AE24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AF24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AG24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AH24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AI24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AJ24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AK24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AL24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AM24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AN24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AO24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AP24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AQ24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AR24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AS24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AT24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AU24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AV24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AW24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AX24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AY24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AZ24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="BA24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>40497</v>
       </c>
@@ -4132,10 +4155,10 @@
         <v>-2.590749655123886</v>
       </c>
       <c r="J25">
-        <v>-2.546741859731853</v>
+        <v>-2.5467418597318532</v>
       </c>
       <c r="K25">
-        <v>-2.546741859731853</v>
+        <v>-2.5467418597318532</v>
       </c>
       <c r="L25">
         <v>-2.926189405619382</v>
@@ -4264,284 +4287,284 @@
         <v>-2.926189405619382</v>
       </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>40589</v>
       </c>
       <c r="I26">
-        <v>6.190565668175878</v>
+        <v>6.1905656681758776</v>
       </c>
       <c r="J26">
-        <v>7.076441055898528</v>
+        <v>7.0764410558985276</v>
       </c>
       <c r="K26">
-        <v>7.164511323179497</v>
+        <v>7.1645113231794966</v>
       </c>
       <c r="L26">
-        <v>7.188360911840675</v>
+        <v>7.1883609118406753</v>
       </c>
       <c r="M26">
-        <v>7.188360911840675</v>
+        <v>7.1883609118406753</v>
       </c>
       <c r="N26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="O26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="P26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="Q26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="R26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="S26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="T26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="U26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="V26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="W26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="X26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="Y26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="Z26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AA26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AB26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AC26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AD26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AE26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AF26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AG26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AH26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AI26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AJ26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AK26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AL26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AM26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AN26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AO26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AP26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AQ26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AR26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AS26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AT26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AU26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AV26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AW26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AX26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AY26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AZ26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="BA26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>40678</v>
       </c>
       <c r="J27">
-        <v>-0.3747654729066028</v>
+        <v>-0.37476547290660278</v>
       </c>
       <c r="K27">
-        <v>-0.4657854397193972</v>
+        <v>-0.46578543971939718</v>
       </c>
       <c r="L27">
-        <v>-0.3628876179330121</v>
+        <v>-0.36288761793301211</v>
       </c>
       <c r="M27">
-        <v>-0.3628876179330121</v>
+        <v>-0.36288761793301211</v>
       </c>
       <c r="N27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="O27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="P27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="Q27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="R27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="S27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="T27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="U27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="V27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="W27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="X27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="Y27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="Z27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AA27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AB27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AC27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AD27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AE27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AF27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AG27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AH27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AI27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AJ27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AK27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AL27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AM27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AN27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AO27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AP27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AQ27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AR27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AS27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AT27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AU27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AV27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AW27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AX27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AY27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AZ27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="BA27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>40770</v>
       </c>
@@ -4552,267 +4575,267 @@
         <v>-1.036892547540091</v>
       </c>
       <c r="L28">
-        <v>-0.6646535746114495</v>
+        <v>-0.66465357461144947</v>
       </c>
       <c r="M28">
-        <v>-0.6646535746114495</v>
+        <v>-0.66465357461144947</v>
       </c>
       <c r="N28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="O28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="P28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="Q28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="R28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="S28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="T28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="U28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="V28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="W28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="X28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="Y28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="Z28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AA28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AB28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AC28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AD28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AE28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AF28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AG28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AH28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AI28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AJ28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AK28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AL28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AM28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AN28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AO28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AP28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AQ28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AR28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AS28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AT28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AU28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AV28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AW28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AX28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AY28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AZ28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="BA28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>40862</v>
       </c>
       <c r="K29">
-        <v>1.900795167469909</v>
+        <v>1.9007951674699091</v>
       </c>
       <c r="L29">
-        <v>1.448210162333183</v>
+        <v>1.4482101623331829</v>
       </c>
       <c r="M29">
-        <v>1.448210162333183</v>
+        <v>1.4482101623331829</v>
       </c>
       <c r="N29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="O29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="P29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="Q29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="R29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="S29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="T29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="U29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="V29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="W29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="X29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="Y29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="Z29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AA29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AB29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AC29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AD29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AE29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AF29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AG29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AH29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AI29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AJ29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AK29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AL29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AM29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AN29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AO29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AP29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AQ29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AR29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AS29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AT29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AU29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AV29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AW29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AX29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AY29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AZ29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="BA29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>40954</v>
       </c>
@@ -4820,264 +4843,264 @@
         <v>-1.346695203931787</v>
       </c>
       <c r="L30">
-        <v>-0.7318351942895021</v>
+        <v>-0.73183519428950206</v>
       </c>
       <c r="M30">
-        <v>-0.636985835998729</v>
+        <v>-0.63698583599872904</v>
       </c>
       <c r="N30">
-        <v>-0.4928406521765112</v>
+        <v>-0.49284065217651118</v>
       </c>
       <c r="O30">
-        <v>-0.5266927552308687</v>
+        <v>-0.52669275523086867</v>
       </c>
       <c r="P30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="Q30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="R30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="S30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="T30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="U30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="V30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="W30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="X30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="Y30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="Z30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AA30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AB30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AC30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AD30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AE30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AF30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AG30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AH30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AI30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AJ30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AK30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AL30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AM30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AN30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AO30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AP30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AQ30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AR30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AS30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AT30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AU30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AV30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AW30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AX30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AY30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AZ30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="BA30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>41044</v>
       </c>
       <c r="L31">
-        <v>-1.083097832193857</v>
+        <v>-1.0830978321938569</v>
       </c>
       <c r="M31">
-        <v>-1.382075545004028</v>
+        <v>-1.3820755450040281</v>
       </c>
       <c r="N31">
-        <v>-1.026125009980447</v>
+        <v>-1.0261250099804471</v>
       </c>
       <c r="O31">
         <v>-0.580873509698975</v>
       </c>
       <c r="P31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="Q31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="R31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="S31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="T31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="U31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="V31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="W31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="X31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="Y31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="Z31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AA31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AB31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AC31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AD31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AE31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AF31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AG31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AH31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AI31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AJ31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AK31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AL31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AM31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AN31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AO31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AP31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AQ31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AR31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AS31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AT31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AU31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AV31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AW31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AX31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AY31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AZ31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="BA31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>41136</v>
       </c>
@@ -5085,263 +5108,263 @@
         <v>1.527423145498517</v>
       </c>
       <c r="M32">
-        <v>0.5439700637557792</v>
+        <v>0.54397006375577917</v>
       </c>
       <c r="N32">
-        <v>0.4688005612554207</v>
+        <v>0.46880056125542069</v>
       </c>
       <c r="O32">
         <v>0.1527994894393174</v>
       </c>
       <c r="P32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="Q32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="R32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="S32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="T32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="U32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="V32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="W32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="X32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="Y32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="Z32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AA32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AB32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AC32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AD32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AE32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AF32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AG32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AH32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AI32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AJ32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AK32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AL32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AM32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AN32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AO32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AP32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AQ32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AR32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AS32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AT32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AU32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AV32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AW32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AX32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AY32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AZ32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="BA32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>41228</v>
       </c>
       <c r="M33">
-        <v>-0.7336069231399023</v>
+        <v>-0.73360692313990228</v>
       </c>
       <c r="N33">
-        <v>-1.022976092846264</v>
+        <v>-1.0229760928462639</v>
       </c>
       <c r="O33">
         <v>-1.139826337098754</v>
       </c>
       <c r="P33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="Q33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="R33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="S33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="T33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="U33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="V33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="W33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="X33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="Y33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="Z33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AA33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AB33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AC33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AD33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AE33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AF33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AG33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AH33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AI33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AJ33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AK33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AL33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AM33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AN33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AO33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AP33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AQ33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AR33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AS33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AT33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AU33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AV33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AW33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AX33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AY33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AZ33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="BA33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>41320</v>
       </c>
       <c r="M34">
-        <v>-2.087743866862297</v>
+        <v>-2.0877438668622972</v>
       </c>
       <c r="N34">
         <v>-2.257495436498274</v>
@@ -5350,126 +5373,126 @@
         <v>-1.459428426433931</v>
       </c>
       <c r="P34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="Q34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="R34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="S34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="T34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="U34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="V34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="W34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="X34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="Y34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="Z34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AA34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AB34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AC34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AD34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AE34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AF34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AG34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AH34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AI34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AJ34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AK34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AL34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AM34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AN34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AO34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AP34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AQ34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AR34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AS34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AT34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AU34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AV34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AW34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AX34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AY34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AZ34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="BA34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>41409</v>
       </c>
       <c r="N35">
-        <v>1.910794643105291</v>
+        <v>1.9107946431052909</v>
       </c>
       <c r="O35">
         <v>1.695211655536482</v>
@@ -5589,15 +5612,15 @@
         <v>2.972562358782</v>
       </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>41501</v>
       </c>
       <c r="N36">
-        <v>2.357326252789392</v>
+        <v>2.3573262527893921</v>
       </c>
       <c r="O36">
-        <v>2.074651759437302</v>
+        <v>2.0746517594373022</v>
       </c>
       <c r="P36">
         <v>1.814509864363558</v>
@@ -5714,12 +5737,12 @@
         <v>1.814509864363558</v>
       </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>41593</v>
       </c>
       <c r="O37">
-        <v>0.1952713007581366</v>
+        <v>0.19527130075813659</v>
       </c>
       <c r="P37">
         <v>0.7290697448430592</v>
@@ -5836,253 +5859,253 @@
         <v>0.7290697448430592</v>
       </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>41685</v>
       </c>
       <c r="O38">
-        <v>3.640709258360772</v>
+        <v>3.6407092583607721</v>
       </c>
       <c r="P38">
-        <v>4.164058292324142</v>
+        <v>4.1640582923241416</v>
       </c>
       <c r="Q38">
-        <v>4.510240378433707</v>
+        <v>4.5102403784337071</v>
       </c>
       <c r="R38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="S38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="T38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="U38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="V38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="W38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="X38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="Y38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="Z38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AA38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AB38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AC38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AD38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AE38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AF38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AG38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AH38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AI38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AJ38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AK38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AL38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AM38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AN38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AO38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AP38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AQ38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AR38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AS38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AT38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AU38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AV38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AW38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AX38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AY38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AZ38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="BA38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>41774</v>
       </c>
       <c r="P39">
-        <v>-3.894663176624903</v>
+        <v>-3.8946631766249031</v>
       </c>
       <c r="Q39">
         <v>-3.719213407076055</v>
       </c>
       <c r="R39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="S39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="T39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="U39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="V39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="W39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="X39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="Y39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="Z39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AA39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AB39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AC39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AD39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AE39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AF39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AG39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AH39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AI39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AJ39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AK39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AL39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AM39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AN39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AO39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AP39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AQ39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AR39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AS39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AT39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AU39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AV39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AW39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AX39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AY39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AZ39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="BA39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>41866</v>
       </c>
       <c r="P40">
-        <v>-0.3481151130353908</v>
+        <v>-0.34811511303539078</v>
       </c>
       <c r="Q40">
         <v>-1.527407223205103</v>
@@ -6196,352 +6219,352 @@
         <v>-0.3546604117736365</v>
       </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>41958</v>
       </c>
       <c r="Q41">
-        <v>1.325647082233132</v>
+        <v>1.3256470822331321</v>
       </c>
       <c r="R41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="S41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="T41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="U41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="V41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="W41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="X41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="Y41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="Z41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AA41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AB41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AC41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AD41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AE41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AF41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AG41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AH41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AI41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AJ41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AK41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AL41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AM41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AN41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AO41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AP41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AQ41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AR41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AS41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AT41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AU41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AV41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AW41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AX41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AY41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AZ41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="BA41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>42050</v>
       </c>
       <c r="Q42">
-        <v>1.699889349474006</v>
+        <v>1.6998893494740059</v>
       </c>
       <c r="R42">
-        <v>1.805615163316432</v>
+        <v>1.8056151633164319</v>
       </c>
       <c r="S42">
         <v>1.440417714861923</v>
       </c>
       <c r="T42">
-        <v>0.8605590954670532</v>
+        <v>0.86055909546705323</v>
       </c>
       <c r="U42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="V42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="W42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="X42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="Y42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="Z42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AA42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AB42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AC42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AD42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AE42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AF42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AG42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AH42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AI42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AJ42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AK42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AL42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AM42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AN42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AO42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AP42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AQ42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AR42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AS42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AT42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AU42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AV42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AW42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AX42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AY42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AZ42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="BA42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42139</v>
       </c>
       <c r="R43">
-        <v>-1.301240742391741</v>
+        <v>-1.3012407423917409</v>
       </c>
       <c r="S43">
         <v>-1.65477164223762</v>
       </c>
       <c r="T43">
-        <v>-1.189064592924879</v>
+        <v>-1.1890645929248791</v>
       </c>
       <c r="U43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="V43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="W43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="X43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="Y43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="Z43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AA43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AB43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AC43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AD43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AE43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AF43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AG43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AH43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AI43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AJ43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AK43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AL43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AM43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AN43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AO43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AP43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AQ43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AR43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AS43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AT43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AU43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AV43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AW43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AX43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AY43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AZ43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="BA43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>42231</v>
       </c>
@@ -6549,222 +6572,222 @@
         <v>-0.3250787905929684</v>
       </c>
       <c r="S44">
-        <v>-0.2728336931123465</v>
+        <v>-0.27283369311234651</v>
       </c>
       <c r="T44">
-        <v>-0.2112725709039154</v>
+        <v>-0.21127257090391541</v>
       </c>
       <c r="U44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="V44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="W44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="X44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="Y44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="Z44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AA44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AB44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AC44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AD44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AE44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AF44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AG44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AH44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AI44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AJ44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AK44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AL44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AM44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AN44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AO44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AP44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AQ44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AR44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AS44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AT44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AU44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AV44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AW44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AX44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AY44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AZ44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="BA44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>42323</v>
       </c>
       <c r="S45">
-        <v>1.969890649492385</v>
+        <v>1.9698906494923849</v>
       </c>
       <c r="T45">
         <v>1.933166771253241</v>
       </c>
       <c r="U45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="V45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="W45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="X45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="Y45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="Z45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AA45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AB45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AC45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AD45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AE45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AF45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AG45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AH45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AI45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AJ45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AK45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AL45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AM45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AN45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AO45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AP45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AQ45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AR45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AS45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AT45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AU45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AV45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AW45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AX45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AY45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AZ45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="BA45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>42415</v>
       </c>
@@ -6772,7 +6795,7 @@
         <v>2.325384209656022</v>
       </c>
       <c r="T46">
-        <v>2.275808065958486</v>
+        <v>2.2758080659584858</v>
       </c>
       <c r="U46">
         <v>2.087453263562125</v>
@@ -6874,12 +6897,12 @@
         <v>2.087453263562125</v>
       </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>42505</v>
       </c>
       <c r="T47">
-        <v>-1.907286449114537</v>
+        <v>-1.9072864491145369</v>
       </c>
       <c r="U47">
         <v>-1.438164479066856</v>
@@ -6981,223 +7004,223 @@
         <v>-1.438164479066856</v>
       </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>42597</v>
       </c>
       <c r="T48">
-        <v>0.279053692590864</v>
+        <v>0.27905369259086399</v>
       </c>
       <c r="U48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="V48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="W48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="X48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="Y48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="Z48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AA48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AB48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AC48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AD48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AE48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AF48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AG48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AH48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AI48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AJ48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AK48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AL48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AM48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AN48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AO48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AP48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AQ48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AR48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AS48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AT48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AU48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AV48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AW48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AX48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AY48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AZ48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="BA48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>42689</v>
       </c>
       <c r="U49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="V49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="W49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="X49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="Y49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="Z49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AA49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AB49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AC49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AD49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AE49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AF49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AG49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AH49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AI49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AJ49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AK49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AL49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AM49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AN49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AO49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AP49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AQ49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AR49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AS49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AT49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AU49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AV49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AW49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AX49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AY49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AZ49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="BA49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>42781</v>
       </c>
       <c r="U50">
-        <v>2.300176363883708</v>
+        <v>2.3001763638837081</v>
       </c>
       <c r="V50">
         <v>3.542226646026521</v>
@@ -7296,116 +7319,116 @@
         <v>2.86126545641612</v>
       </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>42870</v>
       </c>
       <c r="V51">
-        <v>0.494904046794133</v>
+        <v>0.49490404679413302</v>
       </c>
       <c r="W51">
-        <v>0.541911999530555</v>
+        <v>0.54191199953055502</v>
       </c>
       <c r="X51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="Y51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="Z51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AA51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AB51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AC51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AD51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AE51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AF51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AG51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AH51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AI51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AJ51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AK51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AL51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AM51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AN51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AO51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AP51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AQ51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AR51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AS51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AT51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AU51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AV51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AW51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AX51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AY51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AZ51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="BA51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>42962</v>
       </c>
       <c r="V52">
-        <v>-0.4319943098424801</v>
+        <v>-0.43199430984248011</v>
       </c>
       <c r="W52">
-        <v>-0.2521030831923952</v>
+        <v>-0.25210308319239522</v>
       </c>
       <c r="X52">
         <v>-0.2174083661145261</v>
@@ -7498,12 +7521,12 @@
         <v>-0.2174083661145261</v>
       </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>43054</v>
       </c>
       <c r="W53">
-        <v>-0.3573295186820644</v>
+        <v>-0.35732951868206442</v>
       </c>
       <c r="X53">
         <v>0.1045745676356802</v>
@@ -7596,12 +7619,12 @@
         <v>0.1045745676356802</v>
       </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>43146</v>
       </c>
       <c r="X54">
-        <v>2.072093850483441</v>
+        <v>2.0720938504834412</v>
       </c>
       <c r="Y54">
         <v>1.598757058788109</v>
@@ -7610,7 +7633,7 @@
         <v>1.6</v>
       </c>
       <c r="AA54">
-        <v>0.8016152084585428</v>
+        <v>0.80161520845854284</v>
       </c>
       <c r="AB54">
         <v>0.9</v>
@@ -7691,18 +7714,18 @@
         <v>0.4936918743079417</v>
       </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>43235</v>
       </c>
       <c r="Y55">
-        <v>0.6091507626016153</v>
+        <v>0.60915076260161527</v>
       </c>
       <c r="Z55">
         <v>0.9</v>
       </c>
       <c r="AA55">
-        <v>0.8698747027684703</v>
+        <v>0.86987470276847034</v>
       </c>
       <c r="AB55">
         <v>0.8</v>
@@ -7783,7 +7806,7 @@
         <v>1.322625689988016</v>
       </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>43327</v>
       </c>
@@ -7791,93 +7814,93 @@
         <v>0.9</v>
       </c>
       <c r="AA56">
-        <v>0.7186276419777187</v>
+        <v>0.71862764197771867</v>
       </c>
       <c r="AB56">
         <v>0.9</v>
       </c>
       <c r="AC56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AD56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AE56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AF56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AG56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AH56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AI56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AJ56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AK56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AL56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AM56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AN56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AO56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AP56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AQ56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AR56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AS56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AT56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AU56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AV56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AW56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AX56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AY56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AZ56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="BA56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>43419</v>
       </c>
       <c r="AA57">
-        <v>1.284323073947277</v>
+        <v>1.2843230739472771</v>
       </c>
       <c r="AB57">
         <v>1</v>
@@ -7958,7 +7981,7 @@
         <v>1.240850467000882</v>
       </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>43511</v>
       </c>
@@ -7972,7 +7995,7 @@
         <v>2.460441995432646</v>
       </c>
       <c r="AE58">
-        <v>2.645671404159515</v>
+        <v>2.6456714041595149</v>
       </c>
       <c r="AF58">
         <v>2.6</v>
@@ -8041,7 +8064,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>43600</v>
       </c>
@@ -8052,7 +8075,7 @@
         <v>-1.062312873792649</v>
       </c>
       <c r="AE59">
-        <v>-0.9267403458937906</v>
+        <v>-0.92674034589379062</v>
       </c>
       <c r="AF59">
         <v>-0.9</v>
@@ -8121,12 +8144,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>43692</v>
       </c>
       <c r="AD60">
-        <v>1.17298037143037</v>
+        <v>1.1729803714303699</v>
       </c>
       <c r="AE60">
         <v>0.3597775049439349</v>
@@ -8198,12 +8221,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>43784</v>
       </c>
       <c r="AE61">
-        <v>0.600450051363751</v>
+        <v>0.60045005136375096</v>
       </c>
       <c r="AF61">
         <v>0.1</v>
@@ -8272,21 +8295,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>43876</v>
       </c>
       <c r="AF62">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AG62">
         <v>5.143518966296142</v>
       </c>
       <c r="AH62">
-        <v>5.081116221897645</v>
+        <v>5.0811162218976449</v>
       </c>
       <c r="AI62">
-        <v>4.303279541522855</v>
+        <v>4.3032795415228549</v>
       </c>
       <c r="AJ62">
         <v>4.305581231918552</v>
@@ -8343,284 +8366,272 @@
         <v>4.305581231918552</v>
       </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>43966</v>
       </c>
       <c r="AG63">
-        <v>-4.222133416425748</v>
+        <v>-4.2221334164257476</v>
       </c>
       <c r="AH63">
-        <v>-4.267050498250555</v>
+        <v>-4.2670504982505548</v>
       </c>
       <c r="AI63">
         <v>-4.290232713625997</v>
       </c>
       <c r="AJ63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AK63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AL63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AM63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AN63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AO63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AP63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AQ63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AR63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AS63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AT63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AU63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AV63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AW63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AX63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AY63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AZ63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="BA63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>44058</v>
       </c>
-      <c r="AG64">
-        <v>-0.3941836453765433</v>
-      </c>
       <c r="AH64">
         <v>-1.967214790670653</v>
       </c>
       <c r="AI64">
-        <v>-1.276911061902183</v>
+        <v>-1.2769110619021831</v>
       </c>
       <c r="AJ64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AK64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AL64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AM64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AN64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AO64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AP64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AQ64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AR64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AS64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AT64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AU64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AV64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AW64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AX64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AY64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AZ64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="BA64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>44150</v>
       </c>
-      <c r="AH65">
-        <v>0.8801590087334432</v>
-      </c>
       <c r="AI65">
-        <v>1.836112747457122</v>
+        <v>1.8361127474571219</v>
       </c>
       <c r="AJ65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AK65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AL65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AM65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AN65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AO65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AP65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AQ65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AR65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AS65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AT65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AU65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AV65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AW65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AX65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AY65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AZ65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="BA65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>44242</v>
       </c>
-      <c r="AI66">
-        <v>-3.629169871908772</v>
-      </c>
       <c r="AJ66">
-        <v>1.142507241736567</v>
+        <v>1.1425072417365669</v>
       </c>
       <c r="AK66">
-        <v>-0.2325328291396005</v>
+        <v>-0.23253282913960049</v>
       </c>
       <c r="AL66">
-        <v>0.08049591280251889</v>
+        <v>8.0495912802518887E-2</v>
       </c>
       <c r="AM66">
-        <v>0.2191557424553423</v>
+        <v>0.21915574245534231</v>
       </c>
       <c r="AN66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AO66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AP66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AQ66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AR66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AS66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AT66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AU66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AV66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AW66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AX66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AY66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AZ66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="BA66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>44331</v>
       </c>
-      <c r="AJ67">
-        <v>0.6879412097722906</v>
-      </c>
       <c r="AK67">
-        <v>0.2778921468196529</v>
+        <v>0.27789214681965291</v>
       </c>
       <c r="AL67">
-        <v>1.751565756623123</v>
+        <v>1.7515657566231231</v>
       </c>
       <c r="AM67">
-        <v>1.722446681285959</v>
+        <v>1.7224466812859589</v>
       </c>
       <c r="AN67">
         <v>1.620116340063873</v>
@@ -8665,174 +8676,162 @@
         <v>1.620116340063873</v>
       </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>44423</v>
       </c>
-      <c r="AK68">
-        <v>1.095591413702294</v>
-      </c>
       <c r="AL68">
-        <v>-2.336211685220064</v>
+        <v>-2.3362116852200638</v>
       </c>
       <c r="AM68">
-        <v>-3.649757113826652</v>
+        <v>-3.6497571138266518</v>
       </c>
       <c r="AN68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AO68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AP68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AQ68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AR68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AS68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AT68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AU68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AV68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AW68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AX68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AY68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AZ68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="BA68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>44515</v>
       </c>
-      <c r="AL69">
-        <v>0.3375818094670819</v>
-      </c>
       <c r="AM69">
-        <v>0.03642954902896633</v>
+        <v>3.6429549028966328E-2</v>
       </c>
       <c r="AN69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AO69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AP69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AQ69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AR69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AS69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AT69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AU69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AV69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AW69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AX69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AY69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AZ69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="BA69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>44607</v>
       </c>
-      <c r="AM70">
-        <v>2.107773878883052</v>
-      </c>
       <c r="AN70">
-        <v>4.623062809051376</v>
+        <v>4.6230628090513761</v>
       </c>
       <c r="AO70">
-        <v>3.085418695361923</v>
+        <v>3.0854186953619229</v>
       </c>
       <c r="AP70">
-        <v>3.094465495652827</v>
+        <v>3.0944654956528268</v>
       </c>
       <c r="AQ70">
         <v>3.508331755114042</v>
       </c>
       <c r="AR70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AS70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AT70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AU70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AV70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AW70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AX70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AY70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AZ70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="BA70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>44696</v>
       </c>
-      <c r="AN71">
-        <v>-1.59627740363824</v>
-      </c>
       <c r="AO71">
-        <v>-3.361711150938063</v>
+        <v>-3.3617111509380631</v>
       </c>
       <c r="AP71">
         <v>-3.229763247769398</v>
@@ -8841,133 +8840,124 @@
         <v>-3.1555962096012</v>
       </c>
       <c r="AR71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AS71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AT71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AU71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AV71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AW71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AX71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AY71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AZ71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="BA71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>44788</v>
       </c>
-      <c r="AO72">
-        <v>-0.2429958482083094</v>
-      </c>
       <c r="AP72">
-        <v>-1.432989117992093</v>
+        <v>-1.4329891179920931</v>
       </c>
       <c r="AQ72">
         <v>-0.9206572350902178</v>
       </c>
       <c r="AR72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AS72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AT72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AU72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AV72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AW72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AX72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AY72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AZ72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="BA72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>44880</v>
       </c>
-      <c r="AP73">
-        <v>-0.5009691804783216</v>
-      </c>
       <c r="AQ73">
         <v>-2.851410521811431</v>
       </c>
       <c r="AR73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AS73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AT73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AU73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AV73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AW73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AX73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AY73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AZ73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="BA73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>44972</v>
       </c>
-      <c r="AQ74">
-        <v>0.6399165487990643</v>
-      </c>
       <c r="AR74">
-        <v>3.933557394002079</v>
+        <v>3.9335573940020789</v>
       </c>
       <c r="AS74">
-        <v>2.658999312549739</v>
+        <v>2.6589993125497391</v>
       </c>
       <c r="AT74">
         <v>2.678152809435701</v>
@@ -8994,180 +8984,159 @@
         <v>1.5011358099934</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>45061</v>
       </c>
-      <c r="AR75">
-        <v>-1.082392568246973</v>
-      </c>
       <c r="AS75">
-        <v>0.2329359358994338</v>
+        <v>0.23293593589943379</v>
       </c>
       <c r="AT75">
-        <v>-0.9129160204005728</v>
+        <v>-0.91291602040057285</v>
       </c>
       <c r="AU75">
-        <v>-0.5069487710583047</v>
+        <v>-0.50694877105830471</v>
       </c>
       <c r="AV75">
-        <v>-0.5164324031961769</v>
+        <v>-0.51643240319617689</v>
       </c>
       <c r="AW75">
-        <v>-0.5164324031961769</v>
+        <v>-0.51643240319617689</v>
       </c>
       <c r="AX75">
-        <v>-0.5164324031961769</v>
+        <v>-0.51643240319617689</v>
       </c>
       <c r="AY75">
-        <v>-0.5164324031961769</v>
+        <v>-0.51643240319617689</v>
       </c>
       <c r="AZ75">
-        <v>-0.5164324031961769</v>
+        <v>-0.51643240319617689</v>
       </c>
       <c r="BA75">
-        <v>-0.5164324031961769</v>
+        <v>-0.51643240319617689</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>45153</v>
       </c>
-      <c r="AS76">
-        <v>-1.253192088351895</v>
-      </c>
       <c r="AT76">
-        <v>0.4324506349439758</v>
+        <v>0.43245063494397579</v>
       </c>
       <c r="AU76">
-        <v>-0.8020295740224554</v>
+        <v>-0.80202957402245545</v>
       </c>
       <c r="AV76">
-        <v>-0.7267585812813877</v>
+        <v>-0.72675858128138771</v>
       </c>
       <c r="AW76">
-        <v>-0.7267585812813877</v>
+        <v>-0.72675858128138771</v>
       </c>
       <c r="AX76">
-        <v>-0.7267585812813877</v>
+        <v>-0.72675858128138771</v>
       </c>
       <c r="AY76">
-        <v>-0.7267585812813877</v>
+        <v>-0.72675858128138771</v>
       </c>
       <c r="AZ76">
-        <v>-0.7267585812813877</v>
+        <v>-0.72675858128138771</v>
       </c>
       <c r="BA76">
-        <v>-0.7267585812813877</v>
+        <v>-0.72675858128138771</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>45245</v>
       </c>
-      <c r="AT77">
-        <v>-1.225249013415265</v>
-      </c>
       <c r="AU77">
         <v>-1.721673722292465</v>
       </c>
       <c r="AV77">
-        <v>-1.863476264789497</v>
+        <v>-1.8634762647894969</v>
       </c>
       <c r="AW77">
-        <v>-1.863476264789497</v>
+        <v>-1.8634762647894969</v>
       </c>
       <c r="AX77">
-        <v>-1.863476264789497</v>
+        <v>-1.8634762647894969</v>
       </c>
       <c r="AY77">
-        <v>-1.863476264789497</v>
+        <v>-1.8634762647894969</v>
       </c>
       <c r="AZ77">
-        <v>-1.863476264789497</v>
+        <v>-1.8634762647894969</v>
       </c>
       <c r="BA77">
-        <v>-1.863476264789497</v>
+        <v>-1.8634762647894969</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>45337</v>
       </c>
-      <c r="AU78">
-        <v>-0.1672491925858992</v>
-      </c>
       <c r="AV78">
         <v>2.712662502476618</v>
       </c>
       <c r="AW78">
-        <v>0.784529906638511</v>
+        <v>0.78452990663851097</v>
       </c>
       <c r="AX78">
-        <v>0.7163099147568914</v>
+        <v>0.71630991475689143</v>
       </c>
       <c r="AY78">
-        <v>0.7275854585864039</v>
+        <v>0.72758545858640389</v>
       </c>
       <c r="AZ78">
-        <v>0.5061198669764195</v>
+        <v>0.50611986697641953</v>
       </c>
       <c r="BA78">
-        <v>0.5061198669764195</v>
+        <v>0.50611986697641953</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>45427</v>
       </c>
-      <c r="AV79">
-        <v>-1.315428906515805</v>
-      </c>
       <c r="AW79">
-        <v>-2.00812900028761</v>
+        <v>-2.0081290002876102</v>
       </c>
       <c r="AX79">
         <v>-2.246549282342869</v>
       </c>
       <c r="AY79">
-        <v>-2.144695252132095</v>
+        <v>-2.1446952521320952</v>
       </c>
       <c r="AZ79">
-        <v>-1.844723754442185</v>
+        <v>-1.8447237544421851</v>
       </c>
       <c r="BA79">
-        <v>-1.844723754442185</v>
+        <v>-1.8447237544421851</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>45519</v>
       </c>
-      <c r="AW80">
-        <v>-0.6454450625183199</v>
-      </c>
       <c r="AX80">
         <v>-0.346469331090276</v>
       </c>
       <c r="AY80">
-        <v>-0.5306342168332918</v>
+        <v>-0.53063421683329182</v>
       </c>
       <c r="AZ80">
-        <v>-0.3113146714536583</v>
+        <v>-0.31131467145365832</v>
       </c>
       <c r="BA80">
-        <v>-0.3113146714536583</v>
+        <v>-0.31131467145365832</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>45611</v>
       </c>
-      <c r="AX81">
-        <v>-0.3642442736871487</v>
-      </c>
       <c r="AY81">
-        <v>1.043712238889796</v>
+        <v>1.0437122388897959</v>
       </c>
       <c r="AZ81">
         <v>0.8443262641745406</v>
@@ -9176,37 +9145,23 @@
         <v>0.8443262641745406</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>45703</v>
       </c>
-      <c r="AY82">
-        <v>-0.2250721972476839</v>
-      </c>
       <c r="AZ82">
-        <v>0.5275848603473889</v>
+        <v>0.52758486034738894</v>
       </c>
       <c r="BA82">
-        <v>0.1899266166843745</v>
+        <v>0.18992661668437449</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>45792</v>
       </c>
-      <c r="AZ83">
-        <v>-0.00499463464311134</v>
-      </c>
       <c r="BA83">
-        <v>-2.073458279789094</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="2">
-        <v>45884</v>
-      </c>
-      <c r="BA84">
-        <v>-0.1440085263791531</v>
+        <v>-2.0734582797890941</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/1_rt_component_series/qoq_rt_data_CONSTR.xlsx
+++ b/0_0_Data/2_Processed_Data/1_rt_component_series/qoq_rt_data_CONSTR.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_0_Data/2_Processed_Data/1_rt_component_series/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_3095412A542915382EFF31D2F87AE380E884782F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9BA7470-C95D-4A48-8932-D4BB425C8535}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,11 +22,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,25 +88,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,7 +136,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -184,7 +170,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -219,10 +204,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,21 +379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD64" workbookViewId="0">
-      <selection activeCell="AN76" sqref="AN76"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
-    <col min="2" max="2" width="29.08984375" customWidth="1"/>
-    <col min="53" max="53" width="18.453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,168 +547,168 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53">
       <c r="A2" s="2">
         <v>38398</v>
       </c>
       <c r="B2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="C2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="D2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="E2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="F2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="G2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="H2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="I2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="J2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="K2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="L2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="M2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="N2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="O2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="P2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="Q2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="R2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="S2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="T2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="U2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="V2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="W2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="X2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="Y2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="Z2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AA2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AB2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AC2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AD2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AE2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AF2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AG2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AH2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AI2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AJ2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AK2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AL2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AM2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AN2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AO2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AP2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AQ2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AR2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AS2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AT2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AU2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AV2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AW2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AX2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AY2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AZ2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="BA2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53">
       <c r="A3" s="2">
         <v>38487</v>
       </c>
@@ -892,168 +869,168 @@
         <v>0.5468658301973619</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53">
       <c r="A4" s="2">
         <v>38579</v>
       </c>
       <c r="B4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="C4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="D4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="E4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="F4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="G4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="H4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="I4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="J4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="K4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="L4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="M4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="N4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="O4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="P4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="Q4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="R4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="S4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="T4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="U4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="V4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="W4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="X4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="Y4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="Z4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AA4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AB4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AC4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AD4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AE4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AF4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AG4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AH4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AI4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AJ4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AK4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AL4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AM4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AN4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AO4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AP4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AQ4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AR4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AS4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AT4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AU4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AV4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AW4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AX4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AY4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AZ4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="BA4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53">
       <c r="A5" s="2">
         <v>38671</v>
       </c>
@@ -1214,12 +1191,12 @@
         <v>2.087368604868217</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53">
       <c r="A6" s="2">
         <v>38763</v>
       </c>
       <c r="B6">
-        <v>-4.0089420096517898</v>
+        <v>-4.00894200965179</v>
       </c>
       <c r="C6">
         <v>-4.690270233866471</v>
@@ -1375,337 +1352,337 @@
         <v>-3.591963924315849</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53">
       <c r="A7" s="2">
         <v>38852</v>
       </c>
       <c r="B7">
-        <v>7.3312555840536078</v>
+        <v>7.331255584053608</v>
       </c>
       <c r="C7">
         <v>7.414335068573223</v>
       </c>
       <c r="D7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="E7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="F7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="G7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="H7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="I7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="J7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="K7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="L7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="M7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="N7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="O7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="P7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="Q7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="R7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="S7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="T7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="U7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="V7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="W7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="X7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="Y7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="Z7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AA7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AB7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AC7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AD7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AE7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AF7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AG7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AH7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AI7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AJ7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AK7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AL7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AM7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AN7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AO7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AP7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AQ7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AR7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AS7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AT7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AU7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AV7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AW7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AX7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AY7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AZ7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="BA7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53">
       <c r="A8" s="2">
         <v>38944</v>
       </c>
       <c r="B8">
-        <v>1.9499505069814089</v>
+        <v>1.949950506981409</v>
       </c>
       <c r="C8">
-        <v>2.1389870174524082</v>
+        <v>2.138987017452408</v>
       </c>
       <c r="D8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="E8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="F8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="G8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="H8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="I8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="J8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="K8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="L8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="M8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="N8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="O8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="P8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="Q8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="R8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="S8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="T8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="U8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="V8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="W8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="X8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="Y8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="Z8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AA8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AB8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AC8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AD8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AE8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AF8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AG8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AH8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AI8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AJ8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AK8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AL8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AM8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AN8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AO8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AP8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AQ8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AR8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AS8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AT8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AU8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AV8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AW8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AX8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AY8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AZ8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="BA8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53">
       <c r="A9" s="2">
         <v>39036</v>
       </c>
       <c r="B9">
-        <v>1.5051720107002351</v>
+        <v>1.505172010700235</v>
       </c>
       <c r="C9">
-        <v>2.0149017880947611</v>
+        <v>2.014901788094761</v>
       </c>
       <c r="D9">
         <v>2.005629097173383</v>
@@ -1858,7 +1835,7 @@
         <v>2.005629097173383</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53">
       <c r="A10" s="2">
         <v>39128</v>
       </c>
@@ -1866,7 +1843,7 @@
         <v>1.416004207479489</v>
       </c>
       <c r="C10">
-        <v>0.56884898880875312</v>
+        <v>0.5688489888087531</v>
       </c>
       <c r="D10">
         <v>-0.1795504661406255</v>
@@ -2019,329 +1996,329 @@
         <v>-1.266836257901915</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53">
       <c r="A11" s="2">
         <v>39217</v>
       </c>
       <c r="B11">
-        <v>-3.5180043312949749</v>
+        <v>-3.518004331294975</v>
       </c>
       <c r="C11">
         <v>-3.81771540391594</v>
       </c>
       <c r="D11">
-        <v>-3.4856791246891849</v>
+        <v>-3.485679124689185</v>
       </c>
       <c r="E11">
-        <v>-3.4856791246891849</v>
+        <v>-3.485679124689185</v>
       </c>
       <c r="F11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="G11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="H11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="I11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="J11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="K11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="L11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="M11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="N11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="O11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="P11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="Q11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="R11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="S11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="T11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="U11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="V11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="W11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="X11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="Y11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="Z11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AA11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AB11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AC11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AD11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AE11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AF11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AG11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AH11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AI11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AJ11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AK11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AL11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AM11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AN11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AO11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AP11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AQ11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AR11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AS11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AT11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AU11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AV11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AW11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AX11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AY11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AZ11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="BA11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53">
       <c r="A12" s="2">
         <v>39309</v>
       </c>
       <c r="B12">
-        <v>0.55832629889312102</v>
+        <v>0.558326298893121</v>
       </c>
       <c r="C12">
-        <v>0.73417844966631662</v>
+        <v>0.7341784496663166</v>
       </c>
       <c r="D12">
-        <v>0.63058108730815832</v>
+        <v>0.6305810873081583</v>
       </c>
       <c r="E12">
-        <v>0.63058108730815832</v>
+        <v>0.6305810873081583</v>
       </c>
       <c r="F12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="G12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="H12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="I12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="J12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="K12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="L12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="M12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="N12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="O12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="P12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="Q12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="R12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="S12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="T12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="U12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="V12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="W12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="X12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="Y12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="Z12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AA12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AB12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AC12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AD12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AE12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AF12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AG12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AH12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AI12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AJ12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AK12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AL12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AM12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AN12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AO12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AP12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AQ12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AR12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AS12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AT12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AU12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AV12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AW12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AX12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AY12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AZ12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="BA12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53">
       <c r="A13" s="2">
         <v>39401</v>
       </c>
@@ -2349,174 +2326,174 @@
         <v>-0.5352583396556696</v>
       </c>
       <c r="D13">
-        <v>0.39876434122288629</v>
+        <v>0.3987643412228863</v>
       </c>
       <c r="E13">
-        <v>0.39876434122288629</v>
+        <v>0.3987643412228863</v>
       </c>
       <c r="F13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="G13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="H13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="I13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="J13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="K13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="L13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="M13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="N13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="O13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="P13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="Q13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="R13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="S13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="T13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="U13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="V13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="W13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="X13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="Y13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="Z13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AA13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AB13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AC13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AD13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AE13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AF13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AG13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AH13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AI13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AJ13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AK13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AL13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AM13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AN13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AO13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AP13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AQ13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AR13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AS13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AT13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AU13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AV13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AW13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AX13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AY13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AZ13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="BA13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53">
       <c r="A14" s="2">
         <v>39493</v>
       </c>
       <c r="C14">
-        <v>4.4882265810785213</v>
+        <v>4.488226581078521</v>
       </c>
       <c r="D14">
-        <v>5.5492657012157451</v>
+        <v>5.549265701215745</v>
       </c>
       <c r="E14">
         <v>5.495509969961347</v>
       </c>
       <c r="F14">
-        <v>5.9297599850832228</v>
+        <v>5.929759985083223</v>
       </c>
       <c r="G14">
-        <v>5.9297599850832228</v>
+        <v>5.929759985083223</v>
       </c>
       <c r="H14">
         <v>5.398981879140436</v>
@@ -2657,7 +2634,7 @@
         <v>5.398981879140436</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53">
       <c r="A15" s="2">
         <v>39583</v>
       </c>
@@ -2665,7 +2642,7 @@
         <v>-3.397482474306742</v>
       </c>
       <c r="E15">
-        <v>-3.5176531163787961</v>
+        <v>-3.517653116378796</v>
       </c>
       <c r="F15">
         <v>-4.292127547065931</v>
@@ -2674,300 +2651,300 @@
         <v>-4.292127547065931</v>
       </c>
       <c r="H15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="I15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="J15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="K15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="L15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="M15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="N15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="O15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="P15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="Q15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="R15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="S15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="T15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="U15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="V15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="W15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="X15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="Y15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="Z15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AA15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AB15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AC15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AD15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AE15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AF15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AG15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AH15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AI15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AJ15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AK15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AL15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AM15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AN15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AO15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AP15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AQ15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AR15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AS15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AT15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AU15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AV15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AW15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AX15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AY15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AZ15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="BA15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53">
       <c r="A16" s="2">
         <v>39675</v>
       </c>
       <c r="D16">
-        <v>0.27825628515711293</v>
+        <v>0.2782562851571129</v>
       </c>
       <c r="E16">
         <v>-0.1449229662240441</v>
       </c>
       <c r="F16">
-        <v>-0.40041422683366079</v>
+        <v>-0.4004142268336608</v>
       </c>
       <c r="G16">
-        <v>-0.40041422683366079</v>
+        <v>-0.4004142268336608</v>
       </c>
       <c r="H16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="I16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="J16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="K16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="L16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="M16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="N16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="O16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="P16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="Q16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="R16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="S16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="T16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="U16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="V16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="W16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="X16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="Y16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="Z16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AA16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AB16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AC16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AD16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AE16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AF16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AG16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AH16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AI16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AJ16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AK16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AL16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AM16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AN16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AO16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AP16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AQ16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AR16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AS16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AT16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AU16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AV16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AW16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AX16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AY16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AZ16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="BA16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53">
       <c r="A17" s="2">
         <v>39767</v>
       </c>
@@ -2981,297 +2958,297 @@
         <v>-1.022271657802762</v>
       </c>
       <c r="H17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="I17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="J17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="K17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="L17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="M17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="N17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="O17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="P17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="Q17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="R17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="S17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="T17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="U17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="V17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="W17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="X17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="Y17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="Z17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AA17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AB17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AC17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AD17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AE17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AF17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AG17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AH17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AI17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AJ17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AK17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AL17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AM17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AN17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AO17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AP17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AQ17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AR17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AS17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AT17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AU17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AV17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AW17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AX17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AY17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AZ17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="BA17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:53">
       <c r="A18" s="2">
         <v>39859</v>
       </c>
       <c r="E18">
-        <v>-2.5899095676207788</v>
+        <v>-2.589909567620779</v>
       </c>
       <c r="F18">
-        <v>0.25529485874811542</v>
+        <v>0.2552948587481154</v>
       </c>
       <c r="G18">
-        <v>0.17408648739531429</v>
+        <v>0.1740864873953143</v>
       </c>
       <c r="H18">
-        <v>0.93495092546736203</v>
+        <v>0.934950925467362</v>
       </c>
       <c r="I18">
-        <v>-0.19895188870768271</v>
+        <v>-0.1989518887076827</v>
       </c>
       <c r="J18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="K18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="L18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="M18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="N18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="O18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="P18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="Q18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="R18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="S18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="T18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="U18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="V18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="W18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="X18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="Y18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="Z18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AA18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AB18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AC18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AD18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AE18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AF18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AG18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AH18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AI18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AJ18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AK18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AL18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AM18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AN18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AO18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AP18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AQ18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AR18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AS18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AT18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AU18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AV18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AW18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AX18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AY18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AZ18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="BA18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:53">
       <c r="A19" s="2">
         <v>39948</v>
       </c>
@@ -3279,148 +3256,148 @@
         <v>1.250154354816019</v>
       </c>
       <c r="G19">
-        <v>1.3090702577673881</v>
+        <v>1.309070257767388</v>
       </c>
       <c r="H19">
-        <v>-0.17534813952143219</v>
+        <v>-0.1753481395214322</v>
       </c>
       <c r="I19">
-        <v>-0.41031159715355159</v>
+        <v>-0.4103115971535516</v>
       </c>
       <c r="J19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="K19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="L19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="M19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="N19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="O19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="P19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="Q19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="R19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="S19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="T19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="U19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="V19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="W19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="X19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="Y19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="Z19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AA19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AB19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AC19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AD19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AE19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AF19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AG19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AH19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AI19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AJ19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AK19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AL19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AM19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AN19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AO19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AP19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AQ19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AR19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AS19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AT19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AU19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AV19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AW19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AX19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AY19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AZ19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="BA19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:53">
       <c r="A20" s="2">
         <v>40040</v>
       </c>
@@ -3428,148 +3405,148 @@
         <v>1.48621908594906</v>
       </c>
       <c r="G20">
-        <v>0.57175052000530968</v>
+        <v>0.5717505200053097</v>
       </c>
       <c r="H20">
         <v>0.5269297144938605</v>
       </c>
       <c r="I20">
-        <v>0.87108234414996843</v>
+        <v>0.8710823441499684</v>
       </c>
       <c r="J20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="K20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="L20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="M20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="N20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="O20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="P20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="Q20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="R20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="S20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="T20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="U20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="V20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="W20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="X20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="Y20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="Z20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AA20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AB20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AC20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AD20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AE20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AF20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AG20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AH20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AI20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AJ20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AK20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AL20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AM20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AN20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AO20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AP20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AQ20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AR20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AS20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AT20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AU20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AV20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AW20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AX20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AY20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AZ20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="BA20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:53">
       <c r="A21" s="2">
         <v>40132</v>
       </c>
@@ -3577,162 +3554,162 @@
         <v>-0.9550786931962989</v>
       </c>
       <c r="H21">
-        <v>-0.66393678700677583</v>
+        <v>-0.6639367870067758</v>
       </c>
       <c r="I21">
         <v>0.5368587067947459</v>
       </c>
       <c r="J21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="K21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="L21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="M21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="N21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="O21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="P21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="Q21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="R21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="S21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="T21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="U21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="V21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="W21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="X21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="Y21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="Z21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AA21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AB21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AC21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AD21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AE21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AF21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AG21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AH21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AI21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AJ21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AK21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AL21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AM21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AN21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AO21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AP21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AQ21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AR21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AS21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AT21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AU21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AV21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AW21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AX21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AY21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AZ21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="BA21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:53">
       <c r="A22" s="2">
         <v>40224</v>
       </c>
       <c r="G22">
-        <v>-3.8227690008276198</v>
+        <v>-3.82276900082762</v>
       </c>
       <c r="H22">
-        <v>-0.76218300072029876</v>
+        <v>-0.7621830007202988</v>
       </c>
       <c r="I22">
-        <v>-2.1589677103257969</v>
+        <v>-2.158967710325797</v>
       </c>
       <c r="J22">
-        <v>-2.5297073232751188</v>
+        <v>-2.529707323275119</v>
       </c>
       <c r="K22">
-        <v>-2.5297073232751188</v>
+        <v>-2.529707323275119</v>
       </c>
       <c r="L22">
         <v>-1.871721946158218</v>
@@ -3861,293 +3838,293 @@
         <v>-1.871721946158218</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:53">
       <c r="A23" s="2">
         <v>40313</v>
       </c>
       <c r="H23">
-        <v>6.8533510835182341</v>
+        <v>6.853351083518234</v>
       </c>
       <c r="I23">
-        <v>6.7386360804507044</v>
+        <v>6.738636080450704</v>
       </c>
       <c r="J23">
-        <v>6.6081750933414014</v>
+        <v>6.608175093341401</v>
       </c>
       <c r="K23">
-        <v>6.6081750933414014</v>
+        <v>6.608175093341401</v>
       </c>
       <c r="L23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="M23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="N23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="O23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="P23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="Q23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="R23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="S23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="T23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="U23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="V23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="W23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="X23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="Y23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="Z23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AA23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AB23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AC23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AD23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AE23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AF23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AG23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AH23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AI23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AJ23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AK23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AL23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AM23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AN23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AO23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AP23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AQ23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AR23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AS23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AT23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AU23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AV23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AW23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AX23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AY23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AZ23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="BA23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:53">
       <c r="A24" s="2">
         <v>40405</v>
       </c>
       <c r="H24">
-        <v>-0.42020080385923109</v>
+        <v>-0.4202008038592311</v>
       </c>
       <c r="I24">
-        <v>-0.46681260726782631</v>
+        <v>-0.4668126072678263</v>
       </c>
       <c r="J24">
-        <v>-0.78546454829603363</v>
+        <v>-0.7854645482960336</v>
       </c>
       <c r="K24">
-        <v>-0.78546454829603363</v>
+        <v>-0.7854645482960336</v>
       </c>
       <c r="L24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="M24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="N24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="O24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="P24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="Q24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="R24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="S24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="T24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="U24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="V24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="W24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="X24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="Y24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="Z24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AA24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AB24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AC24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AD24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AE24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AF24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AG24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AH24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AI24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AJ24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AK24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AL24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AM24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AN24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AO24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AP24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AQ24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AR24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AS24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AT24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AU24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AV24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AW24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AX24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AY24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AZ24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="BA24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:53">
       <c r="A25" s="2">
         <v>40497</v>
       </c>
@@ -4155,10 +4132,10 @@
         <v>-2.590749655123886</v>
       </c>
       <c r="J25">
-        <v>-2.5467418597318532</v>
+        <v>-2.546741859731853</v>
       </c>
       <c r="K25">
-        <v>-2.5467418597318532</v>
+        <v>-2.546741859731853</v>
       </c>
       <c r="L25">
         <v>-2.926189405619382</v>
@@ -4287,284 +4264,284 @@
         <v>-2.926189405619382</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:53">
       <c r="A26" s="2">
         <v>40589</v>
       </c>
       <c r="I26">
-        <v>6.1905656681758776</v>
+        <v>6.190565668175878</v>
       </c>
       <c r="J26">
-        <v>7.0764410558985276</v>
+        <v>7.076441055898528</v>
       </c>
       <c r="K26">
-        <v>7.1645113231794966</v>
+        <v>7.164511323179497</v>
       </c>
       <c r="L26">
-        <v>7.1883609118406753</v>
+        <v>7.188360911840675</v>
       </c>
       <c r="M26">
-        <v>7.1883609118406753</v>
+        <v>7.188360911840675</v>
       </c>
       <c r="N26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="O26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="P26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="Q26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="R26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="S26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="T26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="U26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="V26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="W26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="X26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="Y26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="Z26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AA26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AB26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AC26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AD26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AE26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AF26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AG26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AH26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AI26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AJ26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AK26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AL26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AM26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AN26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AO26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AP26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AQ26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AR26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AS26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AT26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AU26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AV26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AW26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AX26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AY26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AZ26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="BA26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:53">
       <c r="A27" s="2">
         <v>40678</v>
       </c>
       <c r="J27">
-        <v>-0.37476547290660278</v>
+        <v>-0.3747654729066028</v>
       </c>
       <c r="K27">
-        <v>-0.46578543971939718</v>
+        <v>-0.4657854397193972</v>
       </c>
       <c r="L27">
-        <v>-0.36288761793301211</v>
+        <v>-0.3628876179330121</v>
       </c>
       <c r="M27">
-        <v>-0.36288761793301211</v>
+        <v>-0.3628876179330121</v>
       </c>
       <c r="N27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="O27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="P27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="Q27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="R27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="S27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="T27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="U27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="V27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="W27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="X27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="Y27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="Z27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AA27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AB27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AC27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AD27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AE27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AF27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AG27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AH27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AI27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AJ27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AK27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AL27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AM27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AN27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AO27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AP27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AQ27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AR27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AS27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AT27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AU27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AV27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AW27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AX27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AY27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AZ27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="BA27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:53">
       <c r="A28" s="2">
         <v>40770</v>
       </c>
@@ -4575,267 +4552,267 @@
         <v>-1.036892547540091</v>
       </c>
       <c r="L28">
-        <v>-0.66465357461144947</v>
+        <v>-0.6646535746114495</v>
       </c>
       <c r="M28">
-        <v>-0.66465357461144947</v>
+        <v>-0.6646535746114495</v>
       </c>
       <c r="N28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="O28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="P28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="Q28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="R28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="S28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="T28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="U28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="V28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="W28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="X28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="Y28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="Z28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AA28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AB28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AC28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AD28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AE28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AF28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AG28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AH28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AI28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AJ28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AK28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AL28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AM28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AN28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AO28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AP28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AQ28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AR28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AS28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AT28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AU28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AV28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AW28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AX28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AY28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AZ28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="BA28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:53">
       <c r="A29" s="2">
         <v>40862</v>
       </c>
       <c r="K29">
-        <v>1.9007951674699091</v>
+        <v>1.900795167469909</v>
       </c>
       <c r="L29">
-        <v>1.4482101623331829</v>
+        <v>1.448210162333183</v>
       </c>
       <c r="M29">
-        <v>1.4482101623331829</v>
+        <v>1.448210162333183</v>
       </c>
       <c r="N29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="O29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="P29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="Q29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="R29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="S29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="T29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="U29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="V29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="W29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="X29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="Y29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="Z29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AA29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AB29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AC29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AD29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AE29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AF29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AG29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AH29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AI29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AJ29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AK29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AL29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AM29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AN29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AO29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AP29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AQ29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AR29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AS29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AT29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AU29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AV29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AW29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AX29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AY29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AZ29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="BA29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:53">
       <c r="A30" s="2">
         <v>40954</v>
       </c>
@@ -4843,264 +4820,264 @@
         <v>-1.346695203931787</v>
       </c>
       <c r="L30">
-        <v>-0.73183519428950206</v>
+        <v>-0.7318351942895021</v>
       </c>
       <c r="M30">
-        <v>-0.63698583599872904</v>
+        <v>-0.636985835998729</v>
       </c>
       <c r="N30">
-        <v>-0.49284065217651118</v>
+        <v>-0.4928406521765112</v>
       </c>
       <c r="O30">
-        <v>-0.52669275523086867</v>
+        <v>-0.5266927552308687</v>
       </c>
       <c r="P30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="Q30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="R30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="S30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="T30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="U30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="V30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="W30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="X30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="Y30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="Z30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AA30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AB30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AC30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AD30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AE30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AF30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AG30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AH30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AI30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AJ30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AK30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AL30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AM30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AN30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AO30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AP30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AQ30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AR30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AS30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AT30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AU30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AV30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AW30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AX30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AY30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AZ30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="BA30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:53">
       <c r="A31" s="2">
         <v>41044</v>
       </c>
       <c r="L31">
-        <v>-1.0830978321938569</v>
+        <v>-1.083097832193857</v>
       </c>
       <c r="M31">
-        <v>-1.3820755450040281</v>
+        <v>-1.382075545004028</v>
       </c>
       <c r="N31">
-        <v>-1.0261250099804471</v>
+        <v>-1.026125009980447</v>
       </c>
       <c r="O31">
         <v>-0.580873509698975</v>
       </c>
       <c r="P31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="Q31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="R31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="S31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="T31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="U31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="V31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="W31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="X31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="Y31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="Z31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AA31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AB31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AC31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AD31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AE31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AF31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AG31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AH31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AI31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AJ31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AK31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AL31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AM31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AN31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AO31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AP31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AQ31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AR31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AS31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AT31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AU31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AV31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AW31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AX31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AY31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AZ31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="BA31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:53">
       <c r="A32" s="2">
         <v>41136</v>
       </c>
@@ -5108,263 +5085,263 @@
         <v>1.527423145498517</v>
       </c>
       <c r="M32">
-        <v>0.54397006375577917</v>
+        <v>0.5439700637557792</v>
       </c>
       <c r="N32">
-        <v>0.46880056125542069</v>
+        <v>0.4688005612554207</v>
       </c>
       <c r="O32">
         <v>0.1527994894393174</v>
       </c>
       <c r="P32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="Q32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="R32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="S32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="T32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="U32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="V32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="W32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="X32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="Y32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="Z32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AA32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AB32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AC32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AD32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AE32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AF32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AG32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AH32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AI32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AJ32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AK32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AL32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AM32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AN32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AO32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AP32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AQ32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AR32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AS32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AT32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AU32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AV32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AW32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AX32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AY32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AZ32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="BA32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:53">
       <c r="A33" s="2">
         <v>41228</v>
       </c>
       <c r="M33">
-        <v>-0.73360692313990228</v>
+        <v>-0.7336069231399023</v>
       </c>
       <c r="N33">
-        <v>-1.0229760928462639</v>
+        <v>-1.022976092846264</v>
       </c>
       <c r="O33">
         <v>-1.139826337098754</v>
       </c>
       <c r="P33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="Q33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="R33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="S33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="T33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="U33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="V33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="W33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="X33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="Y33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="Z33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AA33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AB33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AC33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AD33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AE33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AF33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AG33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AH33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AI33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AJ33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AK33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AL33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AM33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AN33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AO33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AP33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AQ33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AR33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AS33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AT33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AU33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AV33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AW33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AX33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AY33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AZ33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="BA33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:53">
       <c r="A34" s="2">
         <v>41320</v>
       </c>
       <c r="M34">
-        <v>-2.0877438668622972</v>
+        <v>-2.087743866862297</v>
       </c>
       <c r="N34">
         <v>-2.257495436498274</v>
@@ -5373,126 +5350,126 @@
         <v>-1.459428426433931</v>
       </c>
       <c r="P34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="Q34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="R34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="S34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="T34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="U34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="V34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="W34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="X34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="Y34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="Z34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AA34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AB34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AC34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AD34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AE34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AF34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AG34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AH34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AI34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AJ34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AK34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AL34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AM34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AN34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AO34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AP34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AQ34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AR34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AS34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AT34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AU34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AV34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AW34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AX34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AY34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AZ34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="BA34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:53">
       <c r="A35" s="2">
         <v>41409</v>
       </c>
       <c r="N35">
-        <v>1.9107946431052909</v>
+        <v>1.910794643105291</v>
       </c>
       <c r="O35">
         <v>1.695211655536482</v>
@@ -5612,15 +5589,15 @@
         <v>2.972562358782</v>
       </c>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:53">
       <c r="A36" s="2">
         <v>41501</v>
       </c>
       <c r="N36">
-        <v>2.3573262527893921</v>
+        <v>2.357326252789392</v>
       </c>
       <c r="O36">
-        <v>2.0746517594373022</v>
+        <v>2.074651759437302</v>
       </c>
       <c r="P36">
         <v>1.814509864363558</v>
@@ -5737,12 +5714,12 @@
         <v>1.814509864363558</v>
       </c>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:53">
       <c r="A37" s="2">
         <v>41593</v>
       </c>
       <c r="O37">
-        <v>0.19527130075813659</v>
+        <v>0.1952713007581366</v>
       </c>
       <c r="P37">
         <v>0.7290697448430592</v>
@@ -5859,253 +5836,253 @@
         <v>0.7290697448430592</v>
       </c>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:53">
       <c r="A38" s="2">
         <v>41685</v>
       </c>
       <c r="O38">
-        <v>3.6407092583607721</v>
+        <v>3.640709258360772</v>
       </c>
       <c r="P38">
-        <v>4.1640582923241416</v>
+        <v>4.164058292324142</v>
       </c>
       <c r="Q38">
-        <v>4.5102403784337071</v>
+        <v>4.510240378433707</v>
       </c>
       <c r="R38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="S38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="T38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="U38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="V38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="W38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="X38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="Y38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="Z38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AA38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AB38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AC38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AD38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AE38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AF38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AG38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AH38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AI38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AJ38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AK38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AL38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AM38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AN38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AO38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AP38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AQ38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AR38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AS38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AT38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AU38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AV38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AW38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AX38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AY38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AZ38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="BA38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:53">
       <c r="A39" s="2">
         <v>41774</v>
       </c>
       <c r="P39">
-        <v>-3.8946631766249031</v>
+        <v>-3.894663176624903</v>
       </c>
       <c r="Q39">
         <v>-3.719213407076055</v>
       </c>
       <c r="R39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="S39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="T39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="U39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="V39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="W39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="X39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="Y39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="Z39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AA39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AB39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AC39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AD39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AE39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AF39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AG39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AH39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AI39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AJ39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AK39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AL39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AM39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AN39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AO39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AP39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AQ39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AR39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AS39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AT39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AU39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AV39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AW39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AX39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AY39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AZ39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="BA39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:53">
       <c r="A40" s="2">
         <v>41866</v>
       </c>
       <c r="P40">
-        <v>-0.34811511303539078</v>
+        <v>-0.3481151130353908</v>
       </c>
       <c r="Q40">
         <v>-1.527407223205103</v>
@@ -6219,352 +6196,352 @@
         <v>-0.3546604117736365</v>
       </c>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:53">
       <c r="A41" s="2">
         <v>41958</v>
       </c>
       <c r="Q41">
-        <v>1.3256470822331321</v>
+        <v>1.325647082233132</v>
       </c>
       <c r="R41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="S41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="T41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="U41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="V41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="W41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="X41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="Y41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="Z41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AA41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AB41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AC41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AD41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AE41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AF41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AG41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AH41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AI41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AJ41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AK41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AL41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AM41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AN41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AO41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AP41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AQ41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AR41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AS41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AT41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AU41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AV41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AW41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AX41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AY41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AZ41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="BA41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:53">
       <c r="A42" s="2">
         <v>42050</v>
       </c>
       <c r="Q42">
-        <v>1.6998893494740059</v>
+        <v>1.699889349474006</v>
       </c>
       <c r="R42">
-        <v>1.8056151633164319</v>
+        <v>1.805615163316432</v>
       </c>
       <c r="S42">
         <v>1.440417714861923</v>
       </c>
       <c r="T42">
-        <v>0.86055909546705323</v>
+        <v>0.8605590954670532</v>
       </c>
       <c r="U42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="V42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="W42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="X42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="Y42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="Z42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AA42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AB42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AC42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AD42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AE42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AF42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AG42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AH42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AI42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AJ42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AK42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AL42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AM42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AN42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AO42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AP42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AQ42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AR42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AS42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AT42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AU42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AV42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AW42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AX42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AY42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AZ42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="BA42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:53">
       <c r="A43" s="2">
         <v>42139</v>
       </c>
       <c r="R43">
-        <v>-1.3012407423917409</v>
+        <v>-1.301240742391741</v>
       </c>
       <c r="S43">
         <v>-1.65477164223762</v>
       </c>
       <c r="T43">
-        <v>-1.1890645929248791</v>
+        <v>-1.189064592924879</v>
       </c>
       <c r="U43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="V43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="W43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="X43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="Y43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="Z43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AA43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AB43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AC43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AD43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AE43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AF43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AG43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AH43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AI43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AJ43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AK43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AL43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AM43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AN43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AO43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AP43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AQ43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AR43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AS43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AT43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AU43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AV43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AW43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AX43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AY43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AZ43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="BA43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:53">
       <c r="A44" s="2">
         <v>42231</v>
       </c>
@@ -6572,222 +6549,222 @@
         <v>-0.3250787905929684</v>
       </c>
       <c r="S44">
-        <v>-0.27283369311234651</v>
+        <v>-0.2728336931123465</v>
       </c>
       <c r="T44">
-        <v>-0.21127257090391541</v>
+        <v>-0.2112725709039154</v>
       </c>
       <c r="U44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="V44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="W44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="X44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="Y44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="Z44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AA44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AB44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AC44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AD44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AE44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AF44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AG44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AH44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AI44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AJ44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AK44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AL44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AM44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AN44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AO44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AP44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AQ44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AR44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AS44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AT44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AU44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AV44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AW44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AX44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AY44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AZ44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="BA44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
     </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:53">
       <c r="A45" s="2">
         <v>42323</v>
       </c>
       <c r="S45">
-        <v>1.9698906494923849</v>
+        <v>1.969890649492385</v>
       </c>
       <c r="T45">
         <v>1.933166771253241</v>
       </c>
       <c r="U45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="V45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="W45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="X45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="Y45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="Z45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AA45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AB45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AC45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AD45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AE45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AF45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AG45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AH45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AI45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AJ45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AK45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AL45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AM45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AN45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AO45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AP45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AQ45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AR45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AS45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AT45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AU45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AV45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AW45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AX45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AY45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AZ45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="BA45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:53">
       <c r="A46" s="2">
         <v>42415</v>
       </c>
@@ -6795,7 +6772,7 @@
         <v>2.325384209656022</v>
       </c>
       <c r="T46">
-        <v>2.2758080659584858</v>
+        <v>2.275808065958486</v>
       </c>
       <c r="U46">
         <v>2.087453263562125</v>
@@ -6897,12 +6874,12 @@
         <v>2.087453263562125</v>
       </c>
     </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:53">
       <c r="A47" s="2">
         <v>42505</v>
       </c>
       <c r="T47">
-        <v>-1.9072864491145369</v>
+        <v>-1.907286449114537</v>
       </c>
       <c r="U47">
         <v>-1.438164479066856</v>
@@ -7004,223 +6981,223 @@
         <v>-1.438164479066856</v>
       </c>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:53">
       <c r="A48" s="2">
         <v>42597</v>
       </c>
       <c r="T48">
-        <v>0.27905369259086399</v>
+        <v>0.279053692590864</v>
       </c>
       <c r="U48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="V48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="W48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="X48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="Y48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="Z48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AA48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AB48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AC48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AD48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AE48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AF48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AG48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AH48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AI48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AJ48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AK48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AL48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AM48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AN48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AO48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AP48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AQ48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AR48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AS48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AT48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AU48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AV48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AW48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AX48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AY48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AZ48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="BA48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:53">
       <c r="A49" s="2">
         <v>42689</v>
       </c>
       <c r="U49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="V49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="W49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="X49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="Y49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="Z49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AA49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AB49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AC49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AD49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AE49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AF49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AG49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AH49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AI49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AJ49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AK49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AL49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AM49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AN49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AO49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AP49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AQ49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AR49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AS49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AT49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AU49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AV49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AW49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AX49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AY49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AZ49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="BA49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:53">
       <c r="A50" s="2">
         <v>42781</v>
       </c>
       <c r="U50">
-        <v>2.3001763638837081</v>
+        <v>2.300176363883708</v>
       </c>
       <c r="V50">
         <v>3.542226646026521</v>
@@ -7319,116 +7296,116 @@
         <v>2.86126545641612</v>
       </c>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:53">
       <c r="A51" s="2">
         <v>42870</v>
       </c>
       <c r="V51">
-        <v>0.49490404679413302</v>
+        <v>0.494904046794133</v>
       </c>
       <c r="W51">
-        <v>0.54191199953055502</v>
+        <v>0.541911999530555</v>
       </c>
       <c r="X51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="Y51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="Z51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AA51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AB51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AC51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AD51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AE51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AF51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AG51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AH51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AI51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AJ51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AK51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AL51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AM51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AN51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AO51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AP51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AQ51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AR51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AS51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AT51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AU51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AV51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AW51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AX51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AY51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AZ51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="BA51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:53">
       <c r="A52" s="2">
         <v>42962</v>
       </c>
       <c r="V52">
-        <v>-0.43199430984248011</v>
+        <v>-0.4319943098424801</v>
       </c>
       <c r="W52">
-        <v>-0.25210308319239522</v>
+        <v>-0.2521030831923952</v>
       </c>
       <c r="X52">
         <v>-0.2174083661145261</v>
@@ -7521,12 +7498,12 @@
         <v>-0.2174083661145261</v>
       </c>
     </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:53">
       <c r="A53" s="2">
         <v>43054</v>
       </c>
       <c r="W53">
-        <v>-0.35732951868206442</v>
+        <v>-0.3573295186820644</v>
       </c>
       <c r="X53">
         <v>0.1045745676356802</v>
@@ -7619,12 +7596,12 @@
         <v>0.1045745676356802</v>
       </c>
     </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:53">
       <c r="A54" s="2">
         <v>43146</v>
       </c>
       <c r="X54">
-        <v>2.0720938504834412</v>
+        <v>2.072093850483441</v>
       </c>
       <c r="Y54">
         <v>1.598757058788109</v>
@@ -7633,7 +7610,7 @@
         <v>1.6</v>
       </c>
       <c r="AA54">
-        <v>0.80161520845854284</v>
+        <v>0.8016152084585428</v>
       </c>
       <c r="AB54">
         <v>0.9</v>
@@ -7714,18 +7691,18 @@
         <v>0.4936918743079417</v>
       </c>
     </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:53">
       <c r="A55" s="2">
         <v>43235</v>
       </c>
       <c r="Y55">
-        <v>0.60915076260161527</v>
+        <v>0.6091507626016153</v>
       </c>
       <c r="Z55">
         <v>0.9</v>
       </c>
       <c r="AA55">
-        <v>0.86987470276847034</v>
+        <v>0.8698747027684703</v>
       </c>
       <c r="AB55">
         <v>0.8</v>
@@ -7806,7 +7783,7 @@
         <v>1.322625689988016</v>
       </c>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:53">
       <c r="A56" s="2">
         <v>43327</v>
       </c>
@@ -7814,93 +7791,93 @@
         <v>0.9</v>
       </c>
       <c r="AA56">
-        <v>0.71862764197771867</v>
+        <v>0.7186276419777187</v>
       </c>
       <c r="AB56">
         <v>0.9</v>
       </c>
       <c r="AC56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AD56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AE56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AF56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AG56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AH56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AI56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AJ56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AK56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AL56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AM56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AN56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AO56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AP56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AQ56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AR56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AS56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AT56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AU56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AV56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AW56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AX56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AY56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AZ56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="BA56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:53">
       <c r="A57" s="2">
         <v>43419</v>
       </c>
       <c r="AA57">
-        <v>1.2843230739472771</v>
+        <v>1.284323073947277</v>
       </c>
       <c r="AB57">
         <v>1</v>
@@ -7981,7 +7958,7 @@
         <v>1.240850467000882</v>
       </c>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:53">
       <c r="A58" s="2">
         <v>43511</v>
       </c>
@@ -7995,7 +7972,7 @@
         <v>2.460441995432646</v>
       </c>
       <c r="AE58">
-        <v>2.6456714041595149</v>
+        <v>2.645671404159515</v>
       </c>
       <c r="AF58">
         <v>2.6</v>
@@ -8064,7 +8041,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:53">
       <c r="A59" s="2">
         <v>43600</v>
       </c>
@@ -8075,7 +8052,7 @@
         <v>-1.062312873792649</v>
       </c>
       <c r="AE59">
-        <v>-0.92674034589379062</v>
+        <v>-0.9267403458937906</v>
       </c>
       <c r="AF59">
         <v>-0.9</v>
@@ -8144,12 +8121,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:53">
       <c r="A60" s="2">
         <v>43692</v>
       </c>
       <c r="AD60">
-        <v>1.1729803714303699</v>
+        <v>1.17298037143037</v>
       </c>
       <c r="AE60">
         <v>0.3597775049439349</v>
@@ -8221,12 +8198,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:53">
       <c r="A61" s="2">
         <v>43784</v>
       </c>
       <c r="AE61">
-        <v>0.60045005136375096</v>
+        <v>0.600450051363751</v>
       </c>
       <c r="AF61">
         <v>0.1</v>
@@ -8295,21 +8272,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:53">
       <c r="A62" s="2">
         <v>43876</v>
       </c>
       <c r="AF62">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AG62">
         <v>5.143518966296142</v>
       </c>
       <c r="AH62">
-        <v>5.0811162218976449</v>
+        <v>5.081116221897645</v>
       </c>
       <c r="AI62">
-        <v>4.3032795415228549</v>
+        <v>4.303279541522855</v>
       </c>
       <c r="AJ62">
         <v>4.305581231918552</v>
@@ -8366,75 +8343,75 @@
         <v>4.305581231918552</v>
       </c>
     </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:53">
       <c r="A63" s="2">
         <v>43966</v>
       </c>
       <c r="AG63">
-        <v>-4.2221334164257476</v>
+        <v>-4.222133416425748</v>
       </c>
       <c r="AH63">
-        <v>-4.2670504982505548</v>
+        <v>-4.267050498250555</v>
       </c>
       <c r="AI63">
         <v>-4.290232713625997</v>
       </c>
       <c r="AJ63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AK63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AL63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AM63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AN63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AO63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AP63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AQ63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AR63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AS63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AT63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AU63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AV63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AW63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AX63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AY63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AZ63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="BA63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
     </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:53">
       <c r="A64" s="2">
         <v>44058</v>
       </c>
@@ -8442,196 +8419,196 @@
         <v>-1.967214790670653</v>
       </c>
       <c r="AI64">
-        <v>-1.2769110619021831</v>
+        <v>-1.276911061902183</v>
       </c>
       <c r="AJ64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AK64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AL64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AM64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AN64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AO64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AP64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AQ64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AR64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AS64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AT64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AU64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AV64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AW64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AX64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AY64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AZ64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="BA64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
     </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:53">
       <c r="A65" s="2">
         <v>44150</v>
       </c>
       <c r="AI65">
-        <v>1.8361127474571219</v>
+        <v>1.836112747457122</v>
       </c>
       <c r="AJ65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AK65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AL65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AM65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AN65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AO65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AP65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AQ65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AR65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AS65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AT65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AU65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AV65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AW65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AX65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AY65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AZ65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="BA65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
     </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:53">
       <c r="A66" s="2">
         <v>44242</v>
       </c>
       <c r="AJ66">
-        <v>1.1425072417365669</v>
+        <v>1.142507241736567</v>
       </c>
       <c r="AK66">
-        <v>-0.23253282913960049</v>
+        <v>-0.2325328291396005</v>
       </c>
       <c r="AL66">
-        <v>8.0495912802518887E-2</v>
+        <v>0.08049591280251889</v>
       </c>
       <c r="AM66">
-        <v>0.21915574245534231</v>
+        <v>0.2191557424553423</v>
       </c>
       <c r="AN66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AO66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AP66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AQ66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AR66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AS66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AT66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AU66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AV66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AW66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AX66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AY66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AZ66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="BA66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
     </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:53">
       <c r="A67" s="2">
         <v>44331</v>
       </c>
       <c r="AK67">
-        <v>0.27789214681965291</v>
+        <v>0.2778921468196529</v>
       </c>
       <c r="AL67">
-        <v>1.7515657566231231</v>
+        <v>1.751565756623123</v>
       </c>
       <c r="AM67">
-        <v>1.7224466812859589</v>
+        <v>1.722446681285959</v>
       </c>
       <c r="AN67">
         <v>1.620116340063873</v>
@@ -8676,162 +8653,162 @@
         <v>1.620116340063873</v>
       </c>
     </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:53">
       <c r="A68" s="2">
         <v>44423</v>
       </c>
       <c r="AL68">
-        <v>-2.3362116852200638</v>
+        <v>-2.336211685220064</v>
       </c>
       <c r="AM68">
-        <v>-3.6497571138266518</v>
+        <v>-3.649757113826652</v>
       </c>
       <c r="AN68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AO68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AP68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AQ68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AR68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AS68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AT68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AU68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AV68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AW68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AX68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AY68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AZ68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="BA68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
     </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:53">
       <c r="A69" s="2">
         <v>44515</v>
       </c>
       <c r="AM69">
-        <v>3.6429549028966328E-2</v>
+        <v>0.03642954902896633</v>
       </c>
       <c r="AN69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AO69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AP69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AQ69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AR69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AS69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AT69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AU69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AV69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AW69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AX69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AY69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AZ69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="BA69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
     </row>
-    <row r="70" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:53">
       <c r="A70" s="2">
         <v>44607</v>
       </c>
       <c r="AN70">
-        <v>4.6230628090513761</v>
+        <v>4.623062809051376</v>
       </c>
       <c r="AO70">
-        <v>3.0854186953619229</v>
+        <v>3.085418695361923</v>
       </c>
       <c r="AP70">
-        <v>3.0944654956528268</v>
+        <v>3.094465495652827</v>
       </c>
       <c r="AQ70">
         <v>3.508331755114042</v>
       </c>
       <c r="AR70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AS70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AT70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AU70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AV70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AW70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AX70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AY70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AZ70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="BA70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
     </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:53">
       <c r="A71" s="2">
         <v>44696</v>
       </c>
       <c r="AO71">
-        <v>-3.3617111509380631</v>
+        <v>-3.361711150938063</v>
       </c>
       <c r="AP71">
         <v>-3.229763247769398</v>
@@ -8840,78 +8817,78 @@
         <v>-3.1555962096012</v>
       </c>
       <c r="AR71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AS71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AT71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AU71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AV71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AW71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AX71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AY71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AZ71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="BA71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
     </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:53">
       <c r="A72" s="2">
         <v>44788</v>
       </c>
       <c r="AP72">
-        <v>-1.4329891179920931</v>
+        <v>-1.432989117992093</v>
       </c>
       <c r="AQ72">
         <v>-0.9206572350902178</v>
       </c>
       <c r="AR72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AS72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AT72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AU72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AV72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AW72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AX72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AY72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AZ72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="BA72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
     </row>
-    <row r="73" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:53">
       <c r="A73" s="2">
         <v>44880</v>
       </c>
@@ -8919,45 +8896,45 @@
         <v>-2.851410521811431</v>
       </c>
       <c r="AR73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AS73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AT73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AU73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AV73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AW73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AX73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AY73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AZ73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="BA73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
     </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:53">
       <c r="A74" s="2">
         <v>44972</v>
       </c>
       <c r="AR74">
-        <v>3.9335573940020789</v>
+        <v>3.933557394002079</v>
       </c>
       <c r="AS74">
-        <v>2.6589993125497391</v>
+        <v>2.658999312549739</v>
       </c>
       <c r="AT74">
         <v>2.678152809435701</v>
@@ -8984,68 +8961,68 @@
         <v>1.5011358099934</v>
       </c>
     </row>
-    <row r="75" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:53">
       <c r="A75" s="2">
         <v>45061</v>
       </c>
       <c r="AS75">
-        <v>0.23293593589943379</v>
+        <v>0.2329359358994338</v>
       </c>
       <c r="AT75">
-        <v>-0.91291602040057285</v>
+        <v>-0.9129160204005728</v>
       </c>
       <c r="AU75">
-        <v>-0.50694877105830471</v>
+        <v>-0.5069487710583047</v>
       </c>
       <c r="AV75">
-        <v>-0.51643240319617689</v>
+        <v>-0.5164324031961769</v>
       </c>
       <c r="AW75">
-        <v>-0.51643240319617689</v>
+        <v>-0.5164324031961769</v>
       </c>
       <c r="AX75">
-        <v>-0.51643240319617689</v>
+        <v>-0.5164324031961769</v>
       </c>
       <c r="AY75">
-        <v>-0.51643240319617689</v>
+        <v>-0.5164324031961769</v>
       </c>
       <c r="AZ75">
-        <v>-0.51643240319617689</v>
+        <v>-0.5164324031961769</v>
       </c>
       <c r="BA75">
-        <v>-0.51643240319617689</v>
+        <v>-0.5164324031961769</v>
       </c>
     </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:53">
       <c r="A76" s="2">
         <v>45153</v>
       </c>
       <c r="AT76">
-        <v>0.43245063494397579</v>
+        <v>0.4324506349439758</v>
       </c>
       <c r="AU76">
-        <v>-0.80202957402245545</v>
+        <v>-0.8020295740224554</v>
       </c>
       <c r="AV76">
-        <v>-0.72675858128138771</v>
+        <v>-0.7267585812813877</v>
       </c>
       <c r="AW76">
-        <v>-0.72675858128138771</v>
+        <v>-0.7267585812813877</v>
       </c>
       <c r="AX76">
-        <v>-0.72675858128138771</v>
+        <v>-0.7267585812813877</v>
       </c>
       <c r="AY76">
-        <v>-0.72675858128138771</v>
+        <v>-0.7267585812813877</v>
       </c>
       <c r="AZ76">
-        <v>-0.72675858128138771</v>
+        <v>-0.7267585812813877</v>
       </c>
       <c r="BA76">
-        <v>-0.72675858128138771</v>
+        <v>-0.7267585812813877</v>
       </c>
     </row>
-    <row r="77" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:53">
       <c r="A77" s="2">
         <v>45245</v>
       </c>
@@ -9053,25 +9030,25 @@
         <v>-1.721673722292465</v>
       </c>
       <c r="AV77">
-        <v>-1.8634762647894969</v>
+        <v>-1.863476264789497</v>
       </c>
       <c r="AW77">
-        <v>-1.8634762647894969</v>
+        <v>-1.863476264789497</v>
       </c>
       <c r="AX77">
-        <v>-1.8634762647894969</v>
+        <v>-1.863476264789497</v>
       </c>
       <c r="AY77">
-        <v>-1.8634762647894969</v>
+        <v>-1.863476264789497</v>
       </c>
       <c r="AZ77">
-        <v>-1.8634762647894969</v>
+        <v>-1.863476264789497</v>
       </c>
       <c r="BA77">
-        <v>-1.8634762647894969</v>
+        <v>-1.863476264789497</v>
       </c>
     </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:53">
       <c r="A78" s="2">
         <v>45337</v>
       </c>
@@ -9079,42 +9056,42 @@
         <v>2.712662502476618</v>
       </c>
       <c r="AW78">
-        <v>0.78452990663851097</v>
+        <v>0.784529906638511</v>
       </c>
       <c r="AX78">
-        <v>0.71630991475689143</v>
+        <v>0.7163099147568914</v>
       </c>
       <c r="AY78">
-        <v>0.72758545858640389</v>
+        <v>0.7275854585864039</v>
       </c>
       <c r="AZ78">
-        <v>0.50611986697641953</v>
+        <v>0.5061198669764195</v>
       </c>
       <c r="BA78">
-        <v>0.50611986697641953</v>
+        <v>0.5061198669764195</v>
       </c>
     </row>
-    <row r="79" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:53">
       <c r="A79" s="2">
         <v>45427</v>
       </c>
       <c r="AW79">
-        <v>-2.0081290002876102</v>
+        <v>-2.00812900028761</v>
       </c>
       <c r="AX79">
         <v>-2.246549282342869</v>
       </c>
       <c r="AY79">
-        <v>-2.1446952521320952</v>
+        <v>-2.144695252132095</v>
       </c>
       <c r="AZ79">
-        <v>-1.8447237544421851</v>
+        <v>-1.844723754442185</v>
       </c>
       <c r="BA79">
-        <v>-1.8447237544421851</v>
+        <v>-1.844723754442185</v>
       </c>
     </row>
-    <row r="80" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:53">
       <c r="A80" s="2">
         <v>45519</v>
       </c>
@@ -9122,21 +9099,21 @@
         <v>-0.346469331090276</v>
       </c>
       <c r="AY80">
-        <v>-0.53063421683329182</v>
+        <v>-0.5306342168332918</v>
       </c>
       <c r="AZ80">
-        <v>-0.31131467145365832</v>
+        <v>-0.3113146714536583</v>
       </c>
       <c r="BA80">
-        <v>-0.31131467145365832</v>
+        <v>-0.3113146714536583</v>
       </c>
     </row>
-    <row r="81" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:53">
       <c r="A81" s="2">
         <v>45611</v>
       </c>
       <c r="AY81">
-        <v>1.0437122388897959</v>
+        <v>1.043712238889796</v>
       </c>
       <c r="AZ81">
         <v>0.8443262641745406</v>
@@ -9145,23 +9122,23 @@
         <v>0.8443262641745406</v>
       </c>
     </row>
-    <row r="82" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:53">
       <c r="A82" s="2">
         <v>45703</v>
       </c>
       <c r="AZ82">
-        <v>0.52758486034738894</v>
+        <v>0.5275848603473889</v>
       </c>
       <c r="BA82">
-        <v>0.18992661668437449</v>
+        <v>0.1899266166843745</v>
       </c>
     </row>
-    <row r="83" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:53">
       <c r="A83" s="2">
         <v>45792</v>
       </c>
       <c r="BA83">
-        <v>-2.0734582797890941</v>
+        <v>-2.073458279789094</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/1_rt_component_series/qoq_rt_data_CONSTR.xlsx
+++ b/0_0_Data/2_Processed_Data/1_rt_component_series/qoq_rt_data_CONSTR.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_0_Data/2_Processed_Data/1_rt_component_series/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_309A412A542915382EFF31D2F87AE38058053DCF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49F7E6D4-88F6-4516-B206-166A4DDBCCEC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -22,11 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,17 +94,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +150,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,6 +184,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,9 +219,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,14 +395,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,168 +569,168 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>38398</v>
       </c>
       <c r="B2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="C2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="D2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="E2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="F2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="G2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="H2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="I2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="J2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="K2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="L2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="M2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="N2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="O2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="P2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="Q2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="R2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="S2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="T2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="U2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="V2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="W2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="X2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="Y2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="Z2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AA2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AB2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AC2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AD2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AE2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AF2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AG2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AH2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AI2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AJ2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AK2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AL2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AM2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AN2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AO2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AP2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AQ2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AR2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AS2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AT2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AU2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AV2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AW2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AX2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AY2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="AZ2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
       <c r="BA2">
-        <v>-3.226317883429488</v>
+        <v>-3.2263178834294881</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>38487</v>
       </c>
@@ -869,168 +891,168 @@
         <v>0.5468658301973619</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>38579</v>
       </c>
       <c r="B4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="C4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="D4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="E4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="F4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="G4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="H4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="I4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="J4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="K4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="L4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="M4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="N4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="O4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="P4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="Q4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="R4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="S4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="T4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="U4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="V4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="W4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="X4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="Y4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="Z4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AA4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AB4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AC4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AD4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AE4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AF4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AG4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AH4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AI4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AJ4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AK4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AL4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AM4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AN4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AO4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AP4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AQ4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AR4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AS4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AT4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AU4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AV4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AW4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AX4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AY4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="AZ4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
       <c r="BA4">
-        <v>1.85412529743428</v>
+        <v>1.8541252974342799</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>38671</v>
       </c>
@@ -1191,12 +1213,12 @@
         <v>2.087368604868217</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>38763</v>
       </c>
       <c r="B6">
-        <v>-4.00894200965179</v>
+        <v>-4.0089420096517898</v>
       </c>
       <c r="C6">
         <v>-4.690270233866471</v>
@@ -1352,337 +1374,337 @@
         <v>-3.591963924315849</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>38852</v>
       </c>
       <c r="B7">
-        <v>7.331255584053608</v>
+        <v>7.3312555840536078</v>
       </c>
       <c r="C7">
         <v>7.414335068573223</v>
       </c>
       <c r="D7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="E7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="F7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="G7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="H7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="I7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="J7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="K7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="L7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="M7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="N7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="O7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="P7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="Q7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="R7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="S7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="T7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="U7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="V7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="W7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="X7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="Y7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="Z7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AA7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AB7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AC7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AD7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AE7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AF7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AG7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AH7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AI7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AJ7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AK7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AL7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AM7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AN7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AO7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AP7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AQ7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AR7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AS7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AT7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AU7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AV7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AW7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AX7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AY7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="AZ7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
       <c r="BA7">
-        <v>8.122211632473636</v>
+        <v>8.1222116324736362</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>38944</v>
       </c>
       <c r="B8">
-        <v>1.949950506981409</v>
+        <v>1.9499505069814089</v>
       </c>
       <c r="C8">
-        <v>2.138987017452408</v>
+        <v>2.1389870174524082</v>
       </c>
       <c r="D8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="E8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="F8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="G8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="H8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="I8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="J8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="K8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="L8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="M8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="N8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="O8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="P8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="Q8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="R8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="S8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="T8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="U8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="V8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="W8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="X8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="Y8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="Z8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AA8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AB8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AC8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AD8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AE8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AF8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AG8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AH8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AI8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AJ8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AK8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AL8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AM8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AN8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AO8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AP8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AQ8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AR8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AS8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AT8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AU8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AV8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AW8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AX8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AY8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="AZ8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
       <c r="BA8">
-        <v>1.941197200156154</v>
+        <v>1.9411972001561539</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>39036</v>
       </c>
       <c r="B9">
-        <v>1.505172010700235</v>
+        <v>1.5051720107002351</v>
       </c>
       <c r="C9">
-        <v>2.014901788094761</v>
+        <v>2.0149017880947611</v>
       </c>
       <c r="D9">
         <v>2.005629097173383</v>
@@ -1835,7 +1857,7 @@
         <v>2.005629097173383</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>39128</v>
       </c>
@@ -1843,7 +1865,7 @@
         <v>1.416004207479489</v>
       </c>
       <c r="C10">
-        <v>0.5688489888087531</v>
+        <v>0.56884898880875312</v>
       </c>
       <c r="D10">
         <v>-0.1795504661406255</v>
@@ -1996,329 +2018,329 @@
         <v>-1.266836257901915</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>39217</v>
       </c>
       <c r="B11">
-        <v>-3.518004331294975</v>
+        <v>-3.5180043312949749</v>
       </c>
       <c r="C11">
         <v>-3.81771540391594</v>
       </c>
       <c r="D11">
-        <v>-3.485679124689185</v>
+        <v>-3.4856791246891849</v>
       </c>
       <c r="E11">
-        <v>-3.485679124689185</v>
+        <v>-3.4856791246891849</v>
       </c>
       <c r="F11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="G11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="H11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="I11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="J11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="K11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="L11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="M11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="N11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="O11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="P11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="Q11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="R11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="S11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="T11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="U11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="V11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="W11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="X11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="Y11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="Z11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AA11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AB11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AC11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AD11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AE11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AF11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AG11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AH11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AI11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AJ11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AK11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AL11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AM11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AN11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AO11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AP11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AQ11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AR11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AS11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AT11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AU11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AV11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AW11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AX11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AY11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="AZ11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
       <c r="BA11">
-        <v>-4.469403030815215</v>
+        <v>-4.4694030308152151</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>39309</v>
       </c>
       <c r="B12">
-        <v>0.558326298893121</v>
+        <v>0.55832629889312102</v>
       </c>
       <c r="C12">
-        <v>0.7341784496663166</v>
+        <v>0.73417844966631662</v>
       </c>
       <c r="D12">
-        <v>0.6305810873081583</v>
+        <v>0.63058108730815832</v>
       </c>
       <c r="E12">
-        <v>0.6305810873081583</v>
+        <v>0.63058108730815832</v>
       </c>
       <c r="F12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="G12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="H12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="I12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="J12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="K12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="L12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="M12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="N12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="O12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="P12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="Q12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="R12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="S12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="T12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="U12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="V12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="W12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="X12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="Y12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="Z12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AA12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AB12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AC12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AD12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AE12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AF12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AG12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AH12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AI12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AJ12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AK12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AL12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AM12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AN12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AO12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AP12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AQ12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AR12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AS12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AT12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AU12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AV12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AW12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AX12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AY12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="AZ12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
       <c r="BA12">
-        <v>0.5877634154554556</v>
+        <v>0.58776341545545563</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>39401</v>
       </c>
@@ -2326,174 +2348,174 @@
         <v>-0.5352583396556696</v>
       </c>
       <c r="D13">
-        <v>0.3987643412228863</v>
+        <v>0.39876434122288629</v>
       </c>
       <c r="E13">
-        <v>0.3987643412228863</v>
+        <v>0.39876434122288629</v>
       </c>
       <c r="F13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="G13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="H13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="I13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="J13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="K13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="L13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="M13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="N13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="O13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="P13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="Q13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="R13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="S13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="T13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="U13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="V13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="W13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="X13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="Y13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="Z13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AA13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AB13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AC13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AD13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AE13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AF13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AG13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AH13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AI13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AJ13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AK13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AL13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AM13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AN13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AO13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AP13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AQ13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AR13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AS13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AT13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AU13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AV13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AW13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AX13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AY13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="AZ13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
       <c r="BA13">
-        <v>0.7596024993684409</v>
+        <v>0.75960249936844093</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>39493</v>
       </c>
       <c r="C14">
-        <v>4.488226581078521</v>
+        <v>4.4882265810785213</v>
       </c>
       <c r="D14">
-        <v>5.549265701215745</v>
+        <v>5.5492657012157451</v>
       </c>
       <c r="E14">
         <v>5.495509969961347</v>
       </c>
       <c r="F14">
-        <v>5.929759985083223</v>
+        <v>5.9297599850832228</v>
       </c>
       <c r="G14">
-        <v>5.929759985083223</v>
+        <v>5.9297599850832228</v>
       </c>
       <c r="H14">
         <v>5.398981879140436</v>
@@ -2634,7 +2656,7 @@
         <v>5.398981879140436</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>39583</v>
       </c>
@@ -2642,7 +2664,7 @@
         <v>-3.397482474306742</v>
       </c>
       <c r="E15">
-        <v>-3.517653116378796</v>
+        <v>-3.5176531163787961</v>
       </c>
       <c r="F15">
         <v>-4.292127547065931</v>
@@ -2651,300 +2673,300 @@
         <v>-4.292127547065931</v>
       </c>
       <c r="H15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="I15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="J15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="K15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="L15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="M15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="N15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="O15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="P15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="Q15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="R15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="S15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="T15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="U15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="V15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="W15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="X15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="Y15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="Z15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AA15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AB15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AC15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AD15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AE15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AF15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AG15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AH15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AI15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AJ15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AK15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AL15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AM15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AN15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AO15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AP15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AQ15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AR15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AS15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AT15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AU15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AV15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AW15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AX15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AY15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="AZ15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
       <c r="BA15">
-        <v>-5.469777829091811</v>
+        <v>-5.4697778290918109</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>39675</v>
       </c>
       <c r="D16">
-        <v>0.2782562851571129</v>
+        <v>0.27825628515711293</v>
       </c>
       <c r="E16">
         <v>-0.1449229662240441</v>
       </c>
       <c r="F16">
-        <v>-0.4004142268336608</v>
+        <v>-0.40041422683366079</v>
       </c>
       <c r="G16">
-        <v>-0.4004142268336608</v>
+        <v>-0.40041422683366079</v>
       </c>
       <c r="H16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="I16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="J16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="K16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="L16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="M16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="N16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="O16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="P16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="Q16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="R16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="S16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="T16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="U16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="V16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="W16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="X16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="Y16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="Z16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AA16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AB16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AC16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AD16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AE16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AF16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AG16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AH16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AI16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AJ16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AK16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AL16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AM16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AN16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AO16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AP16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AQ16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AR16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AS16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AT16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AU16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AV16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AW16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AX16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AY16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="AZ16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
       <c r="BA16">
-        <v>-0.5016308114541062</v>
+        <v>-0.50163081145410615</v>
       </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>39767</v>
       </c>
@@ -2958,297 +2980,297 @@
         <v>-1.022271657802762</v>
       </c>
       <c r="H17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="I17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="J17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="K17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="L17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="M17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="N17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="O17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="P17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="Q17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="R17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="S17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="T17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="U17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="V17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="W17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="X17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="Y17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="Z17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AA17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AB17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AC17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AD17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AE17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AF17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AG17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AH17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AI17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AJ17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AK17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AL17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AM17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AN17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AO17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AP17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AQ17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AR17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AS17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AT17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AU17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AV17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AW17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AX17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AY17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="AZ17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
       <c r="BA17">
-        <v>-0.6214054032250829</v>
+        <v>-0.62140540322508286</v>
       </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>39859</v>
       </c>
       <c r="E18">
-        <v>-2.589909567620779</v>
+        <v>-2.5899095676207788</v>
       </c>
       <c r="F18">
-        <v>0.2552948587481154</v>
+        <v>0.25529485874811542</v>
       </c>
       <c r="G18">
-        <v>0.1740864873953143</v>
+        <v>0.17408648739531429</v>
       </c>
       <c r="H18">
-        <v>0.934950925467362</v>
+        <v>0.93495092546736203</v>
       </c>
       <c r="I18">
-        <v>-0.1989518887076827</v>
+        <v>-0.19895188870768271</v>
       </c>
       <c r="J18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="K18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="L18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="M18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="N18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="O18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="P18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="Q18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="R18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="S18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="T18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="U18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="V18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="W18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="X18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="Y18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="Z18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AA18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AB18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AC18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AD18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AE18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AF18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AG18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AH18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AI18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AJ18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AK18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AL18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AM18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AN18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AO18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AP18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AQ18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AR18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AS18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AT18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AU18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AV18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AW18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AX18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AY18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="AZ18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
       <c r="BA18">
-        <v>-1.41027180704431</v>
+        <v>-1.4102718070443101</v>
       </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>39948</v>
       </c>
@@ -3256,148 +3278,148 @@
         <v>1.250154354816019</v>
       </c>
       <c r="G19">
-        <v>1.309070257767388</v>
+        <v>1.3090702577673881</v>
       </c>
       <c r="H19">
-        <v>-0.1753481395214322</v>
+        <v>-0.17534813952143219</v>
       </c>
       <c r="I19">
-        <v>-0.4103115971535516</v>
+        <v>-0.41031159715355159</v>
       </c>
       <c r="J19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="K19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="L19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="M19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="N19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="O19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="P19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="Q19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="R19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="S19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="T19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="U19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="V19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="W19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="X19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="Y19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="Z19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AA19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AB19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AC19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AD19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AE19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AF19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AG19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AH19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AI19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AJ19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AK19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AL19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AM19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AN19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AO19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AP19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AQ19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AR19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AS19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AT19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AU19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AV19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AW19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AX19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AY19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="AZ19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
       <c r="BA19">
-        <v>-0.7919227738455277</v>
+        <v>-0.79192277384552767</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>40040</v>
       </c>
@@ -3405,148 +3427,148 @@
         <v>1.48621908594906</v>
       </c>
       <c r="G20">
-        <v>0.5717505200053097</v>
+        <v>0.57175052000530968</v>
       </c>
       <c r="H20">
         <v>0.5269297144938605</v>
       </c>
       <c r="I20">
-        <v>0.8710823441499684</v>
+        <v>0.87108234414996843</v>
       </c>
       <c r="J20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="K20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="L20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="M20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="N20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="O20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="P20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="Q20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="R20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="S20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="T20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="U20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="V20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="W20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="X20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="Y20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="Z20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AA20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AB20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AC20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AD20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AE20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AF20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AG20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AH20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AI20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AJ20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AK20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AL20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AM20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AN20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AO20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AP20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AQ20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AR20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AS20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AT20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AU20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AV20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AW20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AX20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AY20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="AZ20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
       <c r="BA20">
-        <v>0.8281781605252121</v>
+        <v>0.82817816052521209</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>40132</v>
       </c>
@@ -3554,162 +3576,162 @@
         <v>-0.9550786931962989</v>
       </c>
       <c r="H21">
-        <v>-0.6639367870067758</v>
+        <v>-0.66393678700677583</v>
       </c>
       <c r="I21">
         <v>0.5368587067947459</v>
       </c>
       <c r="J21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="K21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="L21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="M21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="N21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="O21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="P21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="Q21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="R21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="S21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="T21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="U21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="V21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="W21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="X21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="Y21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="Z21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AA21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AB21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AC21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AD21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AE21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AF21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AG21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AH21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AI21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AJ21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AK21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AL21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AM21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AN21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AO21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AP21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AQ21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AR21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AS21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AT21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AU21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AV21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AW21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AX21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AY21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="AZ21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
       <c r="BA21">
-        <v>0.6333580932638085</v>
+        <v>0.63335809326380854</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>40224</v>
       </c>
       <c r="G22">
-        <v>-3.82276900082762</v>
+        <v>-3.8227690008276198</v>
       </c>
       <c r="H22">
-        <v>-0.7621830007202988</v>
+        <v>-0.76218300072029876</v>
       </c>
       <c r="I22">
-        <v>-2.158967710325797</v>
+        <v>-2.1589677103257969</v>
       </c>
       <c r="J22">
-        <v>-2.529707323275119</v>
+        <v>-2.5297073232751188</v>
       </c>
       <c r="K22">
-        <v>-2.529707323275119</v>
+        <v>-2.5297073232751188</v>
       </c>
       <c r="L22">
         <v>-1.871721946158218</v>
@@ -3838,293 +3860,293 @@
         <v>-1.871721946158218</v>
       </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>40313</v>
       </c>
       <c r="H23">
-        <v>6.853351083518234</v>
+        <v>6.8533510835182341</v>
       </c>
       <c r="I23">
-        <v>6.738636080450704</v>
+        <v>6.7386360804507044</v>
       </c>
       <c r="J23">
-        <v>6.608175093341401</v>
+        <v>6.6081750933414014</v>
       </c>
       <c r="K23">
-        <v>6.608175093341401</v>
+        <v>6.6081750933414014</v>
       </c>
       <c r="L23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="M23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="N23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="O23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="P23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="Q23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="R23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="S23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="T23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="U23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="V23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="W23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="X23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="Y23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="Z23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AA23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AB23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AC23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AD23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AE23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AF23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AG23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AH23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AI23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AJ23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AK23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AL23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AM23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AN23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AO23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AP23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AQ23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AR23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AS23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AT23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AU23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AV23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AW23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AX23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AY23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="AZ23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
       <c r="BA23">
-        <v>6.947074551031477</v>
+        <v>6.9470745510314771</v>
       </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>40405</v>
       </c>
       <c r="H24">
-        <v>-0.4202008038592311</v>
+        <v>-0.42020080385923109</v>
       </c>
       <c r="I24">
-        <v>-0.4668126072678263</v>
+        <v>-0.46681260726782631</v>
       </c>
       <c r="J24">
-        <v>-0.7854645482960336</v>
+        <v>-0.78546454829603363</v>
       </c>
       <c r="K24">
-        <v>-0.7854645482960336</v>
+        <v>-0.78546454829603363</v>
       </c>
       <c r="L24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="M24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="N24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="O24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="P24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="Q24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="R24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="S24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="T24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="U24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="V24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="W24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="X24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="Y24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="Z24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AA24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AB24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AC24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AD24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AE24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AF24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AG24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AH24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AI24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AJ24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AK24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AL24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AM24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AN24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AO24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AP24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AQ24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AR24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AS24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AT24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AU24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AV24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AW24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AX24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AY24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="AZ24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
       <c r="BA24">
-        <v>-0.5538313209713124</v>
+        <v>-0.55383132097131238</v>
       </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>40497</v>
       </c>
@@ -4132,10 +4154,10 @@
         <v>-2.590749655123886</v>
       </c>
       <c r="J25">
-        <v>-2.546741859731853</v>
+        <v>-2.5467418597318532</v>
       </c>
       <c r="K25">
-        <v>-2.546741859731853</v>
+        <v>-2.5467418597318532</v>
       </c>
       <c r="L25">
         <v>-2.926189405619382</v>
@@ -4264,284 +4286,284 @@
         <v>-2.926189405619382</v>
       </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>40589</v>
       </c>
       <c r="I26">
-        <v>6.190565668175878</v>
+        <v>6.1905656681758776</v>
       </c>
       <c r="J26">
-        <v>7.076441055898528</v>
+        <v>7.0764410558985276</v>
       </c>
       <c r="K26">
-        <v>7.164511323179497</v>
+        <v>7.1645113231794966</v>
       </c>
       <c r="L26">
-        <v>7.188360911840675</v>
+        <v>7.1883609118406753</v>
       </c>
       <c r="M26">
-        <v>7.188360911840675</v>
+        <v>7.1883609118406753</v>
       </c>
       <c r="N26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="O26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="P26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="Q26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="R26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="S26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="T26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="U26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="V26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="W26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="X26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="Y26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="Z26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AA26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AB26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AC26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AD26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AE26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AF26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AG26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AH26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AI26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AJ26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AK26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AL26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AM26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AN26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AO26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AP26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AQ26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AR26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AS26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AT26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AU26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AV26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AW26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AX26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AY26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="AZ26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
       <c r="BA26">
-        <v>9.498197854786355</v>
+        <v>9.4981978547863548</v>
       </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>40678</v>
       </c>
       <c r="J27">
-        <v>-0.3747654729066028</v>
+        <v>-0.37476547290660278</v>
       </c>
       <c r="K27">
-        <v>-0.4657854397193972</v>
+        <v>-0.46578543971939718</v>
       </c>
       <c r="L27">
-        <v>-0.3628876179330121</v>
+        <v>-0.36288761793301211</v>
       </c>
       <c r="M27">
-        <v>-0.3628876179330121</v>
+        <v>-0.36288761793301211</v>
       </c>
       <c r="N27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="O27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="P27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="Q27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="R27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="S27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="T27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="U27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="V27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="W27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="X27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="Y27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="Z27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AA27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AB27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AC27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AD27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AE27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AF27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AG27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AH27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AI27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AJ27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AK27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AL27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AM27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AN27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AO27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AP27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AQ27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AR27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AS27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AT27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AU27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AV27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AW27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AX27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AY27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="AZ27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
       <c r="BA27">
-        <v>-0.4994768307962829</v>
+        <v>-0.49947683079628291</v>
       </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>40770</v>
       </c>
@@ -4552,267 +4574,267 @@
         <v>-1.036892547540091</v>
       </c>
       <c r="L28">
-        <v>-0.6646535746114495</v>
+        <v>-0.66465357461144947</v>
       </c>
       <c r="M28">
-        <v>-0.6646535746114495</v>
+        <v>-0.66465357461144947</v>
       </c>
       <c r="N28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="O28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="P28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="Q28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="R28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="S28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="T28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="U28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="V28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="W28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="X28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="Y28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="Z28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AA28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AB28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AC28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AD28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AE28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AF28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AG28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AH28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AI28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AJ28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AK28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AL28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AM28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AN28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AO28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AP28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AQ28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AR28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AS28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AT28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AU28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AV28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AW28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AX28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AY28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="AZ28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
       <c r="BA28">
-        <v>-0.6902935135373696</v>
+        <v>-0.69029351353736956</v>
       </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>40862</v>
       </c>
       <c r="K29">
-        <v>1.900795167469909</v>
+        <v>1.9007951674699091</v>
       </c>
       <c r="L29">
-        <v>1.448210162333183</v>
+        <v>1.4482101623331829</v>
       </c>
       <c r="M29">
-        <v>1.448210162333183</v>
+        <v>1.4482101623331829</v>
       </c>
       <c r="N29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="O29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="P29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="Q29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="R29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="S29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="T29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="U29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="V29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="W29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="X29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="Y29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="Z29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AA29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AB29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AC29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AD29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AE29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AF29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AG29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AH29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AI29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AJ29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AK29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AL29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AM29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AN29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AO29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AP29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AQ29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AR29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AS29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AT29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AU29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AV29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AW29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AX29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AY29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="AZ29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
       <c r="BA29">
-        <v>1.660952585620919</v>
+        <v>1.6609525856209191</v>
       </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>40954</v>
       </c>
@@ -4820,264 +4842,264 @@
         <v>-1.346695203931787</v>
       </c>
       <c r="L30">
-        <v>-0.7318351942895021</v>
+        <v>-0.73183519428950206</v>
       </c>
       <c r="M30">
-        <v>-0.636985835998729</v>
+        <v>-0.63698583599872904</v>
       </c>
       <c r="N30">
-        <v>-0.4928406521765112</v>
+        <v>-0.49284065217651118</v>
       </c>
       <c r="O30">
-        <v>-0.5266927552308687</v>
+        <v>-0.52669275523086867</v>
       </c>
       <c r="P30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="Q30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="R30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="S30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="T30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="U30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="V30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="W30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="X30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="Y30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="Z30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AA30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AB30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AC30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AD30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AE30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AF30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AG30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AH30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AI30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AJ30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AK30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AL30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AM30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AN30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AO30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AP30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AQ30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AR30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AS30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AT30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AU30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AV30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AW30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AX30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AY30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="AZ30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
       <c r="BA30">
-        <v>0.5318249089792459</v>
+        <v>0.53182490897924595</v>
       </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>41044</v>
       </c>
       <c r="L31">
-        <v>-1.083097832193857</v>
+        <v>-1.0830978321938569</v>
       </c>
       <c r="M31">
-        <v>-1.382075545004028</v>
+        <v>-1.3820755450040281</v>
       </c>
       <c r="N31">
-        <v>-1.026125009980447</v>
+        <v>-1.0261250099804471</v>
       </c>
       <c r="O31">
         <v>-0.580873509698975</v>
       </c>
       <c r="P31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="Q31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="R31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="S31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="T31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="U31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="V31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="W31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="X31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="Y31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="Z31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AA31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AB31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AC31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AD31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AE31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AF31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AG31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AH31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AI31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AJ31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AK31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AL31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AM31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AN31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AO31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AP31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AQ31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AR31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AS31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AT31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AU31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AV31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AW31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AX31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AY31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="AZ31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
       <c r="BA31">
-        <v>0.6320478207229741</v>
+        <v>0.63204782072297405</v>
       </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>41136</v>
       </c>
@@ -5085,263 +5107,263 @@
         <v>1.527423145498517</v>
       </c>
       <c r="M32">
-        <v>0.5439700637557792</v>
+        <v>0.54397006375577917</v>
       </c>
       <c r="N32">
-        <v>0.4688005612554207</v>
+        <v>0.46880056125542069</v>
       </c>
       <c r="O32">
         <v>0.1527994894393174</v>
       </c>
       <c r="P32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="Q32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="R32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="S32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="T32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="U32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="V32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="W32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="X32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="Y32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="Z32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AA32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AB32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AC32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AD32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AE32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AF32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AG32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AH32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AI32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AJ32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AK32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AL32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AM32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AN32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AO32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AP32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AQ32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AR32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AS32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AT32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AU32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AV32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AW32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AX32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AY32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="AZ32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
       <c r="BA32">
-        <v>-0.1274490368921875</v>
+        <v>-0.12744903689218751</v>
       </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>41228</v>
       </c>
       <c r="M33">
-        <v>-0.7336069231399023</v>
+        <v>-0.73360692313990228</v>
       </c>
       <c r="N33">
-        <v>-1.022976092846264</v>
+        <v>-1.0229760928462639</v>
       </c>
       <c r="O33">
         <v>-1.139826337098754</v>
       </c>
       <c r="P33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="Q33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="R33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="S33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="T33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="U33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="V33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="W33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="X33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="Y33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="Z33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AA33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AB33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AC33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AD33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AE33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AF33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AG33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AH33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AI33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AJ33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AK33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AL33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AM33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AN33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AO33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AP33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AQ33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AR33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AS33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AT33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AU33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AV33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AW33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AX33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AY33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="AZ33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
       <c r="BA33">
-        <v>-0.6653180828667331</v>
+        <v>-0.66531808286673311</v>
       </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>41320</v>
       </c>
       <c r="M34">
-        <v>-2.087743866862297</v>
+        <v>-2.0877438668622972</v>
       </c>
       <c r="N34">
         <v>-2.257495436498274</v>
@@ -5350,126 +5372,126 @@
         <v>-1.459428426433931</v>
       </c>
       <c r="P34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="Q34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="R34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="S34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="T34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="U34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="V34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="W34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="X34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="Y34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="Z34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AA34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AB34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AC34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AD34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AE34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AF34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AG34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AH34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AI34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AJ34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AK34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AL34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AM34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AN34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AO34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AP34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AQ34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AR34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AS34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AT34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AU34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AV34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AW34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AX34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AY34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="AZ34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
       <c r="BA34">
-        <v>-2.768682804727675</v>
+        <v>-2.7686828047276748</v>
       </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>41409</v>
       </c>
       <c r="N35">
-        <v>1.910794643105291</v>
+        <v>1.9107946431052909</v>
       </c>
       <c r="O35">
         <v>1.695211655536482</v>
@@ -5589,15 +5611,15 @@
         <v>2.972562358782</v>
       </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>41501</v>
       </c>
       <c r="N36">
-        <v>2.357326252789392</v>
+        <v>2.3573262527893921</v>
       </c>
       <c r="O36">
-        <v>2.074651759437302</v>
+        <v>2.0746517594373022</v>
       </c>
       <c r="P36">
         <v>1.814509864363558</v>
@@ -5714,12 +5736,12 @@
         <v>1.814509864363558</v>
       </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>41593</v>
       </c>
       <c r="O37">
-        <v>0.1952713007581366</v>
+        <v>0.19527130075813659</v>
       </c>
       <c r="P37">
         <v>0.7290697448430592</v>
@@ -5836,253 +5858,253 @@
         <v>0.7290697448430592</v>
       </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>41685</v>
       </c>
       <c r="O38">
-        <v>3.640709258360772</v>
+        <v>3.6407092583607721</v>
       </c>
       <c r="P38">
-        <v>4.164058292324142</v>
+        <v>4.1640582923241416</v>
       </c>
       <c r="Q38">
-        <v>4.510240378433707</v>
+        <v>4.5102403784337071</v>
       </c>
       <c r="R38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="S38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="T38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="U38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="V38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="W38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="X38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="Y38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="Z38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AA38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AB38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AC38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AD38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AE38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AF38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AG38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AH38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AI38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AJ38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AK38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AL38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AM38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AN38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AO38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AP38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AQ38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AR38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AS38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AT38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AU38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AV38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AW38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AX38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AY38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="AZ38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
       <c r="BA38">
-        <v>4.434377037602189</v>
+        <v>4.4343770376021894</v>
       </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>41774</v>
       </c>
       <c r="P39">
-        <v>-3.894663176624903</v>
+        <v>-3.8946631766249031</v>
       </c>
       <c r="Q39">
         <v>-3.719213407076055</v>
       </c>
       <c r="R39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="S39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="T39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="U39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="V39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="W39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="X39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="Y39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="Z39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AA39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AB39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AC39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AD39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AE39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AF39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AG39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AH39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AI39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AJ39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AK39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AL39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AM39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AN39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AO39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AP39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AQ39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AR39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AS39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AT39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AU39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AV39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AW39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AX39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AY39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="AZ39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
       <c r="BA39">
-        <v>-3.830674548307485</v>
+        <v>-3.8306745483074849</v>
       </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>41866</v>
       </c>
       <c r="P40">
-        <v>-0.3481151130353908</v>
+        <v>-0.34811511303539078</v>
       </c>
       <c r="Q40">
         <v>-1.527407223205103</v>
@@ -6196,352 +6218,352 @@
         <v>-0.3546604117736365</v>
       </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>41958</v>
       </c>
       <c r="Q41">
-        <v>1.325647082233132</v>
+        <v>1.3256470822331321</v>
       </c>
       <c r="R41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="S41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="T41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="U41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="V41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="W41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="X41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="Y41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="Z41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AA41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AB41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AC41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AD41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AE41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AF41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AG41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AH41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AI41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AJ41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AK41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AL41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AM41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AN41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AO41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AP41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AQ41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AR41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AS41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AT41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AU41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AV41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AW41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AX41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AY41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="AZ41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
       <c r="BA41">
-        <v>0.5841110884116603</v>
+        <v>0.58411108841166026</v>
       </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>42050</v>
       </c>
       <c r="Q42">
-        <v>1.699889349474006</v>
+        <v>1.6998893494740059</v>
       </c>
       <c r="R42">
-        <v>1.805615163316432</v>
+        <v>1.8056151633164319</v>
       </c>
       <c r="S42">
         <v>1.440417714861923</v>
       </c>
       <c r="T42">
-        <v>0.8605590954670532</v>
+        <v>0.86055909546705323</v>
       </c>
       <c r="U42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="V42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="W42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="X42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="Y42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="Z42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AA42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AB42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AC42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AD42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AE42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AF42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AG42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AH42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AI42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AJ42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AK42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AL42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AM42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AN42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AO42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AP42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AQ42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AR42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AS42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AT42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AU42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AV42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AW42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AX42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AY42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="AZ42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
       <c r="BA42">
-        <v>0.3311457281599957</v>
+        <v>0.33114572815999571</v>
       </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42139</v>
       </c>
       <c r="R43">
-        <v>-1.301240742391741</v>
+        <v>-1.3012407423917409</v>
       </c>
       <c r="S43">
         <v>-1.65477164223762</v>
       </c>
       <c r="T43">
-        <v>-1.189064592924879</v>
+        <v>-1.1890645929248791</v>
       </c>
       <c r="U43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="V43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="W43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="X43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="Y43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="Z43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AA43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AB43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AC43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AD43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AE43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AF43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AG43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AH43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AI43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AJ43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AK43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AL43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AM43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AN43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AO43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AP43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AQ43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AR43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AS43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AT43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AU43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AV43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AW43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AX43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AY43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="AZ43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
       <c r="BA43">
-        <v>-0.983338854947732</v>
+        <v>-0.98333885494773199</v>
       </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>42231</v>
       </c>
@@ -6549,222 +6571,222 @@
         <v>-0.3250787905929684</v>
       </c>
       <c r="S44">
-        <v>-0.2728336931123465</v>
+        <v>-0.27283369311234651</v>
       </c>
       <c r="T44">
-        <v>-0.2112725709039154</v>
+        <v>-0.21127257090391541</v>
       </c>
       <c r="U44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="V44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="W44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="X44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="Y44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="Z44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AA44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AB44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AC44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AD44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AE44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AF44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AG44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AH44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AI44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AJ44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AK44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AL44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AM44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AN44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AO44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AP44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AQ44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AR44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AS44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AT44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AU44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AV44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AW44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AX44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AY44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="AZ44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
       <c r="BA44">
-        <v>0.0367937104471423</v>
+        <v>3.6793710447142303E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>42323</v>
       </c>
       <c r="S45">
-        <v>1.969890649492385</v>
+        <v>1.9698906494923849</v>
       </c>
       <c r="T45">
         <v>1.933166771253241</v>
       </c>
       <c r="U45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="V45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="W45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="X45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="Y45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="Z45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AA45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AB45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AC45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AD45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AE45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AF45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AG45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AH45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AI45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AJ45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AK45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AL45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AM45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AN45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AO45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AP45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AQ45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AR45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AS45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AT45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AU45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AV45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AW45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AX45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AY45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="AZ45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
       <c r="BA45">
-        <v>2.049812641278834</v>
+        <v>2.0498126412788338</v>
       </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>42415</v>
       </c>
@@ -6772,7 +6794,7 @@
         <v>2.325384209656022</v>
       </c>
       <c r="T46">
-        <v>2.275808065958486</v>
+        <v>2.2758080659584858</v>
       </c>
       <c r="U46">
         <v>2.087453263562125</v>
@@ -6874,12 +6896,12 @@
         <v>2.087453263562125</v>
       </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>42505</v>
       </c>
       <c r="T47">
-        <v>-1.907286449114537</v>
+        <v>-1.9072864491145369</v>
       </c>
       <c r="U47">
         <v>-1.438164479066856</v>
@@ -6981,223 +7003,223 @@
         <v>-1.438164479066856</v>
       </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>42597</v>
       </c>
       <c r="T48">
-        <v>0.279053692590864</v>
+        <v>0.27905369259086399</v>
       </c>
       <c r="U48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="V48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="W48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="X48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="Y48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="Z48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AA48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AB48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AC48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AD48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AE48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AF48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AG48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AH48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AI48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AJ48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AK48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AL48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AM48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AN48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AO48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AP48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AQ48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AR48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AS48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AT48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AU48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AV48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AW48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AX48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AY48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="AZ48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
       <c r="BA48">
-        <v>-0.02684958208732269</v>
+        <v>-2.6849582087322691E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>42689</v>
       </c>
       <c r="U49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="V49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="W49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="X49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="Y49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="Z49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AA49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AB49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AC49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AD49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AE49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AF49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AG49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AH49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AI49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AJ49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AK49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AL49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AM49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AN49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AO49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AP49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AQ49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AR49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AS49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AT49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AU49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AV49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AW49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AX49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AY49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="AZ49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
       <c r="BA49">
-        <v>0.8237845450787233</v>
+        <v>0.82378454507872334</v>
       </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>42781</v>
       </c>
       <c r="U50">
-        <v>2.300176363883708</v>
+        <v>2.3001763638837081</v>
       </c>
       <c r="V50">
         <v>3.542226646026521</v>
@@ -7296,116 +7318,116 @@
         <v>2.86126545641612</v>
       </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>42870</v>
       </c>
       <c r="V51">
-        <v>0.494904046794133</v>
+        <v>0.49490404679413302</v>
       </c>
       <c r="W51">
-        <v>0.541911999530555</v>
+        <v>0.54191199953055502</v>
       </c>
       <c r="X51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="Y51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="Z51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AA51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AB51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AC51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AD51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AE51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AF51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AG51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AH51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AI51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AJ51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AK51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AL51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AM51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AN51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AO51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AP51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AQ51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AR51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AS51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AT51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AU51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AV51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AW51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AX51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AY51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="AZ51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
       <c r="BA51">
-        <v>0.5069532644027532</v>
+        <v>0.50695326440275323</v>
       </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>42962</v>
       </c>
       <c r="V52">
-        <v>-0.4319943098424801</v>
+        <v>-0.43199430984248011</v>
       </c>
       <c r="W52">
-        <v>-0.2521030831923952</v>
+        <v>-0.25210308319239522</v>
       </c>
       <c r="X52">
         <v>-0.2174083661145261</v>
@@ -7498,12 +7520,12 @@
         <v>-0.2174083661145261</v>
       </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>43054</v>
       </c>
       <c r="W53">
-        <v>-0.3573295186820644</v>
+        <v>-0.35732951868206442</v>
       </c>
       <c r="X53">
         <v>0.1045745676356802</v>
@@ -7596,12 +7618,12 @@
         <v>0.1045745676356802</v>
       </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>43146</v>
       </c>
       <c r="X54">
-        <v>2.072093850483441</v>
+        <v>2.0720938504834412</v>
       </c>
       <c r="Y54">
         <v>1.598757058788109</v>
@@ -7610,7 +7632,7 @@
         <v>1.6</v>
       </c>
       <c r="AA54">
-        <v>0.8016152084585428</v>
+        <v>0.80161520845854284</v>
       </c>
       <c r="AB54">
         <v>0.9</v>
@@ -7691,18 +7713,18 @@
         <v>0.4936918743079417</v>
       </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>43235</v>
       </c>
       <c r="Y55">
-        <v>0.6091507626016153</v>
+        <v>0.60915076260161527</v>
       </c>
       <c r="Z55">
         <v>0.9</v>
       </c>
       <c r="AA55">
-        <v>0.8698747027684703</v>
+        <v>0.86987470276847034</v>
       </c>
       <c r="AB55">
         <v>0.8</v>
@@ -7783,7 +7805,7 @@
         <v>1.322625689988016</v>
       </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>43327</v>
       </c>
@@ -7791,93 +7813,93 @@
         <v>0.9</v>
       </c>
       <c r="AA56">
-        <v>0.7186276419777187</v>
+        <v>0.71862764197771867</v>
       </c>
       <c r="AB56">
         <v>0.9</v>
       </c>
       <c r="AC56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AD56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AE56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AF56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AG56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AH56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AI56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AJ56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AK56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AL56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AM56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AN56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AO56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AP56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AQ56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AR56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AS56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AT56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AU56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AV56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AW56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AX56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AY56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="AZ56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
       <c r="BA56">
-        <v>0.6899772607160202</v>
+        <v>0.68997726071602017</v>
       </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>43419</v>
       </c>
       <c r="AA57">
-        <v>1.284323073947277</v>
+        <v>1.2843230739472771</v>
       </c>
       <c r="AB57">
         <v>1</v>
@@ -7958,7 +7980,7 @@
         <v>1.240850467000882</v>
       </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>43511</v>
       </c>
@@ -7972,7 +7994,7 @@
         <v>2.460441995432646</v>
       </c>
       <c r="AE58">
-        <v>2.645671404159515</v>
+        <v>2.6456714041595149</v>
       </c>
       <c r="AF58">
         <v>2.6</v>
@@ -8041,7 +8063,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>43600</v>
       </c>
@@ -8052,7 +8074,7 @@
         <v>-1.062312873792649</v>
       </c>
       <c r="AE59">
-        <v>-0.9267403458937906</v>
+        <v>-0.92674034589379062</v>
       </c>
       <c r="AF59">
         <v>-0.9</v>
@@ -8121,12 +8143,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>43692</v>
       </c>
       <c r="AD60">
-        <v>1.17298037143037</v>
+        <v>1.1729803714303699</v>
       </c>
       <c r="AE60">
         <v>0.3597775049439349</v>
@@ -8198,12 +8220,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>43784</v>
       </c>
       <c r="AE61">
-        <v>0.600450051363751</v>
+        <v>0.60045005136375096</v>
       </c>
       <c r="AF61">
         <v>0.1</v>
@@ -8272,21 +8294,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>43876</v>
       </c>
       <c r="AF62">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AG62">
         <v>5.143518966296142</v>
       </c>
       <c r="AH62">
-        <v>5.081116221897645</v>
+        <v>5.0811162218976449</v>
       </c>
       <c r="AI62">
-        <v>4.303279541522855</v>
+        <v>4.3032795415228549</v>
       </c>
       <c r="AJ62">
         <v>4.305581231918552</v>
@@ -8343,75 +8365,75 @@
         <v>4.305581231918552</v>
       </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>43966</v>
       </c>
       <c r="AG63">
-        <v>-4.222133416425748</v>
+        <v>-4.2221334164257476</v>
       </c>
       <c r="AH63">
-        <v>-4.267050498250555</v>
+        <v>-4.2670504982505548</v>
       </c>
       <c r="AI63">
         <v>-4.290232713625997</v>
       </c>
       <c r="AJ63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AK63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AL63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AM63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AN63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AO63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AP63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AQ63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AR63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AS63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AT63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AU63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AV63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AW63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AX63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AY63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="AZ63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
       <c r="BA63">
-        <v>-4.290231943195352</v>
+        <v>-4.2902319431953524</v>
       </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>44058</v>
       </c>
@@ -8419,196 +8441,196 @@
         <v>-1.967214790670653</v>
       </c>
       <c r="AI64">
-        <v>-1.276911061902183</v>
+        <v>-1.2769110619021831</v>
       </c>
       <c r="AJ64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AK64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AL64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AM64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AN64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AO64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AP64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AQ64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AR64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AS64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AT64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AU64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AV64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AW64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AX64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AY64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="AZ64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
       <c r="BA64">
-        <v>-1.294763502326944</v>
+        <v>-1.2947635023269439</v>
       </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>44150</v>
       </c>
       <c r="AI65">
-        <v>1.836112747457122</v>
+        <v>1.8361127474571219</v>
       </c>
       <c r="AJ65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AK65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AL65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AM65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AN65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AO65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AP65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AQ65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AR65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AS65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AT65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AU65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AV65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AW65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AX65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AY65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="AZ65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
       <c r="BA65">
-        <v>3.727166552773809</v>
+        <v>3.7271665527738089</v>
       </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>44242</v>
       </c>
       <c r="AJ66">
-        <v>1.142507241736567</v>
+        <v>1.1425072417365669</v>
       </c>
       <c r="AK66">
-        <v>-0.2325328291396005</v>
+        <v>-0.23253282913960049</v>
       </c>
       <c r="AL66">
-        <v>0.08049591280251889</v>
+        <v>8.0495912802518887E-2</v>
       </c>
       <c r="AM66">
-        <v>0.2191557424553423</v>
+        <v>0.21915574245534231</v>
       </c>
       <c r="AN66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AO66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AP66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AQ66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AR66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AS66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AT66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AU66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AV66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AW66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AX66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AY66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="AZ66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
       <c r="BA66">
-        <v>-0.07597546477697392</v>
+        <v>-7.5975464776973922E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>44331</v>
       </c>
       <c r="AK67">
-        <v>0.2778921468196529</v>
+        <v>0.27789214681965291</v>
       </c>
       <c r="AL67">
-        <v>1.751565756623123</v>
+        <v>1.7515657566231231</v>
       </c>
       <c r="AM67">
-        <v>1.722446681285959</v>
+        <v>1.7224466812859589</v>
       </c>
       <c r="AN67">
         <v>1.620116340063873</v>
@@ -8653,162 +8675,162 @@
         <v>1.620116340063873</v>
       </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>44423</v>
       </c>
       <c r="AL68">
-        <v>-2.336211685220064</v>
+        <v>-2.3362116852200638</v>
       </c>
       <c r="AM68">
-        <v>-3.649757113826652</v>
+        <v>-3.6497571138266518</v>
       </c>
       <c r="AN68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AO68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AP68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AQ68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AR68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AS68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AT68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AU68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AV68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AW68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AX68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AY68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="AZ68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
       <c r="BA68">
-        <v>-3.620177172843626</v>
+        <v>-3.6201771728436261</v>
       </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>44515</v>
       </c>
       <c r="AM69">
-        <v>0.03642954902896633</v>
+        <v>3.6429549028966328E-2</v>
       </c>
       <c r="AN69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AO69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AP69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AQ69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AR69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AS69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AT69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AU69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AV69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AW69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AX69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AY69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="AZ69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
       <c r="BA69">
-        <v>-0.9596300199833507</v>
+        <v>-0.95963001998335073</v>
       </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>44607</v>
       </c>
       <c r="AN70">
-        <v>4.623062809051376</v>
+        <v>4.6230628090513761</v>
       </c>
       <c r="AO70">
-        <v>3.085418695361923</v>
+        <v>3.0854186953619229</v>
       </c>
       <c r="AP70">
-        <v>3.094465495652827</v>
+        <v>3.0944654956528268</v>
       </c>
       <c r="AQ70">
         <v>3.508331755114042</v>
       </c>
       <c r="AR70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AS70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AT70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AU70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AV70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AW70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AX70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AY70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="AZ70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
       <c r="BA70">
-        <v>3.509382378526155</v>
+        <v>3.5093823785261549</v>
       </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>44696</v>
       </c>
       <c r="AO71">
-        <v>-3.361711150938063</v>
+        <v>-3.3617111509380631</v>
       </c>
       <c r="AP71">
         <v>-3.229763247769398</v>
@@ -8817,78 +8839,78 @@
         <v>-3.1555962096012</v>
       </c>
       <c r="AR71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AS71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AT71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AU71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AV71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AW71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AX71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AY71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="AZ71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
       <c r="BA71">
-        <v>-3.103464835402306</v>
+        <v>-3.1034648354023062</v>
       </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>44788</v>
       </c>
       <c r="AP72">
-        <v>-1.432989117992093</v>
+        <v>-1.4329891179920931</v>
       </c>
       <c r="AQ72">
         <v>-0.9206572350902178</v>
       </c>
       <c r="AR72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AS72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AT72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AU72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AV72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AW72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AX72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AY72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="AZ72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
       <c r="BA72">
-        <v>-0.9738690852321383</v>
+        <v>-0.97386908523213833</v>
       </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>44880</v>
       </c>
@@ -8896,45 +8918,45 @@
         <v>-2.851410521811431</v>
       </c>
       <c r="AR73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AS73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AT73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AU73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AV73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AW73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AX73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AY73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="AZ73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
       <c r="BA73">
-        <v>-3.206836580208446</v>
+        <v>-3.2068365802084462</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>44972</v>
       </c>
       <c r="AR74">
-        <v>3.933557394002079</v>
+        <v>3.9335573940020789</v>
       </c>
       <c r="AS74">
-        <v>2.658999312549739</v>
+        <v>2.6589993125497391</v>
       </c>
       <c r="AT74">
         <v>2.678152809435701</v>
@@ -8961,68 +8983,68 @@
         <v>1.5011358099934</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>45061</v>
       </c>
       <c r="AS75">
-        <v>0.2329359358994338</v>
+        <v>0.23293593589943379</v>
       </c>
       <c r="AT75">
-        <v>-0.9129160204005728</v>
+        <v>-0.91291602040057285</v>
       </c>
       <c r="AU75">
-        <v>-0.5069487710583047</v>
+        <v>-0.50694877105830471</v>
       </c>
       <c r="AV75">
-        <v>-0.5164324031961769</v>
+        <v>-0.51643240319617689</v>
       </c>
       <c r="AW75">
-        <v>-0.5164324031961769</v>
+        <v>-0.51643240319617689</v>
       </c>
       <c r="AX75">
-        <v>-0.5164324031961769</v>
+        <v>-0.51643240319617689</v>
       </c>
       <c r="AY75">
-        <v>-0.5164324031961769</v>
+        <v>-0.51643240319617689</v>
       </c>
       <c r="AZ75">
-        <v>-0.5164324031961769</v>
+        <v>-0.51643240319617689</v>
       </c>
       <c r="BA75">
-        <v>-0.5164324031961769</v>
+        <v>-0.51643240319617689</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>45153</v>
       </c>
       <c r="AT76">
-        <v>0.4324506349439758</v>
+        <v>0.43245063494397579</v>
       </c>
       <c r="AU76">
-        <v>-0.8020295740224554</v>
+        <v>-0.80202957402245545</v>
       </c>
       <c r="AV76">
-        <v>-0.7267585812813877</v>
+        <v>-0.72675858128138771</v>
       </c>
       <c r="AW76">
-        <v>-0.7267585812813877</v>
+        <v>-0.72675858128138771</v>
       </c>
       <c r="AX76">
-        <v>-0.7267585812813877</v>
+        <v>-0.72675858128138771</v>
       </c>
       <c r="AY76">
-        <v>-0.7267585812813877</v>
+        <v>-0.72675858128138771</v>
       </c>
       <c r="AZ76">
-        <v>-0.7267585812813877</v>
+        <v>-0.72675858128138771</v>
       </c>
       <c r="BA76">
-        <v>-0.7267585812813877</v>
+        <v>-0.72675858128138771</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>45245</v>
       </c>
@@ -9030,25 +9052,25 @@
         <v>-1.721673722292465</v>
       </c>
       <c r="AV77">
-        <v>-1.863476264789497</v>
+        <v>-1.8634762647894969</v>
       </c>
       <c r="AW77">
-        <v>-1.863476264789497</v>
+        <v>-1.8634762647894969</v>
       </c>
       <c r="AX77">
-        <v>-1.863476264789497</v>
+        <v>-1.8634762647894969</v>
       </c>
       <c r="AY77">
-        <v>-1.863476264789497</v>
+        <v>-1.8634762647894969</v>
       </c>
       <c r="AZ77">
-        <v>-1.863476264789497</v>
+        <v>-1.8634762647894969</v>
       </c>
       <c r="BA77">
-        <v>-1.863476264789497</v>
+        <v>-1.8634762647894969</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>45337</v>
       </c>
@@ -9056,42 +9078,42 @@
         <v>2.712662502476618</v>
       </c>
       <c r="AW78">
-        <v>0.784529906638511</v>
+        <v>0.78452990663851097</v>
       </c>
       <c r="AX78">
-        <v>0.7163099147568914</v>
+        <v>0.71630991475689143</v>
       </c>
       <c r="AY78">
-        <v>0.7275854585864039</v>
+        <v>0.72758545858640389</v>
       </c>
       <c r="AZ78">
-        <v>0.5061198669764195</v>
+        <v>0.50611986697641953</v>
       </c>
       <c r="BA78">
-        <v>0.5061198669764195</v>
+        <v>0.50611986697641953</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>45427</v>
       </c>
       <c r="AW79">
-        <v>-2.00812900028761</v>
+        <v>-2.0081290002876102</v>
       </c>
       <c r="AX79">
         <v>-2.246549282342869</v>
       </c>
       <c r="AY79">
-        <v>-2.144695252132095</v>
+        <v>-2.1446952521320952</v>
       </c>
       <c r="AZ79">
-        <v>-1.844723754442185</v>
+        <v>-1.8447237544421851</v>
       </c>
       <c r="BA79">
-        <v>-1.844723754442185</v>
+        <v>-1.8447237544421851</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>45519</v>
       </c>
@@ -9099,21 +9121,21 @@
         <v>-0.346469331090276</v>
       </c>
       <c r="AY80">
-        <v>-0.5306342168332918</v>
+        <v>-0.53063421683329182</v>
       </c>
       <c r="AZ80">
-        <v>-0.3113146714536583</v>
+        <v>-0.31131467145365832</v>
       </c>
       <c r="BA80">
-        <v>-0.3113146714536583</v>
+        <v>-0.31131467145365832</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>45611</v>
       </c>
       <c r="AY81">
-        <v>1.043712238889796</v>
+        <v>1.0437122388897959</v>
       </c>
       <c r="AZ81">
         <v>0.8443262641745406</v>
@@ -9122,23 +9144,23 @@
         <v>0.8443262641745406</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>45703</v>
       </c>
       <c r="AZ82">
-        <v>0.5275848603473889</v>
+        <v>0.52758486034738894</v>
       </c>
       <c r="BA82">
-        <v>0.1899266166843745</v>
+        <v>0.18992661668437449</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>45792</v>
       </c>
       <c r="BA83">
-        <v>-2.073458279789094</v>
+        <v>-2.0734582797890941</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/1_rt_component_series/qoq_rt_data_CONSTR.xlsx
+++ b/0_0_Data/2_Processed_Data/1_rt_component_series/qoq_rt_data_CONSTR.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_0_Data/2_Processed_Data/1_rt_component_series/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_309A412A542915382EFF31D2F87AE38058053DCF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49F7E6D4-88F6-4516-B206-166A4DDBCCEC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,11 +22,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,25 +88,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,7 +136,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -184,7 +170,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -219,10 +204,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,20 +379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BB84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,169 +546,175 @@
       <c r="BA1" s="2">
         <v>45891</v>
       </c>
+      <c r="BB1" s="2">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54">
       <c r="A2" s="2">
         <v>38398</v>
       </c>
       <c r="B2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="C2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="D2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="E2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="F2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="G2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="H2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="I2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="J2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="K2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="L2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="M2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="N2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="O2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="P2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="Q2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="R2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="S2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="T2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="U2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="V2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="W2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="X2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="Y2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="Z2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AA2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AB2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AC2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AD2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AE2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AF2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AG2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AH2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AI2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AJ2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AK2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AL2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AM2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AN2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AO2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AP2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AQ2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AR2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AS2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AT2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AU2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AV2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AW2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AX2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AY2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="AZ2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
       </c>
       <c r="BA2">
-        <v>-3.2263178834294881</v>
+        <v>-3.226317883429488</v>
+      </c>
+      <c r="BB2">
+        <v>-3.226317883429488</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54">
       <c r="A3" s="2">
         <v>38487</v>
       </c>
@@ -890,169 +874,175 @@
       <c r="BA3">
         <v>0.5468658301973619</v>
       </c>
+      <c r="BB3">
+        <v>0.5468658301973619</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54">
       <c r="A4" s="2">
         <v>38579</v>
       </c>
       <c r="B4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="C4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="D4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="E4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="F4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="G4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="H4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="I4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="J4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="K4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="L4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="M4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="N4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="O4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="P4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="Q4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="R4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="S4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="T4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="U4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="V4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="W4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="X4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="Y4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="Z4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AA4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AB4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AC4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AD4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AE4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AF4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AG4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AH4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AI4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AJ4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AK4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AL4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AM4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AN4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AO4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AP4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AQ4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AR4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AS4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AT4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AU4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AV4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AW4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AX4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AY4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="AZ4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
       </c>
       <c r="BA4">
-        <v>1.8541252974342799</v>
+        <v>1.85412529743428</v>
+      </c>
+      <c r="BB4">
+        <v>1.85412529743428</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54">
       <c r="A5" s="2">
         <v>38671</v>
       </c>
@@ -1212,13 +1202,16 @@
       <c r="BA5">
         <v>2.087368604868217</v>
       </c>
+      <c r="BB5">
+        <v>2.087368604868217</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54">
       <c r="A6" s="2">
         <v>38763</v>
       </c>
       <c r="B6">
-        <v>-4.0089420096517898</v>
+        <v>-4.00894200965179</v>
       </c>
       <c r="C6">
         <v>-4.690270233866471</v>
@@ -1373,338 +1366,347 @@
       <c r="BA6">
         <v>-3.591963924315849</v>
       </c>
+      <c r="BB6">
+        <v>-3.591963924315849</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54">
       <c r="A7" s="2">
         <v>38852</v>
       </c>
       <c r="B7">
-        <v>7.3312555840536078</v>
+        <v>7.331255584053608</v>
       </c>
       <c r="C7">
         <v>7.414335068573223</v>
       </c>
       <c r="D7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="E7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="F7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="G7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="H7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="I7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="J7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="K7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="L7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="M7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="N7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="O7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="P7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="Q7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="R7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="S7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="T7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="U7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="V7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="W7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="X7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="Y7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="Z7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AA7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AB7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AC7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AD7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AE7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AF7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AG7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AH7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AI7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AJ7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AK7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AL7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AM7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AN7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AO7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AP7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AQ7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AR7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AS7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AT7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AU7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AV7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AW7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AX7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AY7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="AZ7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
       </c>
       <c r="BA7">
-        <v>8.1222116324736362</v>
+        <v>8.122211632473636</v>
+      </c>
+      <c r="BB7">
+        <v>8.122211632473636</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54">
       <c r="A8" s="2">
         <v>38944</v>
       </c>
       <c r="B8">
-        <v>1.9499505069814089</v>
+        <v>1.949950506981409</v>
       </c>
       <c r="C8">
-        <v>2.1389870174524082</v>
+        <v>2.138987017452408</v>
       </c>
       <c r="D8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="E8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="F8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="G8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="H8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="I8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="J8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="K8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="L8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="M8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="N8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="O8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="P8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="Q8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="R8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="S8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="T8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="U8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="V8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="W8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="X8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="Y8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="Z8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AA8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AB8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AC8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AD8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AE8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AF8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AG8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AH8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AI8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AJ8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AK8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AL8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AM8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AN8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AO8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AP8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AQ8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AR8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AS8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AT8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AU8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AV8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AW8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AX8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AY8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="AZ8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
       </c>
       <c r="BA8">
-        <v>1.9411972001561539</v>
+        <v>1.941197200156154</v>
+      </c>
+      <c r="BB8">
+        <v>1.941197200156154</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54">
       <c r="A9" s="2">
         <v>39036</v>
       </c>
       <c r="B9">
-        <v>1.5051720107002351</v>
+        <v>1.505172010700235</v>
       </c>
       <c r="C9">
-        <v>2.0149017880947611</v>
+        <v>2.014901788094761</v>
       </c>
       <c r="D9">
         <v>2.005629097173383</v>
@@ -1856,8 +1858,11 @@
       <c r="BA9">
         <v>2.005629097173383</v>
       </c>
+      <c r="BB9">
+        <v>2.005629097173383</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54">
       <c r="A10" s="2">
         <v>39128</v>
       </c>
@@ -1865,7 +1870,7 @@
         <v>1.416004207479489</v>
       </c>
       <c r="C10">
-        <v>0.56884898880875312</v>
+        <v>0.5688489888087531</v>
       </c>
       <c r="D10">
         <v>-0.1795504661406255</v>
@@ -2017,330 +2022,339 @@
       <c r="BA10">
         <v>-1.266836257901915</v>
       </c>
+      <c r="BB10">
+        <v>-1.266836257901915</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:54">
       <c r="A11" s="2">
         <v>39217</v>
       </c>
       <c r="B11">
-        <v>-3.5180043312949749</v>
+        <v>-3.518004331294975</v>
       </c>
       <c r="C11">
         <v>-3.81771540391594</v>
       </c>
       <c r="D11">
-        <v>-3.4856791246891849</v>
+        <v>-3.485679124689185</v>
       </c>
       <c r="E11">
-        <v>-3.4856791246891849</v>
+        <v>-3.485679124689185</v>
       </c>
       <c r="F11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="G11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="H11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="I11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="J11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="K11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="L11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="M11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="N11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="O11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="P11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="Q11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="R11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="S11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="T11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="U11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="V11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="W11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="X11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="Y11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="Z11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AA11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AB11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AC11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AD11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AE11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AF11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AG11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AH11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AI11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AJ11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AK11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AL11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AM11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AN11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AO11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AP11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AQ11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AR11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AS11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AT11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AU11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AV11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AW11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AX11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AY11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="AZ11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
       </c>
       <c r="BA11">
-        <v>-4.4694030308152151</v>
+        <v>-4.469403030815215</v>
+      </c>
+      <c r="BB11">
+        <v>-4.469403030815215</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54">
       <c r="A12" s="2">
         <v>39309</v>
       </c>
       <c r="B12">
-        <v>0.55832629889312102</v>
+        <v>0.558326298893121</v>
       </c>
       <c r="C12">
-        <v>0.73417844966631662</v>
+        <v>0.7341784496663166</v>
       </c>
       <c r="D12">
-        <v>0.63058108730815832</v>
+        <v>0.6305810873081583</v>
       </c>
       <c r="E12">
-        <v>0.63058108730815832</v>
+        <v>0.6305810873081583</v>
       </c>
       <c r="F12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="G12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="H12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="I12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="J12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="K12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="L12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="M12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="N12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="O12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="P12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="Q12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="R12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="S12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="T12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="U12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="V12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="W12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="X12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="Y12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="Z12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AA12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AB12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AC12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AD12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AE12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AF12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AG12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AH12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AI12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AJ12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AK12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AL12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AM12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AN12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AO12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AP12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AQ12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AR12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AS12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AT12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AU12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AV12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AW12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AX12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AY12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="AZ12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
       </c>
       <c r="BA12">
-        <v>0.58776341545545563</v>
+        <v>0.5877634154554556</v>
+      </c>
+      <c r="BB12">
+        <v>0.5877634154554556</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54">
       <c r="A13" s="2">
         <v>39401</v>
       </c>
@@ -2348,174 +2362,177 @@
         <v>-0.5352583396556696</v>
       </c>
       <c r="D13">
-        <v>0.39876434122288629</v>
+        <v>0.3987643412228863</v>
       </c>
       <c r="E13">
-        <v>0.39876434122288629</v>
+        <v>0.3987643412228863</v>
       </c>
       <c r="F13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="G13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="H13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="I13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="J13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="K13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="L13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="M13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="N13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="O13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="P13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="Q13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="R13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="S13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="T13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="U13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="V13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="W13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="X13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="Y13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="Z13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AA13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AB13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AC13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AD13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AE13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AF13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AG13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AH13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AI13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AJ13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AK13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AL13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AM13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AN13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AO13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AP13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AQ13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AR13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AS13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AT13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AU13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AV13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AW13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AX13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AY13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="AZ13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
       </c>
       <c r="BA13">
-        <v>0.75960249936844093</v>
+        <v>0.7596024993684409</v>
+      </c>
+      <c r="BB13">
+        <v>0.7596024993684409</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:54">
       <c r="A14" s="2">
         <v>39493</v>
       </c>
       <c r="C14">
-        <v>4.4882265810785213</v>
+        <v>4.488226581078521</v>
       </c>
       <c r="D14">
-        <v>5.5492657012157451</v>
+        <v>5.549265701215745</v>
       </c>
       <c r="E14">
         <v>5.495509969961347</v>
       </c>
       <c r="F14">
-        <v>5.9297599850832228</v>
+        <v>5.929759985083223</v>
       </c>
       <c r="G14">
-        <v>5.9297599850832228</v>
+        <v>5.929759985083223</v>
       </c>
       <c r="H14">
         <v>5.398981879140436</v>
@@ -2655,8 +2672,11 @@
       <c r="BA14">
         <v>5.398981879140436</v>
       </c>
+      <c r="BB14">
+        <v>5.398981879140436</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54">
       <c r="A15" s="2">
         <v>39583</v>
       </c>
@@ -2664,7 +2684,7 @@
         <v>-3.397482474306742</v>
       </c>
       <c r="E15">
-        <v>-3.5176531163787961</v>
+        <v>-3.517653116378796</v>
       </c>
       <c r="F15">
         <v>-4.292127547065931</v>
@@ -2673,300 +2693,306 @@
         <v>-4.292127547065931</v>
       </c>
       <c r="H15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="I15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="J15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="K15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="L15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="M15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="N15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="O15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="P15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="Q15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="R15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="S15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="T15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="U15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="V15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="W15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="X15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="Y15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="Z15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AA15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AB15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AC15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AD15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AE15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AF15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AG15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AH15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AI15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AJ15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AK15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AL15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AM15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AN15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AO15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AP15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AQ15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AR15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AS15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AT15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AU15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AV15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AW15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AX15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AY15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="AZ15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
       </c>
       <c r="BA15">
-        <v>-5.4697778290918109</v>
+        <v>-5.469777829091811</v>
+      </c>
+      <c r="BB15">
+        <v>-5.469777829091811</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54">
       <c r="A16" s="2">
         <v>39675</v>
       </c>
       <c r="D16">
-        <v>0.27825628515711293</v>
+        <v>0.2782562851571129</v>
       </c>
       <c r="E16">
         <v>-0.1449229662240441</v>
       </c>
       <c r="F16">
-        <v>-0.40041422683366079</v>
+        <v>-0.4004142268336608</v>
       </c>
       <c r="G16">
-        <v>-0.40041422683366079</v>
+        <v>-0.4004142268336608</v>
       </c>
       <c r="H16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="I16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="J16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="K16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="L16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="M16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="N16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="O16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="P16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="Q16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="R16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="S16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="T16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="U16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="V16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="W16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="X16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="Y16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="Z16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AA16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AB16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AC16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AD16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AE16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AF16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AG16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AH16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AI16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AJ16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AK16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AL16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AM16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AN16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AO16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AP16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AQ16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AR16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AS16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AT16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AU16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AV16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AW16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AX16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AY16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="AZ16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
       </c>
       <c r="BA16">
-        <v>-0.50163081145410615</v>
+        <v>-0.5016308114541062</v>
+      </c>
+      <c r="BB16">
+        <v>-0.5016308114541062</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:54">
       <c r="A17" s="2">
         <v>39767</v>
       </c>
@@ -2980,297 +3006,303 @@
         <v>-1.022271657802762</v>
       </c>
       <c r="H17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="I17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="J17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="K17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="L17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="M17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="N17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="O17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="P17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="Q17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="R17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="S17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="T17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="U17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="V17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="W17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="X17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="Y17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="Z17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AA17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AB17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AC17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AD17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AE17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AF17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AG17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AH17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AI17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AJ17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AK17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AL17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AM17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AN17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AO17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AP17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AQ17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AR17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AS17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AT17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AU17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AV17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AW17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AX17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AY17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="AZ17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
       </c>
       <c r="BA17">
-        <v>-0.62140540322508286</v>
+        <v>-0.6214054032250829</v>
+      </c>
+      <c r="BB17">
+        <v>-0.6214054032250829</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:54">
       <c r="A18" s="2">
         <v>39859</v>
       </c>
       <c r="E18">
-        <v>-2.5899095676207788</v>
+        <v>-2.589909567620779</v>
       </c>
       <c r="F18">
-        <v>0.25529485874811542</v>
+        <v>0.2552948587481154</v>
       </c>
       <c r="G18">
-        <v>0.17408648739531429</v>
+        <v>0.1740864873953143</v>
       </c>
       <c r="H18">
-        <v>0.93495092546736203</v>
+        <v>0.934950925467362</v>
       </c>
       <c r="I18">
-        <v>-0.19895188870768271</v>
+        <v>-0.1989518887076827</v>
       </c>
       <c r="J18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="K18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="L18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="M18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="N18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="O18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="P18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="Q18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="R18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="S18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="T18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="U18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="V18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="W18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="X18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="Y18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="Z18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AA18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AB18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AC18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AD18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AE18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AF18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AG18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AH18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AI18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AJ18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AK18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AL18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AM18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AN18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AO18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AP18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AQ18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AR18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AS18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AT18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AU18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AV18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AW18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AX18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AY18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="AZ18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
       </c>
       <c r="BA18">
-        <v>-1.4102718070443101</v>
+        <v>-1.41027180704431</v>
+      </c>
+      <c r="BB18">
+        <v>-1.41027180704431</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:54">
       <c r="A19" s="2">
         <v>39948</v>
       </c>
@@ -3278,148 +3310,151 @@
         <v>1.250154354816019</v>
       </c>
       <c r="G19">
-        <v>1.3090702577673881</v>
+        <v>1.309070257767388</v>
       </c>
       <c r="H19">
-        <v>-0.17534813952143219</v>
+        <v>-0.1753481395214322</v>
       </c>
       <c r="I19">
-        <v>-0.41031159715355159</v>
+        <v>-0.4103115971535516</v>
       </c>
       <c r="J19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="K19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="L19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="M19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="N19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="O19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="P19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="Q19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="R19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="S19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="T19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="U19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="V19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="W19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="X19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="Y19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="Z19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AA19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AB19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AC19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AD19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AE19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AF19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AG19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AH19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AI19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AJ19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AK19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AL19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AM19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AN19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AO19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AP19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AQ19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AR19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AS19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AT19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AU19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AV19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AW19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AX19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AY19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="AZ19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
       </c>
       <c r="BA19">
-        <v>-0.79192277384552767</v>
+        <v>-0.7919227738455277</v>
+      </c>
+      <c r="BB19">
+        <v>-0.7919227738455277</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54">
       <c r="A20" s="2">
         <v>40040</v>
       </c>
@@ -3427,148 +3462,151 @@
         <v>1.48621908594906</v>
       </c>
       <c r="G20">
-        <v>0.57175052000530968</v>
+        <v>0.5717505200053097</v>
       </c>
       <c r="H20">
         <v>0.5269297144938605</v>
       </c>
       <c r="I20">
-        <v>0.87108234414996843</v>
+        <v>0.8710823441499684</v>
       </c>
       <c r="J20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="K20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="L20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="M20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="N20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="O20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="P20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="Q20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="R20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="S20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="T20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="U20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="V20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="W20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="X20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="Y20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="Z20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AA20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AB20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AC20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AD20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AE20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AF20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AG20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AH20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AI20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AJ20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AK20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AL20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AM20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AN20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AO20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AP20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AQ20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AR20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AS20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AT20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AU20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AV20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AW20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AX20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AY20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="AZ20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
       </c>
       <c r="BA20">
-        <v>0.82817816052521209</v>
+        <v>0.8281781605252121</v>
+      </c>
+      <c r="BB20">
+        <v>0.8281781605252121</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:54">
       <c r="A21" s="2">
         <v>40132</v>
       </c>
@@ -3576,162 +3614,165 @@
         <v>-0.9550786931962989</v>
       </c>
       <c r="H21">
-        <v>-0.66393678700677583</v>
+        <v>-0.6639367870067758</v>
       </c>
       <c r="I21">
         <v>0.5368587067947459</v>
       </c>
       <c r="J21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="K21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="L21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="M21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="N21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="O21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="P21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="Q21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="R21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="S21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="T21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="U21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="V21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="W21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="X21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="Y21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="Z21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AA21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AB21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AC21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AD21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AE21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AF21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AG21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AH21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AI21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AJ21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AK21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AL21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AM21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AN21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AO21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AP21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AQ21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AR21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AS21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AT21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AU21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AV21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AW21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AX21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AY21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="AZ21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
       </c>
       <c r="BA21">
-        <v>0.63335809326380854</v>
+        <v>0.6333580932638085</v>
+      </c>
+      <c r="BB21">
+        <v>0.6333580932638085</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:54">
       <c r="A22" s="2">
         <v>40224</v>
       </c>
       <c r="G22">
-        <v>-3.8227690008276198</v>
+        <v>-3.82276900082762</v>
       </c>
       <c r="H22">
-        <v>-0.76218300072029876</v>
+        <v>-0.7621830007202988</v>
       </c>
       <c r="I22">
-        <v>-2.1589677103257969</v>
+        <v>-2.158967710325797</v>
       </c>
       <c r="J22">
-        <v>-2.5297073232751188</v>
+        <v>-2.529707323275119</v>
       </c>
       <c r="K22">
-        <v>-2.5297073232751188</v>
+        <v>-2.529707323275119</v>
       </c>
       <c r="L22">
         <v>-1.871721946158218</v>
@@ -3859,294 +3900,303 @@
       <c r="BA22">
         <v>-1.871721946158218</v>
       </c>
+      <c r="BB22">
+        <v>-1.871721946158218</v>
+      </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:54">
       <c r="A23" s="2">
         <v>40313</v>
       </c>
       <c r="H23">
-        <v>6.8533510835182341</v>
+        <v>6.853351083518234</v>
       </c>
       <c r="I23">
-        <v>6.7386360804507044</v>
+        <v>6.738636080450704</v>
       </c>
       <c r="J23">
-        <v>6.6081750933414014</v>
+        <v>6.608175093341401</v>
       </c>
       <c r="K23">
-        <v>6.6081750933414014</v>
+        <v>6.608175093341401</v>
       </c>
       <c r="L23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="M23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="N23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="O23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="P23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="Q23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="R23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="S23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="T23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="U23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="V23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="W23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="X23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="Y23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="Z23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AA23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AB23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AC23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AD23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AE23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AF23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AG23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AH23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AI23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AJ23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AK23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AL23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AM23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AN23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AO23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AP23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AQ23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AR23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AS23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AT23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AU23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AV23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AW23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AX23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AY23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="AZ23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
       </c>
       <c r="BA23">
-        <v>6.9470745510314771</v>
+        <v>6.947074551031477</v>
+      </c>
+      <c r="BB23">
+        <v>6.947074551031477</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:54">
       <c r="A24" s="2">
         <v>40405</v>
       </c>
       <c r="H24">
-        <v>-0.42020080385923109</v>
+        <v>-0.4202008038592311</v>
       </c>
       <c r="I24">
-        <v>-0.46681260726782631</v>
+        <v>-0.4668126072678263</v>
       </c>
       <c r="J24">
-        <v>-0.78546454829603363</v>
+        <v>-0.7854645482960336</v>
       </c>
       <c r="K24">
-        <v>-0.78546454829603363</v>
+        <v>-0.7854645482960336</v>
       </c>
       <c r="L24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="M24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="N24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="O24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="P24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="Q24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="R24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="S24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="T24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="U24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="V24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="W24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="X24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="Y24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="Z24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AA24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AB24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AC24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AD24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AE24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AF24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AG24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AH24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AI24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AJ24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AK24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AL24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AM24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AN24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AO24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AP24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AQ24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AR24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AS24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AT24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AU24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AV24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AW24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AX24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AY24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="AZ24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
       </c>
       <c r="BA24">
-        <v>-0.55383132097131238</v>
+        <v>-0.5538313209713124</v>
+      </c>
+      <c r="BB24">
+        <v>-0.5538313209713124</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:54">
       <c r="A25" s="2">
         <v>40497</v>
       </c>
@@ -4154,10 +4204,10 @@
         <v>-2.590749655123886</v>
       </c>
       <c r="J25">
-        <v>-2.5467418597318532</v>
+        <v>-2.546741859731853</v>
       </c>
       <c r="K25">
-        <v>-2.5467418597318532</v>
+        <v>-2.546741859731853</v>
       </c>
       <c r="L25">
         <v>-2.926189405619382</v>
@@ -4285,285 +4335,294 @@
       <c r="BA25">
         <v>-2.926189405619382</v>
       </c>
+      <c r="BB25">
+        <v>-2.926189405619382</v>
+      </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:54">
       <c r="A26" s="2">
         <v>40589</v>
       </c>
       <c r="I26">
-        <v>6.1905656681758776</v>
+        <v>6.190565668175878</v>
       </c>
       <c r="J26">
-        <v>7.0764410558985276</v>
+        <v>7.076441055898528</v>
       </c>
       <c r="K26">
-        <v>7.1645113231794966</v>
+        <v>7.164511323179497</v>
       </c>
       <c r="L26">
-        <v>7.1883609118406753</v>
+        <v>7.188360911840675</v>
       </c>
       <c r="M26">
-        <v>7.1883609118406753</v>
+        <v>7.188360911840675</v>
       </c>
       <c r="N26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="O26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="P26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="Q26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="R26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="S26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="T26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="U26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="V26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="W26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="X26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="Y26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="Z26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AA26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AB26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AC26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AD26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AE26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AF26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AG26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AH26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AI26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AJ26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AK26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AL26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AM26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AN26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AO26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AP26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AQ26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AR26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AS26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AT26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AU26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AV26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AW26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AX26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AY26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="AZ26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
       </c>
       <c r="BA26">
-        <v>9.4981978547863548</v>
+        <v>9.498197854786355</v>
+      </c>
+      <c r="BB26">
+        <v>9.498197854786355</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:54">
       <c r="A27" s="2">
         <v>40678</v>
       </c>
       <c r="J27">
-        <v>-0.37476547290660278</v>
+        <v>-0.3747654729066028</v>
       </c>
       <c r="K27">
-        <v>-0.46578543971939718</v>
+        <v>-0.4657854397193972</v>
       </c>
       <c r="L27">
-        <v>-0.36288761793301211</v>
+        <v>-0.3628876179330121</v>
       </c>
       <c r="M27">
-        <v>-0.36288761793301211</v>
+        <v>-0.3628876179330121</v>
       </c>
       <c r="N27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="O27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="P27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="Q27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="R27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="S27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="T27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="U27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="V27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="W27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="X27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="Y27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="Z27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AA27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AB27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AC27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AD27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AE27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AF27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AG27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AH27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AI27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AJ27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AK27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AL27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AM27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AN27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AO27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AP27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AQ27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AR27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AS27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AT27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AU27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AV27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AW27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AX27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AY27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="AZ27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
       </c>
       <c r="BA27">
-        <v>-0.49947683079628291</v>
+        <v>-0.4994768307962829</v>
+      </c>
+      <c r="BB27">
+        <v>-0.4994768307962829</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:54">
       <c r="A28" s="2">
         <v>40770</v>
       </c>
@@ -4574,267 +4633,273 @@
         <v>-1.036892547540091</v>
       </c>
       <c r="L28">
-        <v>-0.66465357461144947</v>
+        <v>-0.6646535746114495</v>
       </c>
       <c r="M28">
-        <v>-0.66465357461144947</v>
+        <v>-0.6646535746114495</v>
       </c>
       <c r="N28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="O28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="P28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="Q28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="R28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="S28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="T28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="U28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="V28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="W28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="X28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="Y28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="Z28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AA28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AB28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AC28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AD28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AE28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AF28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AG28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AH28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AI28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AJ28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AK28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AL28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AM28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AN28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AO28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AP28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AQ28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AR28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AS28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AT28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AU28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AV28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AW28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AX28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AY28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="AZ28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
       </c>
       <c r="BA28">
-        <v>-0.69029351353736956</v>
+        <v>-0.6902935135373696</v>
+      </c>
+      <c r="BB28">
+        <v>-0.6902935135373696</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:54">
       <c r="A29" s="2">
         <v>40862</v>
       </c>
       <c r="K29">
-        <v>1.9007951674699091</v>
+        <v>1.900795167469909</v>
       </c>
       <c r="L29">
-        <v>1.4482101623331829</v>
+        <v>1.448210162333183</v>
       </c>
       <c r="M29">
-        <v>1.4482101623331829</v>
+        <v>1.448210162333183</v>
       </c>
       <c r="N29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="O29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="P29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="Q29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="R29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="S29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="T29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="U29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="V29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="W29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="X29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="Y29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="Z29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AA29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AB29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AC29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AD29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AE29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AF29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AG29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AH29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AI29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AJ29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AK29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AL29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AM29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AN29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AO29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AP29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AQ29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AR29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AS29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AT29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AU29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AV29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AW29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AX29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AY29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="AZ29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
       </c>
       <c r="BA29">
-        <v>1.6609525856209191</v>
+        <v>1.660952585620919</v>
+      </c>
+      <c r="BB29">
+        <v>1.660952585620919</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:54">
       <c r="A30" s="2">
         <v>40954</v>
       </c>
@@ -4842,264 +4907,270 @@
         <v>-1.346695203931787</v>
       </c>
       <c r="L30">
-        <v>-0.73183519428950206</v>
+        <v>-0.7318351942895021</v>
       </c>
       <c r="M30">
-        <v>-0.63698583599872904</v>
+        <v>-0.636985835998729</v>
       </c>
       <c r="N30">
-        <v>-0.49284065217651118</v>
+        <v>-0.4928406521765112</v>
       </c>
       <c r="O30">
-        <v>-0.52669275523086867</v>
+        <v>-0.5266927552308687</v>
       </c>
       <c r="P30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="Q30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="R30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="S30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="T30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="U30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="V30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="W30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="X30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="Y30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="Z30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AA30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AB30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AC30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AD30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AE30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AF30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AG30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AH30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AI30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AJ30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AK30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AL30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AM30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AN30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AO30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AP30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AQ30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AR30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AS30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AT30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AU30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AV30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AW30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AX30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AY30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="AZ30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
       </c>
       <c r="BA30">
-        <v>0.53182490897924595</v>
+        <v>0.5318249089792459</v>
+      </c>
+      <c r="BB30">
+        <v>0.5318249089792459</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:54">
       <c r="A31" s="2">
         <v>41044</v>
       </c>
       <c r="L31">
-        <v>-1.0830978321938569</v>
+        <v>-1.083097832193857</v>
       </c>
       <c r="M31">
-        <v>-1.3820755450040281</v>
+        <v>-1.382075545004028</v>
       </c>
       <c r="N31">
-        <v>-1.0261250099804471</v>
+        <v>-1.026125009980447</v>
       </c>
       <c r="O31">
         <v>-0.580873509698975</v>
       </c>
       <c r="P31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="Q31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="R31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="S31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="T31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="U31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="V31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="W31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="X31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="Y31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="Z31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AA31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AB31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AC31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AD31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AE31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AF31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AG31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AH31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AI31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AJ31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AK31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AL31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AM31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AN31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AO31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AP31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AQ31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AR31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AS31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AT31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AU31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AV31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AW31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AX31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AY31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="AZ31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
       </c>
       <c r="BA31">
-        <v>0.63204782072297405</v>
+        <v>0.6320478207229741</v>
+      </c>
+      <c r="BB31">
+        <v>0.6320478207229741</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:54">
       <c r="A32" s="2">
         <v>41136</v>
       </c>
@@ -5107,263 +5178,269 @@
         <v>1.527423145498517</v>
       </c>
       <c r="M32">
-        <v>0.54397006375577917</v>
+        <v>0.5439700637557792</v>
       </c>
       <c r="N32">
-        <v>0.46880056125542069</v>
+        <v>0.4688005612554207</v>
       </c>
       <c r="O32">
         <v>0.1527994894393174</v>
       </c>
       <c r="P32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="Q32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="R32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="S32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="T32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="U32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="V32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="W32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="X32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="Y32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="Z32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AA32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AB32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AC32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AD32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AE32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AF32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AG32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AH32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AI32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AJ32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AK32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AL32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AM32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AN32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AO32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AP32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AQ32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AR32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AS32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AT32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AU32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AV32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AW32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AX32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AY32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="AZ32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
       </c>
       <c r="BA32">
-        <v>-0.12744903689218751</v>
+        <v>-0.1274490368921875</v>
+      </c>
+      <c r="BB32">
+        <v>-0.1274490368921875</v>
       </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:54">
       <c r="A33" s="2">
         <v>41228</v>
       </c>
       <c r="M33">
-        <v>-0.73360692313990228</v>
+        <v>-0.7336069231399023</v>
       </c>
       <c r="N33">
-        <v>-1.0229760928462639</v>
+        <v>-1.022976092846264</v>
       </c>
       <c r="O33">
         <v>-1.139826337098754</v>
       </c>
       <c r="P33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="Q33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="R33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="S33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="T33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="U33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="V33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="W33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="X33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="Y33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="Z33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AA33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AB33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AC33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AD33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AE33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AF33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AG33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AH33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AI33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AJ33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AK33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AL33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AM33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AN33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AO33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AP33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AQ33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AR33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AS33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AT33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AU33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AV33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AW33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AX33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AY33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="AZ33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
       </c>
       <c r="BA33">
-        <v>-0.66531808286673311</v>
+        <v>-0.6653180828667331</v>
+      </c>
+      <c r="BB33">
+        <v>-0.6653180828667331</v>
       </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:54">
       <c r="A34" s="2">
         <v>41320</v>
       </c>
       <c r="M34">
-        <v>-2.0877438668622972</v>
+        <v>-2.087743866862297</v>
       </c>
       <c r="N34">
         <v>-2.257495436498274</v>
@@ -5372,126 +5449,129 @@
         <v>-1.459428426433931</v>
       </c>
       <c r="P34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="Q34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="R34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="S34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="T34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="U34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="V34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="W34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="X34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="Y34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="Z34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AA34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AB34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AC34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AD34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AE34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AF34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AG34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AH34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AI34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AJ34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AK34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AL34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AM34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AN34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AO34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AP34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AQ34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AR34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AS34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AT34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AU34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AV34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AW34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AX34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AY34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="AZ34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
       </c>
       <c r="BA34">
-        <v>-2.7686828047276748</v>
+        <v>-2.768682804727675</v>
+      </c>
+      <c r="BB34">
+        <v>-2.768682804727675</v>
       </c>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:54">
       <c r="A35" s="2">
         <v>41409</v>
       </c>
       <c r="N35">
-        <v>1.9107946431052909</v>
+        <v>1.910794643105291</v>
       </c>
       <c r="O35">
         <v>1.695211655536482</v>
@@ -5610,16 +5690,19 @@
       <c r="BA35">
         <v>2.972562358782</v>
       </c>
+      <c r="BB35">
+        <v>2.972562358782</v>
+      </c>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:54">
       <c r="A36" s="2">
         <v>41501</v>
       </c>
       <c r="N36">
-        <v>2.3573262527893921</v>
+        <v>2.357326252789392</v>
       </c>
       <c r="O36">
-        <v>2.0746517594373022</v>
+        <v>2.074651759437302</v>
       </c>
       <c r="P36">
         <v>1.814509864363558</v>
@@ -5735,13 +5818,16 @@
       <c r="BA36">
         <v>1.814509864363558</v>
       </c>
+      <c r="BB36">
+        <v>1.814509864363558</v>
+      </c>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:54">
       <c r="A37" s="2">
         <v>41593</v>
       </c>
       <c r="O37">
-        <v>0.19527130075813659</v>
+        <v>0.1952713007581366</v>
       </c>
       <c r="P37">
         <v>0.7290697448430592</v>
@@ -5857,254 +5943,263 @@
       <c r="BA37">
         <v>0.7290697448430592</v>
       </c>
+      <c r="BB37">
+        <v>0.7290697448430592</v>
+      </c>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:54">
       <c r="A38" s="2">
         <v>41685</v>
       </c>
       <c r="O38">
-        <v>3.6407092583607721</v>
+        <v>3.640709258360772</v>
       </c>
       <c r="P38">
-        <v>4.1640582923241416</v>
+        <v>4.164058292324142</v>
       </c>
       <c r="Q38">
-        <v>4.5102403784337071</v>
+        <v>4.510240378433707</v>
       </c>
       <c r="R38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="S38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="T38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="U38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="V38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="W38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="X38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="Y38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="Z38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AA38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AB38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AC38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AD38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AE38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AF38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AG38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AH38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AI38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AJ38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AK38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AL38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AM38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AN38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AO38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AP38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AQ38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AR38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AS38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AT38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AU38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AV38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AW38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AX38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AY38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="AZ38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
       </c>
       <c r="BA38">
-        <v>4.4343770376021894</v>
+        <v>4.434377037602189</v>
+      </c>
+      <c r="BB38">
+        <v>4.434377037602189</v>
       </c>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:54">
       <c r="A39" s="2">
         <v>41774</v>
       </c>
       <c r="P39">
-        <v>-3.8946631766249031</v>
+        <v>-3.894663176624903</v>
       </c>
       <c r="Q39">
         <v>-3.719213407076055</v>
       </c>
       <c r="R39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="S39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="T39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="U39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="V39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="W39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="X39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="Y39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="Z39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AA39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AB39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AC39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AD39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AE39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AF39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AG39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AH39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AI39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AJ39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AK39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AL39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AM39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AN39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AO39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AP39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AQ39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AR39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AS39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AT39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AU39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AV39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AW39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AX39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AY39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="AZ39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
       </c>
       <c r="BA39">
-        <v>-3.8306745483074849</v>
+        <v>-3.830674548307485</v>
+      </c>
+      <c r="BB39">
+        <v>-3.830674548307485</v>
       </c>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:54">
       <c r="A40" s="2">
         <v>41866</v>
       </c>
       <c r="P40">
-        <v>-0.34811511303539078</v>
+        <v>-0.3481151130353908</v>
       </c>
       <c r="Q40">
         <v>-1.527407223205103</v>
@@ -6217,353 +6312,365 @@
       <c r="BA40">
         <v>-0.3546604117736365</v>
       </c>
+      <c r="BB40">
+        <v>-0.3546604117736365</v>
+      </c>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:54">
       <c r="A41" s="2">
         <v>41958</v>
       </c>
       <c r="Q41">
-        <v>1.3256470822331321</v>
+        <v>1.325647082233132</v>
       </c>
       <c r="R41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="S41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="T41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="U41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="V41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="W41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="X41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="Y41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="Z41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AA41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AB41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AC41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AD41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AE41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AF41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AG41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AH41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AI41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AJ41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AK41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AL41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AM41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AN41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AO41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AP41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AQ41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AR41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AS41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AT41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AU41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AV41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AW41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AX41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AY41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="AZ41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
       </c>
       <c r="BA41">
-        <v>0.58411108841166026</v>
+        <v>0.5841110884116603</v>
+      </c>
+      <c r="BB41">
+        <v>0.5841110884116603</v>
       </c>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:54">
       <c r="A42" s="2">
         <v>42050</v>
       </c>
       <c r="Q42">
-        <v>1.6998893494740059</v>
+        <v>1.699889349474006</v>
       </c>
       <c r="R42">
-        <v>1.8056151633164319</v>
+        <v>1.805615163316432</v>
       </c>
       <c r="S42">
         <v>1.440417714861923</v>
       </c>
       <c r="T42">
-        <v>0.86055909546705323</v>
+        <v>0.8605590954670532</v>
       </c>
       <c r="U42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="V42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="W42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="X42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="Y42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="Z42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AA42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AB42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AC42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AD42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AE42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AF42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AG42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AH42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AI42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AJ42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AK42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AL42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AM42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AN42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AO42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AP42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AQ42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AR42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AS42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AT42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AU42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AV42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AW42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AX42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AY42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="AZ42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
       </c>
       <c r="BA42">
-        <v>0.33114572815999571</v>
+        <v>0.3311457281599957</v>
+      </c>
+      <c r="BB42">
+        <v>0.3311457281599957</v>
       </c>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:54">
       <c r="A43" s="2">
         <v>42139</v>
       </c>
       <c r="R43">
-        <v>-1.3012407423917409</v>
+        <v>-1.301240742391741</v>
       </c>
       <c r="S43">
         <v>-1.65477164223762</v>
       </c>
       <c r="T43">
-        <v>-1.1890645929248791</v>
+        <v>-1.189064592924879</v>
       </c>
       <c r="U43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="V43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="W43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="X43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="Y43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="Z43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AA43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AB43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AC43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AD43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AE43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AF43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AG43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AH43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AI43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AJ43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AK43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AL43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AM43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AN43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AO43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AP43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AQ43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AR43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AS43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AT43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AU43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AV43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AW43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AX43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AY43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="AZ43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
       </c>
       <c r="BA43">
-        <v>-0.98333885494773199</v>
+        <v>-0.983338854947732</v>
+      </c>
+      <c r="BB43">
+        <v>-0.983338854947732</v>
       </c>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:54">
       <c r="A44" s="2">
         <v>42231</v>
       </c>
@@ -6571,222 +6678,228 @@
         <v>-0.3250787905929684</v>
       </c>
       <c r="S44">
-        <v>-0.27283369311234651</v>
+        <v>-0.2728336931123465</v>
       </c>
       <c r="T44">
-        <v>-0.21127257090391541</v>
+        <v>-0.2112725709039154</v>
       </c>
       <c r="U44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="V44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="W44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="X44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="Y44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="Z44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AA44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AB44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AC44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AD44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AE44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AF44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AG44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AH44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AI44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AJ44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AK44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AL44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AM44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AN44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AO44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AP44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AQ44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AR44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AS44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AT44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AU44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AV44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AW44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AX44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AY44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="AZ44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
       </c>
       <c r="BA44">
-        <v>3.6793710447142303E-2</v>
+        <v>0.0367937104471423</v>
+      </c>
+      <c r="BB44">
+        <v>0.0367937104471423</v>
       </c>
     </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:54">
       <c r="A45" s="2">
         <v>42323</v>
       </c>
       <c r="S45">
-        <v>1.9698906494923849</v>
+        <v>1.969890649492385</v>
       </c>
       <c r="T45">
         <v>1.933166771253241</v>
       </c>
       <c r="U45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="V45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="W45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="X45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="Y45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="Z45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AA45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AB45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AC45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AD45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AE45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AF45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AG45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AH45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AI45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AJ45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AK45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AL45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AM45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AN45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AO45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AP45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AQ45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AR45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AS45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AT45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AU45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AV45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AW45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AX45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AY45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="AZ45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
       </c>
       <c r="BA45">
-        <v>2.0498126412788338</v>
+        <v>2.049812641278834</v>
+      </c>
+      <c r="BB45">
+        <v>2.049812641278834</v>
       </c>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:54">
       <c r="A46" s="2">
         <v>42415</v>
       </c>
@@ -6794,7 +6907,7 @@
         <v>2.325384209656022</v>
       </c>
       <c r="T46">
-        <v>2.2758080659584858</v>
+        <v>2.275808065958486</v>
       </c>
       <c r="U46">
         <v>2.087453263562125</v>
@@ -6895,13 +7008,16 @@
       <c r="BA46">
         <v>2.087453263562125</v>
       </c>
+      <c r="BB46">
+        <v>2.087453263562125</v>
+      </c>
     </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:54">
       <c r="A47" s="2">
         <v>42505</v>
       </c>
       <c r="T47">
-        <v>-1.9072864491145369</v>
+        <v>-1.907286449114537</v>
       </c>
       <c r="U47">
         <v>-1.438164479066856</v>
@@ -7002,224 +7118,233 @@
       <c r="BA47">
         <v>-1.438164479066856</v>
       </c>
+      <c r="BB47">
+        <v>-1.438164479066856</v>
+      </c>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:54">
       <c r="A48" s="2">
         <v>42597</v>
       </c>
       <c r="T48">
-        <v>0.27905369259086399</v>
+        <v>0.279053692590864</v>
       </c>
       <c r="U48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="V48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="W48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="X48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="Y48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="Z48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AA48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AB48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AC48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AD48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AE48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AF48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AG48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AH48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AI48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AJ48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AK48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AL48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AM48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AN48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AO48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AP48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AQ48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AR48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AS48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AT48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AU48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AV48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AW48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AX48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AY48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="AZ48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
       </c>
       <c r="BA48">
-        <v>-2.6849582087322691E-2</v>
+        <v>-0.02684958208732269</v>
+      </c>
+      <c r="BB48">
+        <v>-0.02684958208732269</v>
       </c>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:54">
       <c r="A49" s="2">
         <v>42689</v>
       </c>
       <c r="U49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="V49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="W49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="X49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="Y49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="Z49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AA49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AB49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AC49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AD49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AE49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AF49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AG49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AH49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AI49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AJ49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AK49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AL49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AM49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AN49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AO49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AP49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AQ49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AR49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AS49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AT49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AU49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AV49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AW49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AX49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AY49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="AZ49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
       </c>
       <c r="BA49">
-        <v>0.82378454507872334</v>
+        <v>0.8237845450787233</v>
+      </c>
+      <c r="BB49">
+        <v>0.8237845450787233</v>
       </c>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:54">
       <c r="A50" s="2">
         <v>42781</v>
       </c>
       <c r="U50">
-        <v>2.3001763638837081</v>
+        <v>2.300176363883708</v>
       </c>
       <c r="V50">
         <v>3.542226646026521</v>
@@ -7317,117 +7442,123 @@
       <c r="BA50">
         <v>2.86126545641612</v>
       </c>
+      <c r="BB50">
+        <v>2.86126545641612</v>
+      </c>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:54">
       <c r="A51" s="2">
         <v>42870</v>
       </c>
       <c r="V51">
-        <v>0.49490404679413302</v>
+        <v>0.494904046794133</v>
       </c>
       <c r="W51">
-        <v>0.54191199953055502</v>
+        <v>0.541911999530555</v>
       </c>
       <c r="X51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="Y51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="Z51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AA51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AB51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AC51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AD51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AE51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AF51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AG51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AH51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AI51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AJ51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AK51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AL51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AM51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AN51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AO51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AP51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AQ51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AR51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AS51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AT51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AU51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AV51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AW51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AX51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AY51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="AZ51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
       </c>
       <c r="BA51">
-        <v>0.50695326440275323</v>
+        <v>0.5069532644027532</v>
+      </c>
+      <c r="BB51">
+        <v>0.5069532644027532</v>
       </c>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:54">
       <c r="A52" s="2">
         <v>42962</v>
       </c>
       <c r="V52">
-        <v>-0.43199430984248011</v>
+        <v>-0.4319943098424801</v>
       </c>
       <c r="W52">
-        <v>-0.25210308319239522</v>
+        <v>-0.2521030831923952</v>
       </c>
       <c r="X52">
         <v>-0.2174083661145261</v>
@@ -7519,13 +7650,16 @@
       <c r="BA52">
         <v>-0.2174083661145261</v>
       </c>
+      <c r="BB52">
+        <v>-0.2174083661145261</v>
+      </c>
     </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:54">
       <c r="A53" s="2">
         <v>43054</v>
       </c>
       <c r="W53">
-        <v>-0.35732951868206442</v>
+        <v>-0.3573295186820644</v>
       </c>
       <c r="X53">
         <v>0.1045745676356802</v>
@@ -7617,13 +7751,16 @@
       <c r="BA53">
         <v>0.1045745676356802</v>
       </c>
+      <c r="BB53">
+        <v>0.1045745676356802</v>
+      </c>
     </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:54">
       <c r="A54" s="2">
         <v>43146</v>
       </c>
       <c r="X54">
-        <v>2.0720938504834412</v>
+        <v>2.072093850483441</v>
       </c>
       <c r="Y54">
         <v>1.598757058788109</v>
@@ -7632,7 +7769,7 @@
         <v>1.6</v>
       </c>
       <c r="AA54">
-        <v>0.80161520845854284</v>
+        <v>0.8016152084585428</v>
       </c>
       <c r="AB54">
         <v>0.9</v>
@@ -7712,19 +7849,22 @@
       <c r="BA54">
         <v>0.4936918743079417</v>
       </c>
+      <c r="BB54">
+        <v>0.4936918743079417</v>
+      </c>
     </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:54">
       <c r="A55" s="2">
         <v>43235</v>
       </c>
       <c r="Y55">
-        <v>0.60915076260161527</v>
+        <v>0.6091507626016153</v>
       </c>
       <c r="Z55">
         <v>0.9</v>
       </c>
       <c r="AA55">
-        <v>0.86987470276847034</v>
+        <v>0.8698747027684703</v>
       </c>
       <c r="AB55">
         <v>0.8</v>
@@ -7804,8 +7944,11 @@
       <c r="BA55">
         <v>1.322625689988016</v>
       </c>
+      <c r="BB55">
+        <v>1.322625689988016</v>
+      </c>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:54">
       <c r="A56" s="2">
         <v>43327</v>
       </c>
@@ -7813,93 +7956,96 @@
         <v>0.9</v>
       </c>
       <c r="AA56">
-        <v>0.71862764197771867</v>
+        <v>0.7186276419777187</v>
       </c>
       <c r="AB56">
         <v>0.9</v>
       </c>
       <c r="AC56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AD56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AE56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AF56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AG56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AH56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AI56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AJ56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AK56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AL56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AM56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AN56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AO56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AP56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AQ56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AR56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AS56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AT56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AU56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AV56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AW56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AX56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AY56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="AZ56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
       </c>
       <c r="BA56">
-        <v>0.68997726071602017</v>
+        <v>0.6899772607160202</v>
+      </c>
+      <c r="BB56">
+        <v>0.6899772607160202</v>
       </c>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:54">
       <c r="A57" s="2">
         <v>43419</v>
       </c>
       <c r="AA57">
-        <v>1.2843230739472771</v>
+        <v>1.284323073947277</v>
       </c>
       <c r="AB57">
         <v>1</v>
@@ -7979,8 +8125,11 @@
       <c r="BA57">
         <v>1.240850467000882</v>
       </c>
+      <c r="BB57">
+        <v>1.240850467000882</v>
+      </c>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:54">
       <c r="A58" s="2">
         <v>43511</v>
       </c>
@@ -7994,7 +8143,7 @@
         <v>2.460441995432646</v>
       </c>
       <c r="AE58">
-        <v>2.6456714041595149</v>
+        <v>2.645671404159515</v>
       </c>
       <c r="AF58">
         <v>2.6</v>
@@ -8062,8 +8211,11 @@
       <c r="BA58">
         <v>2.6</v>
       </c>
+      <c r="BB58">
+        <v>2.6</v>
+      </c>
     </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:54">
       <c r="A59" s="2">
         <v>43600</v>
       </c>
@@ -8074,7 +8226,7 @@
         <v>-1.062312873792649</v>
       </c>
       <c r="AE59">
-        <v>-0.92674034589379062</v>
+        <v>-0.9267403458937906</v>
       </c>
       <c r="AF59">
         <v>-0.9</v>
@@ -8142,13 +8294,16 @@
       <c r="BA59">
         <v>-0.9</v>
       </c>
+      <c r="BB59">
+        <v>-0.9</v>
+      </c>
     </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:54">
       <c r="A60" s="2">
         <v>43692</v>
       </c>
       <c r="AD60">
-        <v>1.1729803714303699</v>
+        <v>1.17298037143037</v>
       </c>
       <c r="AE60">
         <v>0.3597775049439349</v>
@@ -8219,13 +8374,16 @@
       <c r="BA60">
         <v>0.4</v>
       </c>
+      <c r="BB60">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:54">
       <c r="A61" s="2">
         <v>43784</v>
       </c>
       <c r="AE61">
-        <v>0.60045005136375096</v>
+        <v>0.600450051363751</v>
       </c>
       <c r="AF61">
         <v>0.1</v>
@@ -8293,22 +8451,25 @@
       <c r="BA61">
         <v>0.1</v>
       </c>
+      <c r="BB61">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:54">
       <c r="A62" s="2">
         <v>43876</v>
       </c>
       <c r="AF62">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AG62">
         <v>5.143518966296142</v>
       </c>
       <c r="AH62">
-        <v>5.0811162218976449</v>
+        <v>5.081116221897645</v>
       </c>
       <c r="AI62">
-        <v>4.3032795415228549</v>
+        <v>4.303279541522855</v>
       </c>
       <c r="AJ62">
         <v>4.305581231918552</v>
@@ -8364,76 +8525,82 @@
       <c r="BA62">
         <v>4.305581231918552</v>
       </c>
+      <c r="BB62">
+        <v>4.305581231918552</v>
+      </c>
     </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:54">
       <c r="A63" s="2">
         <v>43966</v>
       </c>
       <c r="AG63">
-        <v>-4.2221334164257476</v>
+        <v>-4.222133416425748</v>
       </c>
       <c r="AH63">
-        <v>-4.2670504982505548</v>
+        <v>-4.267050498250555</v>
       </c>
       <c r="AI63">
         <v>-4.290232713625997</v>
       </c>
       <c r="AJ63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AK63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AL63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AM63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AN63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AO63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AP63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AQ63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AR63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AS63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AT63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AU63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AV63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AW63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AX63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AY63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="AZ63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
       </c>
       <c r="BA63">
-        <v>-4.2902319431953524</v>
+        <v>-4.290231943195352</v>
+      </c>
+      <c r="BB63">
+        <v>-4.290231943195352</v>
       </c>
     </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:54">
       <c r="A64" s="2">
         <v>44058</v>
       </c>
@@ -8441,196 +8608,205 @@
         <v>-1.967214790670653</v>
       </c>
       <c r="AI64">
-        <v>-1.2769110619021831</v>
+        <v>-1.276911061902183</v>
       </c>
       <c r="AJ64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AK64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AL64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AM64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AN64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AO64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AP64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AQ64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AR64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AS64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AT64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AU64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AV64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AW64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AX64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AY64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="AZ64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
       </c>
       <c r="BA64">
-        <v>-1.2947635023269439</v>
+        <v>-1.294763502326944</v>
+      </c>
+      <c r="BB64">
+        <v>-1.294763502326944</v>
       </c>
     </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:54">
       <c r="A65" s="2">
         <v>44150</v>
       </c>
       <c r="AI65">
-        <v>1.8361127474571219</v>
+        <v>1.836112747457122</v>
       </c>
       <c r="AJ65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AK65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AL65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AM65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AN65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AO65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AP65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AQ65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AR65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AS65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AT65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AU65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AV65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AW65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AX65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AY65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="AZ65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
       </c>
       <c r="BA65">
-        <v>3.7271665527738089</v>
+        <v>3.727166552773809</v>
+      </c>
+      <c r="BB65">
+        <v>3.727166552773809</v>
       </c>
     </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:54">
       <c r="A66" s="2">
         <v>44242</v>
       </c>
       <c r="AJ66">
-        <v>1.1425072417365669</v>
+        <v>1.142507241736567</v>
       </c>
       <c r="AK66">
-        <v>-0.23253282913960049</v>
+        <v>-0.2325328291396005</v>
       </c>
       <c r="AL66">
-        <v>8.0495912802518887E-2</v>
+        <v>0.08049591280251889</v>
       </c>
       <c r="AM66">
-        <v>0.21915574245534231</v>
+        <v>0.2191557424553423</v>
       </c>
       <c r="AN66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AO66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AP66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AQ66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AR66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AS66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AT66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AU66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AV66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AW66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AX66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AY66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="AZ66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
       </c>
       <c r="BA66">
-        <v>-7.5975464776973922E-2</v>
+        <v>-0.07597546477697392</v>
+      </c>
+      <c r="BB66">
+        <v>-0.07597546477697392</v>
       </c>
     </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:54">
       <c r="A67" s="2">
         <v>44331</v>
       </c>
       <c r="AK67">
-        <v>0.27789214681965291</v>
+        <v>0.2778921468196529</v>
       </c>
       <c r="AL67">
-        <v>1.7515657566231231</v>
+        <v>1.751565756623123</v>
       </c>
       <c r="AM67">
-        <v>1.7224466812859589</v>
+        <v>1.722446681285959</v>
       </c>
       <c r="AN67">
         <v>1.620116340063873</v>
@@ -8674,163 +8850,175 @@
       <c r="BA67">
         <v>1.620116340063873</v>
       </c>
+      <c r="BB67">
+        <v>1.620116340063873</v>
+      </c>
     </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:54">
       <c r="A68" s="2">
         <v>44423</v>
       </c>
       <c r="AL68">
-        <v>-2.3362116852200638</v>
+        <v>-2.336211685220064</v>
       </c>
       <c r="AM68">
-        <v>-3.6497571138266518</v>
+        <v>-3.649757113826652</v>
       </c>
       <c r="AN68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AO68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AP68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AQ68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AR68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AS68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AT68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AU68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AV68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AW68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AX68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AY68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="AZ68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
       </c>
       <c r="BA68">
-        <v>-3.6201771728436261</v>
+        <v>-3.620177172843626</v>
+      </c>
+      <c r="BB68">
+        <v>-3.620177172843626</v>
       </c>
     </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:54">
       <c r="A69" s="2">
         <v>44515</v>
       </c>
       <c r="AM69">
-        <v>3.6429549028966328E-2</v>
+        <v>0.03642954902896633</v>
       </c>
       <c r="AN69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AO69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AP69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AQ69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AR69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AS69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AT69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AU69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AV69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AW69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AX69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AY69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="AZ69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
       </c>
       <c r="BA69">
-        <v>-0.95963001998335073</v>
+        <v>-0.9596300199833507</v>
+      </c>
+      <c r="BB69">
+        <v>-0.9596300199833507</v>
       </c>
     </row>
-    <row r="70" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:54">
       <c r="A70" s="2">
         <v>44607</v>
       </c>
       <c r="AN70">
-        <v>4.6230628090513761</v>
+        <v>4.623062809051376</v>
       </c>
       <c r="AO70">
-        <v>3.0854186953619229</v>
+        <v>3.085418695361923</v>
       </c>
       <c r="AP70">
-        <v>3.0944654956528268</v>
+        <v>3.094465495652827</v>
       </c>
       <c r="AQ70">
         <v>3.508331755114042</v>
       </c>
       <c r="AR70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AS70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AT70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AU70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AV70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AW70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AX70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AY70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="AZ70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
       </c>
       <c r="BA70">
-        <v>3.5093823785261549</v>
+        <v>3.509382378526155</v>
+      </c>
+      <c r="BB70">
+        <v>3.509382378526155</v>
       </c>
     </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:54">
       <c r="A71" s="2">
         <v>44696</v>
       </c>
       <c r="AO71">
-        <v>-3.3617111509380631</v>
+        <v>-3.361711150938063</v>
       </c>
       <c r="AP71">
         <v>-3.229763247769398</v>
@@ -8839,78 +9027,84 @@
         <v>-3.1555962096012</v>
       </c>
       <c r="AR71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AS71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AT71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AU71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AV71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AW71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AX71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AY71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="AZ71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
       </c>
       <c r="BA71">
-        <v>-3.1034648354023062</v>
+        <v>-3.103464835402306</v>
+      </c>
+      <c r="BB71">
+        <v>-3.103464835402306</v>
       </c>
     </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:54">
       <c r="A72" s="2">
         <v>44788</v>
       </c>
       <c r="AP72">
-        <v>-1.4329891179920931</v>
+        <v>-1.432989117992093</v>
       </c>
       <c r="AQ72">
         <v>-0.9206572350902178</v>
       </c>
       <c r="AR72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AS72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AT72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AU72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AV72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AW72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AX72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AY72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="AZ72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
       </c>
       <c r="BA72">
-        <v>-0.97386908523213833</v>
+        <v>-0.9738690852321383</v>
+      </c>
+      <c r="BB72">
+        <v>-0.9738690852321383</v>
       </c>
     </row>
-    <row r="73" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:54">
       <c r="A73" s="2">
         <v>44880</v>
       </c>
@@ -8918,45 +9112,48 @@
         <v>-2.851410521811431</v>
       </c>
       <c r="AR73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AS73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AT73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AU73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AV73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AW73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AX73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AY73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="AZ73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
       </c>
       <c r="BA73">
-        <v>-3.2068365802084462</v>
+        <v>-3.206836580208446</v>
+      </c>
+      <c r="BB73">
+        <v>-3.206836580208446</v>
       </c>
     </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:54">
       <c r="A74" s="2">
         <v>44972</v>
       </c>
       <c r="AR74">
-        <v>3.9335573940020789</v>
+        <v>3.933557394002079</v>
       </c>
       <c r="AS74">
-        <v>2.6589993125497391</v>
+        <v>2.658999312549739</v>
       </c>
       <c r="AT74">
         <v>2.678152809435701</v>
@@ -8982,69 +9179,78 @@
       <c r="BA74">
         <v>1.5011358099934</v>
       </c>
+      <c r="BB74">
+        <v>1.5011358099934</v>
+      </c>
     </row>
-    <row r="75" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:54">
       <c r="A75" s="2">
         <v>45061</v>
       </c>
       <c r="AS75">
-        <v>0.23293593589943379</v>
+        <v>0.2329359358994338</v>
       </c>
       <c r="AT75">
-        <v>-0.91291602040057285</v>
+        <v>-0.9129160204005728</v>
       </c>
       <c r="AU75">
-        <v>-0.50694877105830471</v>
+        <v>-0.5069487710583047</v>
       </c>
       <c r="AV75">
-        <v>-0.51643240319617689</v>
+        <v>-0.5164324031961769</v>
       </c>
       <c r="AW75">
-        <v>-0.51643240319617689</v>
+        <v>-0.5164324031961769</v>
       </c>
       <c r="AX75">
-        <v>-0.51643240319617689</v>
+        <v>-0.5164324031961769</v>
       </c>
       <c r="AY75">
-        <v>-0.51643240319617689</v>
+        <v>-0.5164324031961769</v>
       </c>
       <c r="AZ75">
-        <v>-0.51643240319617689</v>
+        <v>-0.5164324031961769</v>
       </c>
       <c r="BA75">
-        <v>-0.51643240319617689</v>
+        <v>-0.5164324031961769</v>
+      </c>
+      <c r="BB75">
+        <v>-0.5164324031961769</v>
       </c>
     </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:54">
       <c r="A76" s="2">
         <v>45153</v>
       </c>
       <c r="AT76">
-        <v>0.43245063494397579</v>
+        <v>0.4324506349439758</v>
       </c>
       <c r="AU76">
-        <v>-0.80202957402245545</v>
+        <v>-0.8020295740224554</v>
       </c>
       <c r="AV76">
-        <v>-0.72675858128138771</v>
+        <v>-0.7267585812813877</v>
       </c>
       <c r="AW76">
-        <v>-0.72675858128138771</v>
+        <v>-0.7267585812813877</v>
       </c>
       <c r="AX76">
-        <v>-0.72675858128138771</v>
+        <v>-0.7267585812813877</v>
       </c>
       <c r="AY76">
-        <v>-0.72675858128138771</v>
+        <v>-0.7267585812813877</v>
       </c>
       <c r="AZ76">
-        <v>-0.72675858128138771</v>
+        <v>-0.7267585812813877</v>
       </c>
       <c r="BA76">
-        <v>-0.72675858128138771</v>
+        <v>-0.7267585812813877</v>
+      </c>
+      <c r="BB76">
+        <v>-0.7267585812813877</v>
       </c>
     </row>
-    <row r="77" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:54">
       <c r="A77" s="2">
         <v>45245</v>
       </c>
@@ -9052,25 +9258,28 @@
         <v>-1.721673722292465</v>
       </c>
       <c r="AV77">
-        <v>-1.8634762647894969</v>
+        <v>-1.863476264789497</v>
       </c>
       <c r="AW77">
-        <v>-1.8634762647894969</v>
+        <v>-1.863476264789497</v>
       </c>
       <c r="AX77">
-        <v>-1.8634762647894969</v>
+        <v>-1.863476264789497</v>
       </c>
       <c r="AY77">
-        <v>-1.8634762647894969</v>
+        <v>-1.863476264789497</v>
       </c>
       <c r="AZ77">
-        <v>-1.8634762647894969</v>
+        <v>-1.863476264789497</v>
       </c>
       <c r="BA77">
-        <v>-1.8634762647894969</v>
+        <v>-1.863476264789497</v>
+      </c>
+      <c r="BB77">
+        <v>-1.863476264789497</v>
       </c>
     </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:54">
       <c r="A78" s="2">
         <v>45337</v>
       </c>
@@ -9078,42 +9287,48 @@
         <v>2.712662502476618</v>
       </c>
       <c r="AW78">
-        <v>0.78452990663851097</v>
+        <v>0.784529906638511</v>
       </c>
       <c r="AX78">
-        <v>0.71630991475689143</v>
+        <v>0.7163099147568914</v>
       </c>
       <c r="AY78">
-        <v>0.72758545858640389</v>
+        <v>0.7275854585864039</v>
       </c>
       <c r="AZ78">
-        <v>0.50611986697641953</v>
+        <v>0.5061198669764195</v>
       </c>
       <c r="BA78">
-        <v>0.50611986697641953</v>
+        <v>0.5061198669764195</v>
+      </c>
+      <c r="BB78">
+        <v>0.5061198669764195</v>
       </c>
     </row>
-    <row r="79" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:54">
       <c r="A79" s="2">
         <v>45427</v>
       </c>
       <c r="AW79">
-        <v>-2.0081290002876102</v>
+        <v>-2.00812900028761</v>
       </c>
       <c r="AX79">
         <v>-2.246549282342869</v>
       </c>
       <c r="AY79">
-        <v>-2.1446952521320952</v>
+        <v>-2.144695252132095</v>
       </c>
       <c r="AZ79">
-        <v>-1.8447237544421851</v>
+        <v>-1.844723754442185</v>
       </c>
       <c r="BA79">
-        <v>-1.8447237544421851</v>
+        <v>-1.844723754442185</v>
+      </c>
+      <c r="BB79">
+        <v>-1.844723754442185</v>
       </c>
     </row>
-    <row r="80" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:54">
       <c r="A80" s="2">
         <v>45519</v>
       </c>
@@ -9121,21 +9336,24 @@
         <v>-0.346469331090276</v>
       </c>
       <c r="AY80">
-        <v>-0.53063421683329182</v>
+        <v>-0.5306342168332918</v>
       </c>
       <c r="AZ80">
-        <v>-0.31131467145365832</v>
+        <v>-0.3113146714536583</v>
       </c>
       <c r="BA80">
-        <v>-0.31131467145365832</v>
+        <v>-0.3113146714536583</v>
+      </c>
+      <c r="BB80">
+        <v>-0.3113146714536583</v>
       </c>
     </row>
-    <row r="81" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:54">
       <c r="A81" s="2">
         <v>45611</v>
       </c>
       <c r="AY81">
-        <v>1.0437122388897959</v>
+        <v>1.043712238889796</v>
       </c>
       <c r="AZ81">
         <v>0.8443262641745406</v>
@@ -9143,24 +9361,41 @@
       <c r="BA81">
         <v>0.8443262641745406</v>
       </c>
+      <c r="BB81">
+        <v>0.8443262641745406</v>
+      </c>
     </row>
-    <row r="82" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:54">
       <c r="A82" s="2">
         <v>45703</v>
       </c>
       <c r="AZ82">
-        <v>0.52758486034738894</v>
+        <v>0.5275848603473889</v>
       </c>
       <c r="BA82">
-        <v>0.18992661668437449</v>
+        <v>0.1899266166843745</v>
+      </c>
+      <c r="BB82">
+        <v>0.2255501838065186</v>
       </c>
     </row>
-    <row r="83" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:54">
       <c r="A83" s="2">
         <v>45792</v>
       </c>
       <c r="BA83">
-        <v>-2.0734582797890941</v>
+        <v>-2.073458279789094</v>
+      </c>
+      <c r="BB83">
+        <v>-1.137044400346582</v>
+      </c>
+    </row>
+    <row r="84" spans="1:54">
+      <c r="A84" s="2">
+        <v>45884</v>
+      </c>
+      <c r="BB84">
+        <v>-0.4792091214565772</v>
       </c>
     </row>
   </sheetData>
